--- a/BackTest/2019-10-27 BackTest WET.xlsx
+++ b/BackTest/2019-10-27 BackTest WET.xlsx
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -1816,14 +1816,20 @@
         <v>4.253333333333337</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.21</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1858,7 +1864,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1886,14 +1896,20 @@
         <v>4.19666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.18</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1921,14 +1937,20 @@
         <v>4.200000000000004</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.21</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1963,7 +1985,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1998,7 +2024,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2033,7 +2063,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2068,7 +2102,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2103,7 +2141,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2180,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2173,7 +2219,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2208,7 +2258,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2243,7 +2297,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2278,7 +2336,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2313,7 +2375,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2414,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2376,18 +2446,18 @@
         <v>4.203333333333337</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2415,20 +2485,16 @@
         <v>4.220000000000002</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4.23</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2458,20 +2524,16 @@
         <v>4.226666666666669</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4.23</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2501,18 +2563,18 @@
         <v>4.223333333333335</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2540,20 +2602,16 @@
         <v>4.216666666666668</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2583,20 +2641,16 @@
         <v>4.220000000000002</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2626,18 +2680,18 @@
         <v>4.226666666666669</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2665,20 +2719,16 @@
         <v>4.230000000000003</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K64" t="n">
-        <v>4.24</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -2708,20 +2758,16 @@
         <v>4.233333333333337</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K65" t="n">
-        <v>4.24</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -2751,18 +2797,18 @@
         <v>4.233333333333337</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2790,20 +2836,16 @@
         <v>4.236666666666671</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K67" t="n">
-        <v>4.24</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -2833,20 +2875,16 @@
         <v>4.240000000000003</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K68" t="n">
-        <v>4.24</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -2876,18 +2914,18 @@
         <v>4.240000000000003</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2915,20 +2953,16 @@
         <v>4.243333333333335</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K70" t="n">
-        <v>4.24</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -2958,20 +2992,16 @@
         <v>4.250000000000002</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K71" t="n">
-        <v>4.24</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -3001,18 +3031,18 @@
         <v>4.256666666666669</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3040,20 +3070,16 @@
         <v>4.273333333333334</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K73" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -3083,20 +3109,16 @@
         <v>4.276666666666668</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K74" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3126,18 +3148,18 @@
         <v>4.270000000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K75" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3165,20 +3187,16 @@
         <v>4.250000000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K76" t="n">
-        <v>4.24</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -3208,20 +3226,16 @@
         <v>4.250000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K77" t="n">
-        <v>4.24</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -3251,18 +3265,18 @@
         <v>4.253333333333335</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K78" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3290,20 +3304,16 @@
         <v>4.263333333333334</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K79" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3333,20 +3343,16 @@
         <v>4.253333333333334</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K80" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3376,17 +3382,13 @@
         <v>4.233333333333334</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K81" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3419,17 +3421,13 @@
         <v>4.23</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K82" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3462,17 +3460,13 @@
         <v>4.24</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K83" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,17 +3499,13 @@
         <v>4.263333333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K84" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3548,17 +3538,13 @@
         <v>4.266666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K85" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3591,17 +3577,13 @@
         <v>4.266666666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K86" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3634,17 +3616,13 @@
         <v>4.273333333333334</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K87" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3677,17 +3655,13 @@
         <v>4.286666666666668</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="K88" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3720,17 +3694,13 @@
         <v>4.276666666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="K89" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,17 +3733,13 @@
         <v>4.27</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K90" t="n">
-        <v>4.25</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3806,24 +3772,20 @@
         <v>4.253333333333334</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K91" t="n">
-        <v>4.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>0.9973529411764704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3849,20 +3811,16 @@
         <v>4.27</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="K92" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -3892,20 +3850,16 @@
         <v>4.27</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="K93" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3935,17 +3889,13 @@
         <v>4.27</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K94" t="n">
-        <v>4.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3978,17 +3928,13 @@
         <v>4.260000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K95" t="n">
-        <v>4.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,17 +3967,13 @@
         <v>4.26</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K96" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4064,17 +4006,13 @@
         <v>4.256666666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K97" t="n">
-        <v>4.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4107,17 +4045,13 @@
         <v>4.266666666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K98" t="n">
-        <v>4.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,17 +4084,13 @@
         <v>4.266666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K99" t="n">
-        <v>4.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4193,17 +4123,13 @@
         <v>4.27</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K100" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4236,17 +4162,13 @@
         <v>4.266666666666668</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="K101" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4279,17 +4201,13 @@
         <v>4.266666666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K102" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4322,17 +4240,13 @@
         <v>4.27</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K103" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4365,17 +4279,13 @@
         <v>4.263333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K104" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4408,17 +4318,13 @@
         <v>4.273333333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="K105" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4451,17 +4357,13 @@
         <v>4.273333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K106" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,17 +4396,13 @@
         <v>4.293333333333332</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K107" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4537,17 +4435,13 @@
         <v>4.3</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="K108" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,17 +4474,13 @@
         <v>4.319999999999999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K109" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4629,9 +4519,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,9 +4558,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4711,9 +4597,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4746,17 +4630,13 @@
         <v>4.256666666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="K113" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4789,17 +4669,13 @@
         <v>4.293333333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K114" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4832,17 +4708,13 @@
         <v>4.279999999999998</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="K115" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4881,9 +4753,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4916,17 +4786,13 @@
         <v>4.249999999999999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K117" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4959,17 +4825,13 @@
         <v>4.256666666666666</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K118" t="n">
-        <v>4.26</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-27 BackTest WET.xlsx
+++ b/BackTest/2019-10-27 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,13 +442,13 @@
         <v>4.52</v>
       </c>
       <c r="E2" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="F2" t="n">
-        <v>5548.783</v>
+        <v>262.4557</v>
       </c>
       <c r="G2" t="n">
-        <v>4.513333333333336</v>
+        <v>4.341499999999994</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="C3" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="E3" t="n">
         <v>4.5</v>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>5548.783</v>
       </c>
       <c r="G3" t="n">
-        <v>4.513333333333336</v>
+        <v>4.346499999999993</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="E4" t="n">
-        <v>4.52</v>
+        <v>4.5</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="n">
-        <v>4.513333333333336</v>
+        <v>4.350999999999993</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,28 +538,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="C5" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="E5" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="F5" t="n">
-        <v>7607.0804</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>4.50666666666667</v>
+        <v>4.355833333333325</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -585,16 +585,16 @@
         <v>4.5</v>
       </c>
       <c r="F6" t="n">
-        <v>16666.6666</v>
+        <v>7607.0804</v>
       </c>
       <c r="G6" t="n">
-        <v>4.50666666666667</v>
+        <v>4.360333333333325</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="D7" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="F7" t="n">
-        <v>107623.4899</v>
+        <v>16666.6666</v>
       </c>
       <c r="G7" t="n">
-        <v>4.490000000000003</v>
+        <v>4.364833333333324</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="C8" t="n">
-        <v>4.45</v>
+        <v>4.47</v>
       </c>
       <c r="D8" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="E8" t="n">
-        <v>4.45</v>
+        <v>4.47</v>
       </c>
       <c r="F8" t="n">
-        <v>283479.674</v>
+        <v>107623.4899</v>
       </c>
       <c r="G8" t="n">
-        <v>4.473333333333336</v>
+        <v>4.368833333333325</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C9" t="n">
         <v>4.45</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.44</v>
-      </c>
       <c r="D9" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E9" t="n">
         <v>4.45</v>
       </c>
-      <c r="E9" t="n">
-        <v>4.44</v>
-      </c>
       <c r="F9" t="n">
-        <v>105783.2125</v>
+        <v>283479.674</v>
       </c>
       <c r="G9" t="n">
-        <v>4.453333333333337</v>
+        <v>4.372499999999991</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.48</v>
+        <v>4.45</v>
       </c>
       <c r="C10" t="n">
         <v>4.44</v>
       </c>
       <c r="D10" t="n">
-        <v>4.48</v>
+        <v>4.45</v>
       </c>
       <c r="E10" t="n">
         <v>4.44</v>
       </c>
       <c r="F10" t="n">
-        <v>27388.46744285714</v>
+        <v>105783.2125</v>
       </c>
       <c r="G10" t="n">
-        <v>4.443333333333338</v>
+        <v>4.375333333333325</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.43</v>
+        <v>4.48</v>
       </c>
       <c r="C11" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="D11" t="n">
-        <v>4.43</v>
+        <v>4.48</v>
       </c>
       <c r="E11" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="F11" t="n">
-        <v>15585.3027</v>
+        <v>27388.46744285714</v>
       </c>
       <c r="G11" t="n">
-        <v>4.436666666666671</v>
+        <v>4.376499999999991</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>4.43</v>
       </c>
       <c r="F12" t="n">
-        <v>21215.4814</v>
+        <v>15585.3027</v>
       </c>
       <c r="G12" t="n">
-        <v>4.433333333333337</v>
+        <v>4.376499999999991</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>4.43</v>
       </c>
       <c r="F13" t="n">
-        <v>8117.8242</v>
+        <v>21215.4814</v>
       </c>
       <c r="G13" t="n">
-        <v>4.430000000000003</v>
+        <v>4.376499999999991</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>4.43</v>
       </c>
       <c r="C14" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="D14" t="n">
         <v>4.43</v>
       </c>
       <c r="E14" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="F14" t="n">
-        <v>15721.3667</v>
+        <v>8117.8242</v>
       </c>
       <c r="G14" t="n">
-        <v>4.426666666666669</v>
+        <v>4.376666666666657</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C15" t="n">
         <v>4.42</v>
       </c>
-      <c r="C15" t="n">
-        <v>4.41</v>
-      </c>
       <c r="D15" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E15" t="n">
         <v>4.42</v>
       </c>
-      <c r="E15" t="n">
-        <v>4.41</v>
-      </c>
       <c r="F15" t="n">
-        <v>33464.7128</v>
+        <v>15721.3667</v>
       </c>
       <c r="G15" t="n">
-        <v>4.420000000000003</v>
+        <v>4.376999999999992</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.4</v>
+        <v>4.42</v>
       </c>
       <c r="C16" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="D16" t="n">
-        <v>4.4</v>
+        <v>4.42</v>
       </c>
       <c r="E16" t="n">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="F16" t="n">
-        <v>10353.7845</v>
+        <v>33464.7128</v>
       </c>
       <c r="G16" t="n">
-        <v>4.410000000000004</v>
+        <v>4.377499999999992</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>4.4</v>
       </c>
       <c r="F17" t="n">
-        <v>17756.4427</v>
+        <v>10353.7845</v>
       </c>
       <c r="G17" t="n">
-        <v>4.403333333333337</v>
+        <v>4.377999999999991</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="C18" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="D18" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="E18" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="F18" t="n">
-        <v>9165.4172</v>
+        <v>17756.4427</v>
       </c>
       <c r="G18" t="n">
-        <v>4.396666666666669</v>
+        <v>4.379166666666658</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="C19" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="D19" t="n">
         <v>4.39</v>
       </c>
       <c r="E19" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="F19" t="n">
-        <v>3242.1393</v>
+        <v>9165.4172</v>
       </c>
       <c r="G19" t="n">
-        <v>4.366666666666669</v>
+        <v>4.378999999999992</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>4.31</v>
       </c>
       <c r="D20" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="E20" t="n">
         <v>4.31</v>
       </c>
       <c r="F20" t="n">
-        <v>8411.8055</v>
+        <v>3242.1393</v>
       </c>
       <c r="G20" t="n">
-        <v>4.336666666666669</v>
+        <v>4.378833333333325</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.39</v>
+        <v>4.31</v>
       </c>
       <c r="C21" t="n">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="D21" t="n">
-        <v>4.39</v>
+        <v>4.31</v>
       </c>
       <c r="E21" t="n">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="F21" t="n">
-        <v>249778.8062</v>
+        <v>8411.8055</v>
       </c>
       <c r="G21" t="n">
-        <v>4.286666666666669</v>
+        <v>4.377999999999991</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.35</v>
+        <v>4.39</v>
       </c>
       <c r="C22" t="n">
-        <v>4.35</v>
+        <v>4.24</v>
       </c>
       <c r="D22" t="n">
-        <v>4.35</v>
+        <v>4.39</v>
       </c>
       <c r="E22" t="n">
-        <v>4.35</v>
+        <v>4.24</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>249778.8062</v>
       </c>
       <c r="G22" t="n">
-        <v>4.300000000000003</v>
+        <v>4.375333333333326</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.33</v>
+        <v>4.35</v>
       </c>
       <c r="C23" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="D23" t="n">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="E23" t="n">
-        <v>4.33</v>
+        <v>4.35</v>
       </c>
       <c r="F23" t="n">
-        <v>8923048.673800001</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>4.320000000000004</v>
+        <v>4.375833333333326</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C24" t="n">
         <v>4.37</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4.34</v>
       </c>
       <c r="D24" t="n">
         <v>4.37</v>
@@ -1215,10 +1215,10 @@
         <v>4.33</v>
       </c>
       <c r="F24" t="n">
-        <v>45401174.0271</v>
+        <v>8923048.673800001</v>
       </c>
       <c r="G24" t="n">
-        <v>4.353333333333337</v>
+        <v>4.37666666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="C25" t="n">
         <v>4.34</v>
       </c>
       <c r="D25" t="n">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="E25" t="n">
         <v>4.33</v>
       </c>
       <c r="F25" t="n">
-        <v>27847909.1798</v>
+        <v>45401174.0271</v>
       </c>
       <c r="G25" t="n">
-        <v>4.350000000000004</v>
+        <v>4.375666666666659</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>4.34</v>
       </c>
       <c r="C26" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="D26" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="E26" t="n">
         <v>4.33</v>
       </c>
       <c r="F26" t="n">
-        <v>17776675</v>
+        <v>27847909.1798</v>
       </c>
       <c r="G26" t="n">
-        <v>4.346666666666671</v>
+        <v>4.375666666666659</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>4.34</v>
       </c>
       <c r="C27" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="D27" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="E27" t="n">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="F27" t="n">
-        <v>113941.8208</v>
+        <v>17776675</v>
       </c>
       <c r="G27" t="n">
-        <v>4.346666666666671</v>
+        <v>4.375833333333326</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="C28" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="D28" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="E28" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>113941.8208</v>
       </c>
       <c r="G28" t="n">
-        <v>4.320000000000004</v>
+        <v>4.375499999999992</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="C29" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="D29" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="E29" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="F29" t="n">
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>4.310000000000005</v>
+        <v>4.373999999999992</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>4.33</v>
       </c>
       <c r="F30" t="n">
-        <v>7823975</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>4.306666666666671</v>
+        <v>4.375333333333325</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>4.33</v>
       </c>
       <c r="F31" t="n">
-        <v>35634441</v>
+        <v>7823975</v>
       </c>
       <c r="G31" t="n">
-        <v>4.330000000000005</v>
+        <v>4.37499999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>4.33</v>
       </c>
       <c r="C32" t="n">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="D32" t="n">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="E32" t="n">
         <v>4.33</v>
       </c>
       <c r="F32" t="n">
-        <v>6758183.1105</v>
+        <v>35634441</v>
       </c>
       <c r="G32" t="n">
-        <v>4.333333333333337</v>
+        <v>4.373666666666656</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="C33" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="D33" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="E33" t="n">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>6758183.1105</v>
       </c>
       <c r="G33" t="n">
-        <v>4.356666666666671</v>
+        <v>4.374833333333323</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.37</v>
+        <v>4.4</v>
       </c>
       <c r="C34" t="n">
-        <v>4.37</v>
+        <v>4.4</v>
       </c>
       <c r="D34" t="n">
-        <v>4.37</v>
+        <v>4.4</v>
       </c>
       <c r="E34" t="n">
-        <v>4.37</v>
+        <v>4.4</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>4.370000000000004</v>
+        <v>4.377166666666656</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="C35" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="D35" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="E35" t="n">
-        <v>4.36</v>
+        <v>4.37</v>
       </c>
       <c r="F35" t="n">
         <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>4.376666666666671</v>
+        <v>4.37949999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>4.36</v>
       </c>
       <c r="F36" t="n">
-        <v>11382.2477</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>4.363333333333338</v>
+        <v>4.381666666666656</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.26</v>
+        <v>4.36</v>
       </c>
       <c r="C37" t="n">
-        <v>4.25</v>
+        <v>4.36</v>
       </c>
       <c r="D37" t="n">
-        <v>4.26</v>
+        <v>4.36</v>
       </c>
       <c r="E37" t="n">
-        <v>4.25</v>
+        <v>4.36</v>
       </c>
       <c r="F37" t="n">
-        <v>43985.633</v>
+        <v>11382.2477</v>
       </c>
       <c r="G37" t="n">
-        <v>4.323333333333337</v>
+        <v>4.382166666666657</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C38" t="n">
         <v>4.25</v>
       </c>
-      <c r="C38" t="n">
-        <v>4.2</v>
-      </c>
       <c r="D38" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E38" t="n">
         <v>4.25</v>
       </c>
-      <c r="E38" t="n">
-        <v>4.2</v>
-      </c>
       <c r="F38" t="n">
-        <v>502005.8841</v>
+        <v>43985.633</v>
       </c>
       <c r="G38" t="n">
-        <v>4.270000000000003</v>
+        <v>4.38099999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="C39" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="D39" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="E39" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>502005.8841</v>
       </c>
       <c r="G39" t="n">
-        <v>4.26666666666667</v>
+        <v>4.378833333333323</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.21</v>
+        <v>4.35</v>
       </c>
       <c r="C40" t="n">
-        <v>4.21</v>
+        <v>4.35</v>
       </c>
       <c r="D40" t="n">
-        <v>4.21</v>
+        <v>4.35</v>
       </c>
       <c r="E40" t="n">
-        <v>4.21</v>
+        <v>4.35</v>
       </c>
       <c r="F40" t="n">
-        <v>724.0752</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>4.253333333333337</v>
+        <v>4.379333333333324</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,35 +1801,29 @@
         <v>4.21</v>
       </c>
       <c r="C41" t="n">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="D41" t="n">
         <v>4.21</v>
       </c>
       <c r="E41" t="n">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="F41" t="n">
-        <v>8708.265299999999</v>
+        <v>724.0752</v>
       </c>
       <c r="G41" t="n">
-        <v>4.253333333333337</v>
+        <v>4.377666666666657</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>4.21</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1839,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.18</v>
+        <v>4.21</v>
       </c>
       <c r="C42" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="D42" t="n">
-        <v>4.18</v>
+        <v>4.21</v>
       </c>
       <c r="E42" t="n">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="F42" t="n">
-        <v>444</v>
+        <v>8708.265299999999</v>
       </c>
       <c r="G42" t="n">
-        <v>4.196666666666671</v>
+        <v>4.375333333333324</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1864,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1878,38 +1868,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="C43" t="n">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="D43" t="n">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="E43" t="n">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>444</v>
       </c>
       <c r="G43" t="n">
-        <v>4.19666666666667</v>
+        <v>4.373833333333324</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>4.18</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1931,26 +1915,20 @@
         <v>4.21</v>
       </c>
       <c r="F44" t="n">
-        <v>434</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>4.200000000000004</v>
+        <v>4.37199999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>4.21</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1960,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="C45" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="D45" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="E45" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>434</v>
       </c>
       <c r="G45" t="n">
-        <v>4.213333333333337</v>
+        <v>4.370166666666657</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2011,10 +1985,10 @@
         <v>4.22</v>
       </c>
       <c r="F46" t="n">
-        <v>44369.9756</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>4.216666666666669</v>
+        <v>4.368499999999991</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2024,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.33</v>
+        <v>4.22</v>
       </c>
       <c r="C47" t="n">
-        <v>4.33</v>
+        <v>4.22</v>
       </c>
       <c r="D47" t="n">
-        <v>4.33</v>
+        <v>4.22</v>
       </c>
       <c r="E47" t="n">
-        <v>4.33</v>
+        <v>4.22</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>44369.9756</v>
       </c>
       <c r="G47" t="n">
-        <v>4.25666666666667</v>
+        <v>4.367499999999992</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2063,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2077,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="C48" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="D48" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="E48" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="F48" t="n">
-        <v>432.915</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>4.270000000000003</v>
+        <v>4.368166666666657</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2102,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="C49" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="D49" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="E49" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>432.915</v>
       </c>
       <c r="G49" t="n">
-        <v>4.306666666666669</v>
+        <v>4.367499999999991</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2141,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2155,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="C50" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="D50" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="E50" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="F50" t="n">
-        <v>58497.6353</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>4.27666666666667</v>
+        <v>4.367999999999991</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2180,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2194,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="C51" t="n">
         <v>4.24</v>
       </c>
       <c r="D51" t="n">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="E51" t="n">
         <v>4.24</v>
       </c>
       <c r="F51" t="n">
-        <v>55437.9799</v>
+        <v>58497.6353</v>
       </c>
       <c r="G51" t="n">
-        <v>4.270000000000004</v>
+        <v>4.366833333333323</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2219,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2233,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.18</v>
+        <v>4.24</v>
       </c>
       <c r="C52" t="n">
-        <v>4.18</v>
+        <v>4.24</v>
       </c>
       <c r="D52" t="n">
-        <v>4.18</v>
+        <v>4.24</v>
       </c>
       <c r="E52" t="n">
-        <v>4.18</v>
+        <v>4.24</v>
       </c>
       <c r="F52" t="n">
-        <v>9556</v>
+        <v>55437.9799</v>
       </c>
       <c r="G52" t="n">
-        <v>4.220000000000003</v>
+        <v>4.365666666666657</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2258,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2284,10 +2230,10 @@
         <v>4.18</v>
       </c>
       <c r="F53" t="n">
-        <v>6699.043</v>
+        <v>9556</v>
       </c>
       <c r="G53" t="n">
-        <v>4.200000000000004</v>
+        <v>4.363166666666658</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2297,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2323,10 +2265,10 @@
         <v>4.18</v>
       </c>
       <c r="F54" t="n">
-        <v>1237.4155</v>
+        <v>6699.043</v>
       </c>
       <c r="G54" t="n">
-        <v>4.180000000000002</v>
+        <v>4.359666666666658</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2336,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2350,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="C55" t="n">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="D55" t="n">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="E55" t="n">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="F55" t="n">
-        <v>4087.2315</v>
+        <v>1237.4155</v>
       </c>
       <c r="G55" t="n">
-        <v>4.183333333333336</v>
+        <v>4.355499999999991</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2375,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2401,10 +2335,10 @@
         <v>4.19</v>
       </c>
       <c r="F56" t="n">
-        <v>927.6264</v>
+        <v>4087.2315</v>
       </c>
       <c r="G56" t="n">
-        <v>4.18666666666667</v>
+        <v>4.351333333333325</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2414,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="C57" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="D57" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="E57" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>927.6264</v>
       </c>
       <c r="G57" t="n">
-        <v>4.203333333333337</v>
+        <v>4.346666666666658</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2453,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2467,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.24</v>
+        <v>4.23</v>
       </c>
       <c r="C58" t="n">
-        <v>4.24</v>
+        <v>4.23</v>
       </c>
       <c r="D58" t="n">
-        <v>4.24</v>
+        <v>4.23</v>
       </c>
       <c r="E58" t="n">
-        <v>4.24</v>
+        <v>4.23</v>
       </c>
       <c r="F58" t="n">
         <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>4.220000000000002</v>
+        <v>4.342166666666658</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2492,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2506,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.21</v>
+        <v>4.24</v>
       </c>
       <c r="C59" t="n">
-        <v>4.21</v>
+        <v>4.24</v>
       </c>
       <c r="D59" t="n">
-        <v>4.21</v>
+        <v>4.24</v>
       </c>
       <c r="E59" t="n">
-        <v>4.21</v>
+        <v>4.24</v>
       </c>
       <c r="F59" t="n">
-        <v>11993.6308</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>4.226666666666669</v>
+        <v>4.337833333333324</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2531,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2545,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="C60" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="D60" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="E60" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="F60" t="n">
-        <v>11397.5311</v>
+        <v>11993.6308</v>
       </c>
       <c r="G60" t="n">
-        <v>4.223333333333335</v>
+        <v>4.332666666666658</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2570,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2596,10 +2510,10 @@
         <v>4.22</v>
       </c>
       <c r="F61" t="n">
-        <v>71090.1309</v>
+        <v>11397.5311</v>
       </c>
       <c r="G61" t="n">
-        <v>4.216666666666668</v>
+        <v>4.327999999999991</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2609,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2635,10 +2545,10 @@
         <v>4.22</v>
       </c>
       <c r="F62" t="n">
-        <v>27333.1696</v>
+        <v>71090.1309</v>
       </c>
       <c r="G62" t="n">
-        <v>4.220000000000002</v>
+        <v>4.322999999999992</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2648,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2662,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="C63" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="D63" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="E63" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>27333.1696</v>
       </c>
       <c r="G63" t="n">
-        <v>4.226666666666669</v>
+        <v>4.317999999999993</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2687,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2701,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
       <c r="C64" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
       <c r="D64" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
       <c r="E64" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
       <c r="F64" t="n">
-        <v>11963.6467</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>4.230000000000003</v>
+        <v>4.31366666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2726,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2752,10 +2650,10 @@
         <v>4.23</v>
       </c>
       <c r="F65" t="n">
-        <v>2650</v>
+        <v>11963.6467</v>
       </c>
       <c r="G65" t="n">
-        <v>4.233333333333337</v>
+        <v>4.308833333333327</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2765,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2779,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.24</v>
+        <v>4.23</v>
       </c>
       <c r="C66" t="n">
-        <v>4.24</v>
+        <v>4.23</v>
       </c>
       <c r="D66" t="n">
-        <v>4.24</v>
+        <v>4.23</v>
       </c>
       <c r="E66" t="n">
-        <v>4.24</v>
+        <v>4.23</v>
       </c>
       <c r="F66" t="n">
-        <v>17134.9866</v>
+        <v>2650</v>
       </c>
       <c r="G66" t="n">
-        <v>4.233333333333337</v>
+        <v>4.304333333333328</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2804,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2830,10 +2720,10 @@
         <v>4.24</v>
       </c>
       <c r="F67" t="n">
-        <v>34610.5794</v>
+        <v>17134.9866</v>
       </c>
       <c r="G67" t="n">
-        <v>4.236666666666671</v>
+        <v>4.299999999999994</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2843,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2869,10 +2755,10 @@
         <v>4.24</v>
       </c>
       <c r="F68" t="n">
-        <v>44080</v>
+        <v>34610.5794</v>
       </c>
       <c r="G68" t="n">
-        <v>4.240000000000003</v>
+        <v>4.296166666666661</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2882,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2908,10 +2790,10 @@
         <v>4.24</v>
       </c>
       <c r="F69" t="n">
-        <v>17806.3797</v>
+        <v>44080</v>
       </c>
       <c r="G69" t="n">
-        <v>4.240000000000003</v>
+        <v>4.292666666666661</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2921,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2935,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="C70" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="D70" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="E70" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="F70" t="n">
-        <v>207093.4117</v>
+        <v>17806.3797</v>
       </c>
       <c r="G70" t="n">
-        <v>4.243333333333335</v>
+        <v>4.289333333333328</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2960,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2977,19 +2851,19 @@
         <v>4.25</v>
       </c>
       <c r="C71" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="D71" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="E71" t="n">
         <v>4.25</v>
       </c>
       <c r="F71" t="n">
-        <v>167871.7176</v>
+        <v>207093.4117</v>
       </c>
       <c r="G71" t="n">
-        <v>4.250000000000002</v>
+        <v>4.286166666666661</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2999,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3013,7 +2883,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="C72" t="n">
         <v>4.26</v>
@@ -3022,13 +2892,13 @@
         <v>4.26</v>
       </c>
       <c r="E72" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="F72" t="n">
-        <v>29411.5139</v>
+        <v>167871.7176</v>
       </c>
       <c r="G72" t="n">
-        <v>4.256666666666669</v>
+        <v>4.283333333333328</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3038,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3052,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="C73" t="n">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="D73" t="n">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="E73" t="n">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>29411.5139</v>
       </c>
       <c r="G73" t="n">
-        <v>4.273333333333334</v>
+        <v>4.280499999999994</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3077,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3091,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
       <c r="C74" t="n">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
       <c r="D74" t="n">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
       <c r="E74" t="n">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
       <c r="F74" t="n">
-        <v>280.0936768149883</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>4.276666666666668</v>
+        <v>4.278333333333327</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3116,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3130,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="C75" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="D75" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="E75" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="F75" t="n">
-        <v>14577.1126</v>
+        <v>280.0936768149883</v>
       </c>
       <c r="G75" t="n">
-        <v>4.270000000000001</v>
+        <v>4.275833333333327</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3155,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3181,10 +3035,10 @@
         <v>4.24</v>
       </c>
       <c r="F76" t="n">
-        <v>37669.5522</v>
+        <v>14577.1126</v>
       </c>
       <c r="G76" t="n">
-        <v>4.250000000000001</v>
+        <v>4.272999999999993</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3194,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3208,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="C77" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="D77" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="E77" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>37669.5522</v>
       </c>
       <c r="G77" t="n">
-        <v>4.250000000000001</v>
+        <v>4.270333333333327</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3233,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3247,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="C78" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="D78" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="E78" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="F78" t="n">
-        <v>14222.9581</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>4.253333333333335</v>
+        <v>4.26816666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3272,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3286,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="C79" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="D79" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="E79" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>14222.9581</v>
       </c>
       <c r="G79" t="n">
-        <v>4.263333333333334</v>
+        <v>4.265833333333328</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3311,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3328,19 +3166,19 @@
         <v>4.27</v>
       </c>
       <c r="C80" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="D80" t="n">
         <v>4.27</v>
       </c>
       <c r="E80" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="F80" t="n">
-        <v>16162.1794</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>4.253333333333334</v>
+        <v>4.26516666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3350,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3364,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="C81" t="n">
-        <v>4.19</v>
+        <v>4.24</v>
       </c>
       <c r="D81" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="E81" t="n">
-        <v>4.19</v>
+        <v>4.24</v>
       </c>
       <c r="F81" t="n">
-        <v>23635.3536</v>
+        <v>16162.1794</v>
       </c>
       <c r="G81" t="n">
-        <v>4.233333333333334</v>
+        <v>4.263999999999994</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3389,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3403,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="C82" t="n">
-        <v>4.26</v>
+        <v>4.19</v>
       </c>
       <c r="D82" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="E82" t="n">
-        <v>4.21</v>
+        <v>4.19</v>
       </c>
       <c r="F82" t="n">
-        <v>1059</v>
+        <v>23635.3536</v>
       </c>
       <c r="G82" t="n">
-        <v>4.23</v>
+        <v>4.263166666666661</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3428,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3442,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="C83" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="D83" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="E83" t="n">
-        <v>4.27</v>
+        <v>4.21</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>1059</v>
       </c>
       <c r="G83" t="n">
-        <v>4.24</v>
+        <v>4.26166666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3467,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3481,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="C84" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="D84" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="E84" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>4.263333333333333</v>
+        <v>4.259999999999994</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3506,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3520,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="C85" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="D85" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="E85" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G85" t="n">
-        <v>4.266666666666667</v>
+        <v>4.25866666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3545,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3571,10 +3385,10 @@
         <v>4.27</v>
       </c>
       <c r="F86" t="n">
-        <v>13142.47072318501</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>4.266666666666667</v>
+        <v>4.257499999999994</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3584,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3601,19 +3411,19 @@
         <v>4.27</v>
       </c>
       <c r="C87" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="D87" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="E87" t="n">
         <v>4.27</v>
       </c>
       <c r="F87" t="n">
-        <v>6804.4691</v>
+        <v>13142.47072318501</v>
       </c>
       <c r="G87" t="n">
-        <v>4.273333333333334</v>
+        <v>4.255999999999994</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3623,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3637,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C88" t="n">
         <v>4.28</v>
       </c>
-      <c r="C88" t="n">
-        <v>4.31</v>
-      </c>
       <c r="D88" t="n">
-        <v>4.31</v>
+        <v>4.28</v>
       </c>
       <c r="E88" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="F88" t="n">
-        <v>121545.3895032483</v>
+        <v>6804.4691</v>
       </c>
       <c r="G88" t="n">
-        <v>4.286666666666668</v>
+        <v>4.254999999999993</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3662,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3676,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C89" t="n">
         <v>4.31</v>
-      </c>
-      <c r="C89" t="n">
-        <v>4.24</v>
       </c>
       <c r="D89" t="n">
         <v>4.31</v>
       </c>
       <c r="E89" t="n">
-        <v>4.24</v>
+        <v>4.28</v>
       </c>
       <c r="F89" t="n">
-        <v>167.7714</v>
+        <v>121545.3895032483</v>
       </c>
       <c r="G89" t="n">
-        <v>4.276666666666667</v>
+        <v>4.255833333333326</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3701,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3715,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="C90" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="D90" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="E90" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="F90" t="n">
-        <v>2589.888</v>
+        <v>167.7714</v>
       </c>
       <c r="G90" t="n">
-        <v>4.27</v>
+        <v>4.254333333333326</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3740,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3766,10 +3560,10 @@
         <v>4.26</v>
       </c>
       <c r="F91" t="n">
-        <v>26212.8075</v>
+        <v>2589.888</v>
       </c>
       <c r="G91" t="n">
-        <v>4.253333333333334</v>
+        <v>4.25316666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3779,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="C92" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="D92" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="E92" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>26212.8075</v>
       </c>
       <c r="G92" t="n">
-        <v>4.27</v>
+        <v>4.251999999999993</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3818,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3835,19 +3621,19 @@
         <v>4.29</v>
       </c>
       <c r="C93" t="n">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
       <c r="D93" t="n">
         <v>4.29</v>
       </c>
       <c r="E93" t="n">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
       <c r="F93" t="n">
-        <v>33.5244</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>4.27</v>
+        <v>4.251166666666659</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3857,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3871,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
       <c r="C94" t="n">
         <v>4.26</v>
       </c>
       <c r="D94" t="n">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
       <c r="E94" t="n">
         <v>4.26</v>
       </c>
       <c r="F94" t="n">
-        <v>21000</v>
+        <v>33.5244</v>
       </c>
       <c r="G94" t="n">
-        <v>4.27</v>
+        <v>4.248833333333327</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3896,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3922,10 +3700,10 @@
         <v>4.26</v>
       </c>
       <c r="F95" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="G95" t="n">
-        <v>4.260000000000001</v>
+        <v>4.246999999999994</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3935,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3961,10 +3735,10 @@
         <v>4.26</v>
       </c>
       <c r="F96" t="n">
-        <v>2573.0333</v>
+        <v>35000</v>
       </c>
       <c r="G96" t="n">
-        <v>4.26</v>
+        <v>4.245333333333326</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3974,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3991,19 +3761,19 @@
         <v>4.26</v>
       </c>
       <c r="C97" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="D97" t="n">
         <v>4.26</v>
       </c>
       <c r="E97" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="F97" t="n">
-        <v>33.2916</v>
+        <v>2573.0333</v>
       </c>
       <c r="G97" t="n">
-        <v>4.256666666666667</v>
+        <v>4.243666666666659</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4013,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4030,19 +3796,19 @@
         <v>4.26</v>
       </c>
       <c r="C98" t="n">
-        <v>4.29</v>
+        <v>4.25</v>
       </c>
       <c r="D98" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="E98" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="F98" t="n">
-        <v>24236.0343</v>
+        <v>33.2916</v>
       </c>
       <c r="G98" t="n">
-        <v>4.266666666666667</v>
+        <v>4.243666666666659</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4052,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4069,19 +3831,19 @@
         <v>4.26</v>
       </c>
       <c r="C99" t="n">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
       <c r="D99" t="n">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
       <c r="E99" t="n">
         <v>4.26</v>
       </c>
       <c r="F99" t="n">
-        <v>11000</v>
+        <v>24236.0343</v>
       </c>
       <c r="G99" t="n">
-        <v>4.266666666666667</v>
+        <v>4.24516666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4091,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4117,10 +3875,10 @@
         <v>4.26</v>
       </c>
       <c r="F100" t="n">
-        <v>61887.6903</v>
+        <v>11000</v>
       </c>
       <c r="G100" t="n">
-        <v>4.27</v>
+        <v>4.24366666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4130,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4144,36 +3898,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="C101" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="D101" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="E101" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="F101" t="n">
-        <v>11020</v>
+        <v>61887.6903</v>
       </c>
       <c r="G101" t="n">
-        <v>4.266666666666668</v>
+        <v>4.244499999999993</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K101" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4183,34 +3937,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="C102" t="n">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="D102" t="n">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="E102" t="n">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="F102" t="n">
-        <v>16792.901</v>
+        <v>11020</v>
       </c>
       <c r="G102" t="n">
-        <v>4.266666666666667</v>
+        <v>4.245833333333326</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K102" t="n">
+        <v>4.26</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M102" t="n">
@@ -4222,22 +3980,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="C103" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="D103" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="E103" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="F103" t="n">
-        <v>10547.2163</v>
+        <v>16792.901</v>
       </c>
       <c r="G103" t="n">
-        <v>4.27</v>
+        <v>4.24716666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4246,10 +4004,12 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>4.26</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -4261,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="C104" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="D104" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="E104" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="F104" t="n">
-        <v>15150.148</v>
+        <v>10547.2163</v>
       </c>
       <c r="G104" t="n">
-        <v>4.263333333333333</v>
+        <v>4.248166666666659</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4286,11 +4046,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4300,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="C105" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="D105" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="E105" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>15150.148</v>
       </c>
       <c r="G105" t="n">
-        <v>4.273333333333333</v>
+        <v>4.248999999999993</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4325,11 +4081,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4339,22 +4091,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.27</v>
+        <v>4.28</v>
       </c>
       <c r="C106" t="n">
-        <v>4.27</v>
+        <v>4.29</v>
       </c>
       <c r="D106" t="n">
-        <v>4.27</v>
+        <v>4.29</v>
       </c>
       <c r="E106" t="n">
-        <v>4.27</v>
+        <v>4.28</v>
       </c>
       <c r="F106" t="n">
-        <v>23460.5474</v>
+        <v>20</v>
       </c>
       <c r="G106" t="n">
-        <v>4.273333333333333</v>
+        <v>4.25016666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4364,11 +4116,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4378,22 +4126,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.32</v>
+        <v>4.27</v>
       </c>
       <c r="C107" t="n">
-        <v>4.32</v>
+        <v>4.27</v>
       </c>
       <c r="D107" t="n">
-        <v>4.32</v>
+        <v>4.27</v>
       </c>
       <c r="E107" t="n">
-        <v>4.32</v>
+        <v>4.27</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>23460.5474</v>
       </c>
       <c r="G107" t="n">
-        <v>4.293333333333332</v>
+        <v>4.250999999999993</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4403,11 +4151,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4417,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.31</v>
+        <v>4.32</v>
       </c>
       <c r="C108" t="n">
-        <v>4.31</v>
+        <v>4.32</v>
       </c>
       <c r="D108" t="n">
-        <v>4.31</v>
+        <v>4.32</v>
       </c>
       <c r="E108" t="n">
-        <v>4.31</v>
+        <v>4.32</v>
       </c>
       <c r="F108" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>4.3</v>
+        <v>4.250833333333326</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4442,11 +4186,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4456,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="C109" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="D109" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="E109" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G109" t="n">
-        <v>4.319999999999999</v>
+        <v>4.25166666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4481,11 +4221,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4495,22 +4231,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="C110" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="D110" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="E110" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="F110" t="n">
-        <v>6075.6446</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
-        <v>4.303333333333332</v>
+        <v>4.251666666666659</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4520,11 +4256,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4534,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="C111" t="n">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="D111" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="E111" t="n">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="F111" t="n">
-        <v>137132.9381</v>
+        <v>6075.6446</v>
       </c>
       <c r="G111" t="n">
-        <v>4.266666666666666</v>
+        <v>4.252166666666659</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4559,11 +4291,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4573,22 +4301,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="C112" t="n">
-        <v>4.28</v>
+        <v>4.2</v>
       </c>
       <c r="D112" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="E112" t="n">
-        <v>4.28</v>
+        <v>4.2</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>137132.9381</v>
       </c>
       <c r="G112" t="n">
-        <v>4.249999999999999</v>
+        <v>4.251499999999992</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4598,11 +4326,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4612,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="C113" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="D113" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="E113" t="n">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="F113" t="n">
         <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>4.256666666666667</v>
+        <v>4.253166666666658</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4637,11 +4361,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4651,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="C114" t="n">
-        <v>4.31</v>
+        <v>4.29</v>
       </c>
       <c r="D114" t="n">
-        <v>4.31</v>
+        <v>4.29</v>
       </c>
       <c r="E114" t="n">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="F114" t="n">
-        <v>30305.5143</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>4.293333333333333</v>
+        <v>4.254999999999992</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4676,11 +4396,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4690,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.22</v>
+        <v>4.3</v>
       </c>
       <c r="C115" t="n">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="D115" t="n">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="E115" t="n">
-        <v>4.22</v>
+        <v>4.3</v>
       </c>
       <c r="F115" t="n">
-        <v>54</v>
+        <v>30305.5143</v>
       </c>
       <c r="G115" t="n">
-        <v>4.279999999999998</v>
+        <v>4.257166666666659</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4715,11 +4431,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4729,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="C116" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="D116" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="E116" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="G116" t="n">
-        <v>4.266666666666666</v>
+        <v>4.257999999999992</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4754,11 +4466,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4771,10 +4479,10 @@
         <v>4.25</v>
       </c>
       <c r="C117" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="D117" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="E117" t="n">
         <v>4.25</v>
@@ -4783,7 +4491,7 @@
         <v>20</v>
       </c>
       <c r="G117" t="n">
-        <v>4.249999999999999</v>
+        <v>4.258999999999991</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4793,11 +4501,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4807,7 +4511,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="C118" t="n">
         <v>4.26</v>
@@ -4816,13 +4520,13 @@
         <v>4.26</v>
       </c>
       <c r="E118" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="F118" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G118" t="n">
-        <v>4.256666666666666</v>
+        <v>4.259499999999992</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4832,12 +4536,47 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F119" t="n">
+        <v>16</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4.259833333333325</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K119" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest WET.xlsx
+++ b/BackTest/2019-10-27 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>262.4557</v>
       </c>
       <c r="G2" t="n">
+        <v>4.407333333333328</v>
+      </c>
+      <c r="H2" t="n">
         <v>4.341499999999994</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5548.783</v>
       </c>
       <c r="G3" t="n">
+        <v>4.42266666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.346499999999993</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>5000</v>
       </c>
       <c r="G4" t="n">
+        <v>4.435999999999994</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.350999999999993</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>100</v>
       </c>
       <c r="G5" t="n">
+        <v>4.450666666666661</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.355833333333325</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>7607.0804</v>
       </c>
       <c r="G6" t="n">
+        <v>4.463333333333327</v>
+      </c>
+      <c r="H6" t="n">
         <v>4.360333333333325</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>16666.6666</v>
       </c>
       <c r="G7" t="n">
+        <v>4.475999999999994</v>
+      </c>
+      <c r="H7" t="n">
         <v>4.364833333333324</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>107623.4899</v>
       </c>
       <c r="G8" t="n">
+        <v>4.485333333333327</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.368833333333325</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>283479.674</v>
       </c>
       <c r="G9" t="n">
+        <v>4.489333333333327</v>
+      </c>
+      <c r="H9" t="n">
         <v>4.372499999999991</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>105783.2125</v>
       </c>
       <c r="G10" t="n">
+        <v>4.489999999999994</v>
+      </c>
+      <c r="H10" t="n">
         <v>4.375333333333325</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>27388.46744285714</v>
       </c>
       <c r="G11" t="n">
+        <v>4.489999999999994</v>
+      </c>
+      <c r="H11" t="n">
         <v>4.376499999999991</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>15585.3027</v>
       </c>
       <c r="G12" t="n">
+        <v>4.487333333333328</v>
+      </c>
+      <c r="H12" t="n">
         <v>4.376499999999991</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>21215.4814</v>
       </c>
       <c r="G13" t="n">
+        <v>4.482666666666661</v>
+      </c>
+      <c r="H13" t="n">
         <v>4.376499999999991</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>8117.8242</v>
       </c>
       <c r="G14" t="n">
+        <v>4.477999999999995</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.376666666666657</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>15721.3667</v>
       </c>
       <c r="G15" t="n">
+        <v>4.471333333333329</v>
+      </c>
+      <c r="H15" t="n">
         <v>4.376999999999992</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>33464.7128</v>
       </c>
       <c r="G16" t="n">
+        <v>4.465333333333329</v>
+      </c>
+      <c r="H16" t="n">
         <v>4.377499999999992</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>10353.7845</v>
       </c>
       <c r="G17" t="n">
+        <v>4.457333333333329</v>
+      </c>
+      <c r="H17" t="n">
         <v>4.377999999999991</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>17756.4427</v>
       </c>
       <c r="G18" t="n">
+        <v>4.44933333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>4.379166666666658</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>9165.4172</v>
       </c>
       <c r="G19" t="n">
+        <v>4.441999999999997</v>
+      </c>
+      <c r="H19" t="n">
         <v>4.378999999999992</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>3242.1393</v>
       </c>
       <c r="G20" t="n">
+        <v>4.427999999999997</v>
+      </c>
+      <c r="H20" t="n">
         <v>4.378833333333325</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>8411.8055</v>
       </c>
       <c r="G21" t="n">
+        <v>4.415333333333331</v>
+      </c>
+      <c r="H21" t="n">
         <v>4.377999999999991</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>249778.8062</v>
       </c>
       <c r="G22" t="n">
+        <v>4.397999999999997</v>
+      </c>
+      <c r="H22" t="n">
         <v>4.375333333333326</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
+        <v>4.389999999999997</v>
+      </c>
+      <c r="H23" t="n">
         <v>4.375833333333326</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>8923048.673800001</v>
       </c>
       <c r="G24" t="n">
+        <v>4.384666666666663</v>
+      </c>
+      <c r="H24" t="n">
         <v>4.37666666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>45401174.0271</v>
       </c>
       <c r="G25" t="n">
+        <v>4.377999999999997</v>
+      </c>
+      <c r="H25" t="n">
         <v>4.375666666666659</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>27847909.1798</v>
       </c>
       <c r="G26" t="n">
+        <v>4.371333333333331</v>
+      </c>
+      <c r="H26" t="n">
         <v>4.375666666666659</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>17776675</v>
       </c>
       <c r="G27" t="n">
+        <v>4.366666666666664</v>
+      </c>
+      <c r="H27" t="n">
         <v>4.375833333333326</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>113941.8208</v>
       </c>
       <c r="G28" t="n">
+        <v>4.360666666666664</v>
+      </c>
+      <c r="H28" t="n">
         <v>4.375499999999992</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
+        <v>4.349333333333332</v>
+      </c>
+      <c r="H29" t="n">
         <v>4.373999999999992</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
+        <v>4.343333333333332</v>
+      </c>
+      <c r="H30" t="n">
         <v>4.375333333333325</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>7823975</v>
       </c>
       <c r="G31" t="n">
+        <v>4.337999999999998</v>
+      </c>
+      <c r="H31" t="n">
         <v>4.37499999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>35634441</v>
       </c>
       <c r="G32" t="n">
+        <v>4.333333333333331</v>
+      </c>
+      <c r="H32" t="n">
         <v>4.373666666666656</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>6758183.1105</v>
       </c>
       <c r="G33" t="n">
+        <v>4.329333333333332</v>
+      </c>
+      <c r="H33" t="n">
         <v>4.374833333333323</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
+        <v>4.329999999999998</v>
+      </c>
+      <c r="H34" t="n">
         <v>4.377166666666656</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>100</v>
       </c>
       <c r="G35" t="n">
+        <v>4.333999999999999</v>
+      </c>
+      <c r="H35" t="n">
         <v>4.37949999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>100</v>
       </c>
       <c r="G36" t="n">
+        <v>4.337333333333332</v>
+      </c>
+      <c r="H36" t="n">
         <v>4.381666666666656</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>11382.2477</v>
       </c>
       <c r="G37" t="n">
+        <v>4.345333333333332</v>
+      </c>
+      <c r="H37" t="n">
         <v>4.382166666666657</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>43985.633</v>
       </c>
       <c r="G38" t="n">
+        <v>4.338666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>4.38099999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>502005.8841</v>
       </c>
       <c r="G39" t="n">
+        <v>4.327333333333332</v>
+      </c>
+      <c r="H39" t="n">
         <v>4.378833333333323</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
+        <v>4.327999999999999</v>
+      </c>
+      <c r="H40" t="n">
         <v>4.379333333333324</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>724.0752</v>
       </c>
       <c r="G41" t="n">
+        <v>4.319333333333331</v>
+      </c>
+      <c r="H41" t="n">
         <v>4.377666666666657</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>8708.265299999999</v>
       </c>
       <c r="G42" t="n">
+        <v>4.308666666666665</v>
+      </c>
+      <c r="H42" t="n">
         <v>4.375333333333324</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>444</v>
       </c>
       <c r="G43" t="n">
+        <v>4.297999999999998</v>
+      </c>
+      <c r="H43" t="n">
         <v>4.373833333333324</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
+        <v>4.294666666666664</v>
+      </c>
+      <c r="H44" t="n">
         <v>4.37199999999999</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>434</v>
       </c>
       <c r="G45" t="n">
+        <v>4.286666666666664</v>
+      </c>
+      <c r="H45" t="n">
         <v>4.370166666666657</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
+        <v>4.27933333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>4.368499999999991</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>44369.9756</v>
       </c>
       <c r="G47" t="n">
+        <v>4.271999999999997</v>
+      </c>
+      <c r="H47" t="n">
         <v>4.367499999999992</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
+        <v>4.27133333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>4.368166666666657</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>432.915</v>
       </c>
       <c r="G49" t="n">
+        <v>4.261999999999997</v>
+      </c>
+      <c r="H49" t="n">
         <v>4.367499999999991</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
+        <v>4.259333333333331</v>
+      </c>
+      <c r="H50" t="n">
         <v>4.367999999999991</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>58497.6353</v>
       </c>
       <c r="G51" t="n">
+        <v>4.251333333333331</v>
+      </c>
+      <c r="H51" t="n">
         <v>4.366833333333323</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>55437.9799</v>
       </c>
       <c r="G52" t="n">
+        <v>4.243333333333331</v>
+      </c>
+      <c r="H52" t="n">
         <v>4.365666666666657</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>9556</v>
       </c>
       <c r="G53" t="n">
+        <v>4.238666666666663</v>
+      </c>
+      <c r="H53" t="n">
         <v>4.363166666666658</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>6699.043</v>
       </c>
       <c r="G54" t="n">
+        <v>4.23733333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>4.359666666666658</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>1237.4155</v>
       </c>
       <c r="G55" t="n">
+        <v>4.225999999999996</v>
+      </c>
+      <c r="H55" t="n">
         <v>4.355499999999991</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>4087.2315</v>
       </c>
       <c r="G56" t="n">
+        <v>4.224666666666663</v>
+      </c>
+      <c r="H56" t="n">
         <v>4.351333333333325</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>927.6264</v>
       </c>
       <c r="G57" t="n">
+        <v>4.223999999999998</v>
+      </c>
+      <c r="H57" t="n">
         <v>4.346666666666658</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
+        <v>4.227333333333331</v>
+      </c>
+      <c r="H58" t="n">
         <v>4.342166666666658</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
+        <v>4.229333333333331</v>
+      </c>
+      <c r="H59" t="n">
         <v>4.337833333333324</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>11993.6308</v>
       </c>
       <c r="G60" t="n">
+        <v>4.229333333333331</v>
+      </c>
+      <c r="H60" t="n">
         <v>4.332666666666658</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>11397.5311</v>
       </c>
       <c r="G61" t="n">
+        <v>4.229333333333331</v>
+      </c>
+      <c r="H61" t="n">
         <v>4.327999999999991</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>71090.1309</v>
       </c>
       <c r="G62" t="n">
+        <v>4.229333333333331</v>
+      </c>
+      <c r="H62" t="n">
         <v>4.322999999999992</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>27333.1696</v>
       </c>
       <c r="G63" t="n">
+        <v>4.221999999999998</v>
+      </c>
+      <c r="H63" t="n">
         <v>4.317999999999993</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
+        <v>4.220666666666665</v>
+      </c>
+      <c r="H64" t="n">
         <v>4.31366666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>11963.6467</v>
       </c>
       <c r="G65" t="n">
+        <v>4.213999999999998</v>
+      </c>
+      <c r="H65" t="n">
         <v>4.308833333333327</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>2650</v>
       </c>
       <c r="G66" t="n">
+        <v>4.213333333333331</v>
+      </c>
+      <c r="H66" t="n">
         <v>4.304333333333328</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>17134.9866</v>
       </c>
       <c r="G67" t="n">
+        <v>4.213333333333331</v>
+      </c>
+      <c r="H67" t="n">
         <v>4.299999999999994</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>34610.5794</v>
       </c>
       <c r="G68" t="n">
+        <v>4.217333333333332</v>
+      </c>
+      <c r="H68" t="n">
         <v>4.296166666666661</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>44080</v>
       </c>
       <c r="G69" t="n">
+        <v>4.221333333333331</v>
+      </c>
+      <c r="H69" t="n">
         <v>4.292666666666661</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>17806.3797</v>
       </c>
       <c r="G70" t="n">
+        <v>4.225333333333332</v>
+      </c>
+      <c r="H70" t="n">
         <v>4.289333333333328</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>207093.4117</v>
       </c>
       <c r="G71" t="n">
+        <v>4.229333333333331</v>
+      </c>
+      <c r="H71" t="n">
         <v>4.286166666666661</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>167871.7176</v>
       </c>
       <c r="G72" t="n">
+        <v>4.233999999999998</v>
+      </c>
+      <c r="H72" t="n">
         <v>4.283333333333328</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>29411.5139</v>
       </c>
       <c r="G73" t="n">
+        <v>4.235999999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>4.280499999999994</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
+        <v>4.239999999999998</v>
+      </c>
+      <c r="H74" t="n">
         <v>4.278333333333327</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>280.0936768149883</v>
       </c>
       <c r="G75" t="n">
+        <v>4.243999999999998</v>
+      </c>
+      <c r="H75" t="n">
         <v>4.275833333333327</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>14577.1126</v>
       </c>
       <c r="G76" t="n">
+        <v>4.245333333333332</v>
+      </c>
+      <c r="H76" t="n">
         <v>4.272999999999993</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>37669.5522</v>
       </c>
       <c r="G77" t="n">
+        <v>4.246666666666665</v>
+      </c>
+      <c r="H77" t="n">
         <v>4.270333333333327</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
+        <v>4.249999999999998</v>
+      </c>
+      <c r="H78" t="n">
         <v>4.26816666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>14222.9581</v>
       </c>
       <c r="G79" t="n">
+        <v>4.250666666666665</v>
+      </c>
+      <c r="H79" t="n">
         <v>4.265833333333328</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
+        <v>4.253333333333331</v>
+      </c>
+      <c r="H80" t="n">
         <v>4.26516666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>16162.1794</v>
       </c>
       <c r="G81" t="n">
+        <v>4.253999999999997</v>
+      </c>
+      <c r="H81" t="n">
         <v>4.263999999999994</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>23635.3536</v>
       </c>
       <c r="G82" t="n">
+        <v>4.250666666666664</v>
+      </c>
+      <c r="H82" t="n">
         <v>4.263166666666661</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1059</v>
       </c>
       <c r="G83" t="n">
+        <v>4.251999999999997</v>
+      </c>
+      <c r="H83" t="n">
         <v>4.26166666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
+        <v>4.253999999999997</v>
+      </c>
+      <c r="H84" t="n">
         <v>4.259999999999994</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>20</v>
       </c>
       <c r="G85" t="n">
+        <v>4.25533333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>4.25866666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>100</v>
       </c>
       <c r="G86" t="n">
+        <v>4.256666666666663</v>
+      </c>
+      <c r="H86" t="n">
         <v>4.257499999999994</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>13142.47072318501</v>
       </c>
       <c r="G87" t="n">
+        <v>4.25733333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>4.255999999999994</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>6804.4691</v>
       </c>
       <c r="G88" t="n">
+        <v>4.258666666666663</v>
+      </c>
+      <c r="H88" t="n">
         <v>4.254999999999993</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>121545.3895032483</v>
       </c>
       <c r="G89" t="n">
+        <v>4.25933333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>4.255833333333326</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>167.7714</v>
       </c>
       <c r="G90" t="n">
+        <v>4.25733333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>4.254333333333326</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>2589.888</v>
       </c>
       <c r="G91" t="n">
+        <v>4.258666666666663</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.25316666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>26212.8075</v>
       </c>
       <c r="G92" t="n">
+        <v>4.259999999999996</v>
+      </c>
+      <c r="H92" t="n">
         <v>4.251999999999993</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>10</v>
       </c>
       <c r="G93" t="n">
+        <v>4.261333333333329</v>
+      </c>
+      <c r="H93" t="n">
         <v>4.251166666666659</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>33.5244</v>
       </c>
       <c r="G94" t="n">
+        <v>4.261999999999997</v>
+      </c>
+      <c r="H94" t="n">
         <v>4.248833333333327</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>21000</v>
       </c>
       <c r="G95" t="n">
+        <v>4.26133333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>4.246999999999994</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>35000</v>
       </c>
       <c r="G96" t="n">
+        <v>4.262666666666664</v>
+      </c>
+      <c r="H96" t="n">
         <v>4.245333333333326</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>2573.0333</v>
       </c>
       <c r="G97" t="n">
+        <v>4.267333333333331</v>
+      </c>
+      <c r="H97" t="n">
         <v>4.243666666666659</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>33.2916</v>
       </c>
       <c r="G98" t="n">
+        <v>4.266666666666664</v>
+      </c>
+      <c r="H98" t="n">
         <v>4.243666666666659</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>24236.0343</v>
       </c>
       <c r="G99" t="n">
+        <v>4.267999999999998</v>
+      </c>
+      <c r="H99" t="n">
         <v>4.24516666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>11000</v>
       </c>
       <c r="G100" t="n">
+        <v>4.267999999999998</v>
+      </c>
+      <c r="H100" t="n">
         <v>4.24366666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,22 +4215,21 @@
         <v>61887.6903</v>
       </c>
       <c r="G101" t="n">
+        <v>4.267333333333331</v>
+      </c>
+      <c r="H101" t="n">
         <v>4.244499999999993</v>
       </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K101" t="n">
-        <v>4.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,102 +4253,113 @@
         <v>11020</v>
       </c>
       <c r="G102" t="n">
+        <v>4.267999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>4.245833333333326</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>4.26</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>4.26</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F103" t="n">
+        <v>16792.901</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4.266666666666666</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4.24716666666666</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C103" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D103" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E103" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F103" t="n">
-        <v>16792.901</v>
-      </c>
-      <c r="G103" t="n">
-        <v>4.24716666666666</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10547.2163</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4.263999999999998</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4.248166666666659</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C104" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="D104" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="E104" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="F104" t="n">
-        <v>10547.2163</v>
-      </c>
-      <c r="G104" t="n">
-        <v>4.248166666666659</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4383,21 @@
         <v>15150.148</v>
       </c>
       <c r="G105" t="n">
+        <v>4.265333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>4.248999999999993</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4421,21 @@
         <v>20</v>
       </c>
       <c r="G106" t="n">
+        <v>4.267333333333331</v>
+      </c>
+      <c r="H106" t="n">
         <v>4.25016666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4459,21 @@
         <v>23460.5474</v>
       </c>
       <c r="G107" t="n">
+        <v>4.267999999999998</v>
+      </c>
+      <c r="H107" t="n">
         <v>4.250999999999993</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4497,21 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
+        <v>4.269999999999998</v>
+      </c>
+      <c r="H108" t="n">
         <v>4.250833333333326</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4535,21 @@
         <v>24</v>
       </c>
       <c r="G109" t="n">
+        <v>4.273333333333331</v>
+      </c>
+      <c r="H109" t="n">
         <v>4.25166666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4573,21 @@
         <v>10</v>
       </c>
       <c r="G110" t="n">
+        <v>4.277999999999997</v>
+      </c>
+      <c r="H110" t="n">
         <v>4.251666666666659</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4611,21 @@
         <v>6075.6446</v>
       </c>
       <c r="G111" t="n">
+        <v>4.278666666666664</v>
+      </c>
+      <c r="H111" t="n">
         <v>4.252166666666659</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4649,21 @@
         <v>137132.9381</v>
       </c>
       <c r="G112" t="n">
+        <v>4.274666666666663</v>
+      </c>
+      <c r="H112" t="n">
         <v>4.251499999999992</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4687,21 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
+        <v>4.276666666666663</v>
+      </c>
+      <c r="H113" t="n">
         <v>4.253166666666658</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +4725,21 @@
         <v>10</v>
       </c>
       <c r="G114" t="n">
+        <v>4.276666666666663</v>
+      </c>
+      <c r="H114" t="n">
         <v>4.254999999999992</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +4763,21 @@
         <v>30305.5143</v>
       </c>
       <c r="G115" t="n">
+        <v>4.279999999999997</v>
+      </c>
+      <c r="H115" t="n">
         <v>4.257166666666659</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +4801,27 @@
         <v>54</v>
       </c>
       <c r="G116" t="n">
+        <v>4.278666666666663</v>
+      </c>
+      <c r="H116" t="n">
         <v>4.257999999999992</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>4.31</v>
+      </c>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +4845,27 @@
         <v>20</v>
       </c>
       <c r="G117" t="n">
+        <v>4.276666666666662</v>
+      </c>
+      <c r="H117" t="n">
         <v>4.258999999999991</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>4.24</v>
+      </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +4889,27 @@
         <v>20</v>
       </c>
       <c r="G118" t="n">
+        <v>4.276666666666662</v>
+      </c>
+      <c r="H118" t="n">
         <v>4.259499999999992</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,22 +4933,457 @@
         <v>16</v>
       </c>
       <c r="G119" t="n">
+        <v>4.275999999999996</v>
+      </c>
+      <c r="H119" t="n">
         <v>4.259833333333325</v>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>4.26</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
         <v>4.26</v>
       </c>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F120" t="n">
+        <v>253205.6223</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4.274666666666662</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4.260333333333326</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F121" t="n">
+        <v>30</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4.271999999999995</v>
+      </c>
+      <c r="H121" t="n">
+        <v>4.260833333333326</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F122" t="n">
+        <v>23364.4859</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4.272666666666662</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4.261833333333326</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F123" t="n">
+        <v>46</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4.269333333333329</v>
+      </c>
+      <c r="H123" t="n">
+        <v>4.262666666666659</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F124" t="n">
+        <v>30</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4.267999999999996</v>
+      </c>
+      <c r="H124" t="n">
+        <v>4.263499999999993</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F125" t="n">
+        <v>19.2129</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4.264666666666662</v>
+      </c>
+      <c r="H125" t="n">
+        <v>4.264333333333325</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4.266666666666663</v>
+      </c>
+      <c r="H126" t="n">
+        <v>4.265499999999992</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4.270666666666663</v>
+      </c>
+      <c r="H127" t="n">
+        <v>4.265833333333325</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F128" t="n">
+        <v>17383.4631</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4.27133333333333</v>
+      </c>
+      <c r="H128" t="n">
+        <v>4.26666666666666</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4.27133333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>4.267499999999993</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest WET.xlsx
+++ b/BackTest/2019-10-27 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.52</v>
+        <v>4.27</v>
       </c>
       <c r="C2" t="n">
-        <v>4.52</v>
+        <v>4.27</v>
       </c>
       <c r="D2" t="n">
-        <v>4.52</v>
+        <v>4.27</v>
       </c>
       <c r="E2" t="n">
-        <v>4.52</v>
+        <v>4.27</v>
       </c>
       <c r="F2" t="n">
-        <v>262.4557</v>
+        <v>1412.337</v>
       </c>
       <c r="G2" t="n">
-        <v>4.407333333333328</v>
+        <v>-21930059.65287422</v>
       </c>
       <c r="H2" t="n">
-        <v>4.341499999999994</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.52</v>
+        <v>4.26</v>
       </c>
       <c r="C3" t="n">
-        <v>4.52</v>
+        <v>4.26</v>
       </c>
       <c r="D3" t="n">
-        <v>4.52</v>
+        <v>4.26</v>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>4.26</v>
       </c>
       <c r="F3" t="n">
-        <v>5548.783</v>
+        <v>157355.848</v>
       </c>
       <c r="G3" t="n">
-        <v>4.42266666666666</v>
+        <v>-22087415.50087423</v>
       </c>
       <c r="H3" t="n">
-        <v>4.346499999999993</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>4.23</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>4.23</v>
       </c>
       <c r="D4" t="n">
-        <v>4.5</v>
+        <v>4.23</v>
       </c>
       <c r="E4" t="n">
-        <v>4.5</v>
+        <v>4.23</v>
       </c>
       <c r="F4" t="n">
-        <v>5000</v>
+        <v>240</v>
       </c>
       <c r="G4" t="n">
-        <v>4.435999999999994</v>
+        <v>-22087655.50087423</v>
       </c>
       <c r="H4" t="n">
-        <v>4.350999999999993</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.52</v>
+        <v>4.23</v>
       </c>
       <c r="C5" t="n">
-        <v>4.52</v>
+        <v>4.23</v>
       </c>
       <c r="D5" t="n">
-        <v>4.52</v>
+        <v>4.23</v>
       </c>
       <c r="E5" t="n">
-        <v>4.52</v>
+        <v>4.23</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>87566.1974</v>
       </c>
       <c r="G5" t="n">
-        <v>4.450666666666661</v>
+        <v>-22087655.50087423</v>
       </c>
       <c r="H5" t="n">
-        <v>4.355833333333325</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>4.24</v>
       </c>
       <c r="C6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="E6" t="n">
-        <v>4.5</v>
+        <v>4.24</v>
       </c>
       <c r="F6" t="n">
-        <v>7607.0804</v>
+        <v>9196908.2903</v>
       </c>
       <c r="G6" t="n">
-        <v>4.463333333333327</v>
+        <v>-12890747.21057422</v>
       </c>
       <c r="H6" t="n">
-        <v>4.360333333333325</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>4.32</v>
       </c>
       <c r="C7" t="n">
-        <v>4.5</v>
+        <v>4.32</v>
       </c>
       <c r="D7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="E7" t="n">
-        <v>4.5</v>
+        <v>4.32</v>
       </c>
       <c r="F7" t="n">
-        <v>16666.6666</v>
+        <v>36700390.5311</v>
       </c>
       <c r="G7" t="n">
-        <v>4.475999999999994</v>
+        <v>-49591137.74167422</v>
       </c>
       <c r="H7" t="n">
-        <v>4.364833333333324</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.47</v>
+        <v>4.32</v>
       </c>
       <c r="C8" t="n">
-        <v>4.47</v>
+        <v>4.33</v>
       </c>
       <c r="D8" t="n">
-        <v>4.47</v>
+        <v>4.33</v>
       </c>
       <c r="E8" t="n">
-        <v>4.47</v>
+        <v>4.32</v>
       </c>
       <c r="F8" t="n">
-        <v>107623.4899</v>
+        <v>26706602.2129</v>
       </c>
       <c r="G8" t="n">
-        <v>4.485333333333327</v>
+        <v>-22884535.52877422</v>
       </c>
       <c r="H8" t="n">
-        <v>4.368833333333325</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.46</v>
+        <v>4.33</v>
       </c>
       <c r="C9" t="n">
-        <v>4.45</v>
+        <v>4.32</v>
       </c>
       <c r="D9" t="n">
-        <v>4.46</v>
+        <v>4.34</v>
       </c>
       <c r="E9" t="n">
-        <v>4.45</v>
+        <v>4.32</v>
       </c>
       <c r="F9" t="n">
-        <v>283479.674</v>
+        <v>16829405.4576</v>
       </c>
       <c r="G9" t="n">
-        <v>4.489333333333327</v>
+        <v>-39713940.98637422</v>
       </c>
       <c r="H9" t="n">
-        <v>4.372499999999991</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.45</v>
+        <v>4.31</v>
       </c>
       <c r="C10" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="D10" t="n">
-        <v>4.45</v>
+        <v>4.34</v>
       </c>
       <c r="E10" t="n">
-        <v>4.44</v>
+        <v>4.31</v>
       </c>
       <c r="F10" t="n">
-        <v>105783.2125</v>
+        <v>8802018</v>
       </c>
       <c r="G10" t="n">
-        <v>4.489999999999994</v>
+        <v>-48515958.98637422</v>
       </c>
       <c r="H10" t="n">
-        <v>4.375333333333325</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.48</v>
+        <v>4.34</v>
       </c>
       <c r="C11" t="n">
-        <v>4.44</v>
+        <v>4.34</v>
       </c>
       <c r="D11" t="n">
-        <v>4.48</v>
+        <v>4.35</v>
       </c>
       <c r="E11" t="n">
-        <v>4.44</v>
+        <v>4.34</v>
       </c>
       <c r="F11" t="n">
-        <v>27388.46744285714</v>
+        <v>7613482.6515</v>
       </c>
       <c r="G11" t="n">
-        <v>4.489999999999994</v>
+        <v>-40902476.33487422</v>
       </c>
       <c r="H11" t="n">
-        <v>4.376499999999991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.43</v>
+        <v>4.27</v>
       </c>
       <c r="C12" t="n">
-        <v>4.43</v>
+        <v>4.27</v>
       </c>
       <c r="D12" t="n">
-        <v>4.43</v>
+        <v>4.27</v>
       </c>
       <c r="E12" t="n">
-        <v>4.43</v>
+        <v>4.27</v>
       </c>
       <c r="F12" t="n">
-        <v>15585.3027</v>
+        <v>35.5374</v>
       </c>
       <c r="G12" t="n">
-        <v>4.487333333333328</v>
+        <v>-40902511.87227422</v>
       </c>
       <c r="H12" t="n">
-        <v>4.376499999999991</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="C13" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="D13" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="E13" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="F13" t="n">
-        <v>21215.4814</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>4.482666666666661</v>
+        <v>-40902501.87227422</v>
       </c>
       <c r="H13" t="n">
-        <v>4.376499999999991</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.43</v>
+        <v>4.31</v>
       </c>
       <c r="C14" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="D14" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="E14" t="n">
-        <v>4.43</v>
+        <v>4.31</v>
       </c>
       <c r="F14" t="n">
-        <v>8117.8242</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n">
-        <v>4.477999999999995</v>
+        <v>-40902501.87227422</v>
       </c>
       <c r="H14" t="n">
-        <v>4.376666666666657</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>4.32</v>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +894,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="C15" t="n">
-        <v>4.42</v>
+        <v>4.32</v>
       </c>
       <c r="D15" t="n">
-        <v>4.43</v>
+        <v>4.32</v>
       </c>
       <c r="E15" t="n">
-        <v>4.42</v>
+        <v>4.32</v>
       </c>
       <c r="F15" t="n">
-        <v>15721.3667</v>
+        <v>50.2314</v>
       </c>
       <c r="G15" t="n">
-        <v>4.471333333333329</v>
+        <v>-40902501.87227422</v>
       </c>
       <c r="H15" t="n">
-        <v>4.376999999999992</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +933,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.42</v>
+        <v>4.28</v>
       </c>
       <c r="C16" t="n">
-        <v>4.41</v>
+        <v>4.28</v>
       </c>
       <c r="D16" t="n">
-        <v>4.42</v>
+        <v>4.28</v>
       </c>
       <c r="E16" t="n">
-        <v>4.41</v>
+        <v>4.28</v>
       </c>
       <c r="F16" t="n">
-        <v>33464.7128</v>
+        <v>14972.2225</v>
       </c>
       <c r="G16" t="n">
-        <v>4.465333333333329</v>
+        <v>-40917474.09477422</v>
       </c>
       <c r="H16" t="n">
-        <v>4.377499999999992</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +972,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="C17" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="D17" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="E17" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="F17" t="n">
-        <v>10353.7845</v>
+        <v>6063.7501</v>
       </c>
       <c r="G17" t="n">
-        <v>4.457333333333329</v>
+        <v>-40911410.34467421</v>
       </c>
       <c r="H17" t="n">
-        <v>4.377999999999991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1011,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="C18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="E18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="F18" t="n">
-        <v>17756.4427</v>
+        <v>7008.4506</v>
       </c>
       <c r="G18" t="n">
-        <v>4.44933333333333</v>
+        <v>-40904401.89407422</v>
       </c>
       <c r="H18" t="n">
-        <v>4.379166666666658</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1050,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="D19" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="E19" t="n">
-        <v>4.39</v>
+        <v>4.3</v>
       </c>
       <c r="F19" t="n">
-        <v>9165.4172</v>
+        <v>160.5628</v>
       </c>
       <c r="G19" t="n">
-        <v>4.441999999999997</v>
+        <v>-40904401.89407422</v>
       </c>
       <c r="H19" t="n">
-        <v>4.378999999999992</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1128,30 +1095,33 @@
         <v>4.31</v>
       </c>
       <c r="D20" t="n">
-        <v>4.39</v>
+        <v>4.31</v>
       </c>
       <c r="E20" t="n">
         <v>4.31</v>
       </c>
       <c r="F20" t="n">
-        <v>3242.1393</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>4.427999999999997</v>
+        <v>-40904391.89407422</v>
       </c>
       <c r="H20" t="n">
-        <v>4.378833333333325</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1172,24 +1142,27 @@
         <v>4.31</v>
       </c>
       <c r="F21" t="n">
-        <v>8411.8055</v>
+        <v>40227.9152</v>
       </c>
       <c r="G21" t="n">
-        <v>4.415333333333331</v>
+        <v>-40904391.89407422</v>
       </c>
       <c r="H21" t="n">
-        <v>4.377999999999991</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>4.31</v>
       </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1171,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.39</v>
+        <v>4.32</v>
       </c>
       <c r="C22" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="D22" t="n">
-        <v>4.39</v>
+        <v>4.33</v>
       </c>
       <c r="E22" t="n">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="F22" t="n">
-        <v>249778.8062</v>
+        <v>16818.8817</v>
       </c>
       <c r="G22" t="n">
-        <v>4.397999999999997</v>
+        <v>-40887573.01237421</v>
       </c>
       <c r="H22" t="n">
-        <v>4.375333333333326</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>4.31</v>
       </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1212,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="C23" t="n">
-        <v>4.35</v>
+        <v>4.39</v>
       </c>
       <c r="D23" t="n">
-        <v>4.35</v>
+        <v>4.39</v>
       </c>
       <c r="E23" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>98180.14659999999</v>
       </c>
       <c r="G23" t="n">
-        <v>4.389999999999997</v>
+        <v>-40789392.86577421</v>
       </c>
       <c r="H23" t="n">
-        <v>4.375833333333326</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1251,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="C24" t="n">
-        <v>4.37</v>
+        <v>4.43</v>
       </c>
       <c r="D24" t="n">
-        <v>4.37</v>
+        <v>4.43</v>
       </c>
       <c r="E24" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="F24" t="n">
-        <v>8923048.673800001</v>
+        <v>181550.6178</v>
       </c>
       <c r="G24" t="n">
-        <v>4.384666666666663</v>
+        <v>-40607842.24797422</v>
       </c>
       <c r="H24" t="n">
-        <v>4.37666666666666</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1290,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.37</v>
+        <v>4.44</v>
       </c>
       <c r="C25" t="n">
-        <v>4.34</v>
+        <v>4.44</v>
       </c>
       <c r="D25" t="n">
-        <v>4.37</v>
+        <v>4.44</v>
       </c>
       <c r="E25" t="n">
-        <v>4.33</v>
+        <v>4.44</v>
       </c>
       <c r="F25" t="n">
-        <v>45401174.0271</v>
+        <v>27225.3901</v>
       </c>
       <c r="G25" t="n">
-        <v>4.377999999999997</v>
+        <v>-40580616.85787421</v>
       </c>
       <c r="H25" t="n">
-        <v>4.375666666666659</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1329,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.34</v>
+        <v>4.45</v>
       </c>
       <c r="C26" t="n">
-        <v>4.34</v>
+        <v>4.47</v>
       </c>
       <c r="D26" t="n">
-        <v>4.34</v>
+        <v>4.47</v>
       </c>
       <c r="E26" t="n">
-        <v>4.33</v>
+        <v>4.45</v>
       </c>
       <c r="F26" t="n">
-        <v>27847909.1798</v>
+        <v>29263.4588</v>
       </c>
       <c r="G26" t="n">
-        <v>4.371333333333331</v>
+        <v>-40551353.39907421</v>
       </c>
       <c r="H26" t="n">
-        <v>4.375666666666659</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1368,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.34</v>
+        <v>4.48</v>
       </c>
       <c r="C27" t="n">
-        <v>4.36</v>
+        <v>4.5</v>
       </c>
       <c r="D27" t="n">
-        <v>4.36</v>
+        <v>4.5</v>
       </c>
       <c r="E27" t="n">
-        <v>4.33</v>
+        <v>4.48</v>
       </c>
       <c r="F27" t="n">
-        <v>17776675</v>
+        <v>832261.368</v>
       </c>
       <c r="G27" t="n">
-        <v>4.366666666666664</v>
+        <v>-39719092.03107421</v>
       </c>
       <c r="H27" t="n">
-        <v>4.375833333333326</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1407,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.34</v>
+        <v>4.52</v>
       </c>
       <c r="C28" t="n">
-        <v>4.34</v>
+        <v>4.5</v>
       </c>
       <c r="D28" t="n">
-        <v>4.34</v>
+        <v>4.52</v>
       </c>
       <c r="E28" t="n">
-        <v>4.34</v>
+        <v>4.5</v>
       </c>
       <c r="F28" t="n">
-        <v>113941.8208</v>
+        <v>12919.8832</v>
       </c>
       <c r="G28" t="n">
-        <v>4.360666666666664</v>
+        <v>-39719092.03107421</v>
       </c>
       <c r="H28" t="n">
-        <v>4.375499999999992</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1446,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.26</v>
+        <v>4.5</v>
       </c>
       <c r="C29" t="n">
-        <v>4.26</v>
+        <v>4.52</v>
       </c>
       <c r="D29" t="n">
-        <v>4.26</v>
+        <v>4.52</v>
       </c>
       <c r="E29" t="n">
-        <v>4.26</v>
+        <v>4.5</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>23.9469</v>
       </c>
       <c r="G29" t="n">
-        <v>4.349333333333332</v>
+        <v>-39719068.08417421</v>
       </c>
       <c r="H29" t="n">
-        <v>4.373999999999992</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1485,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="C30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="D30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="E30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>115000</v>
       </c>
       <c r="G30" t="n">
-        <v>4.343333333333332</v>
+        <v>-39834068.08417421</v>
       </c>
       <c r="H30" t="n">
-        <v>4.375333333333325</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1524,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.33</v>
+        <v>4.52</v>
       </c>
       <c r="C31" t="n">
-        <v>4.33</v>
+        <v>4.52</v>
       </c>
       <c r="D31" t="n">
-        <v>4.33</v>
+        <v>4.52</v>
       </c>
       <c r="E31" t="n">
-        <v>4.33</v>
+        <v>4.52</v>
       </c>
       <c r="F31" t="n">
-        <v>7823975</v>
+        <v>262.4557</v>
       </c>
       <c r="G31" t="n">
-        <v>4.337999999999998</v>
+        <v>-39833805.62847421</v>
       </c>
       <c r="H31" t="n">
-        <v>4.37499999999999</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,74 +1563,70 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.33</v>
+        <v>4.52</v>
       </c>
       <c r="C32" t="n">
-        <v>4.33</v>
+        <v>4.52</v>
       </c>
       <c r="D32" t="n">
-        <v>4.33</v>
+        <v>4.52</v>
       </c>
       <c r="E32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="F32" t="n">
-        <v>35634441</v>
+        <v>5548.783</v>
       </c>
       <c r="G32" t="n">
-        <v>4.333333333333331</v>
+        <v>-39833805.62847421</v>
       </c>
       <c r="H32" t="n">
-        <v>4.373666666666656</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="C33" t="n">
-        <v>4.34</v>
+        <v>4.5</v>
       </c>
       <c r="D33" t="n">
-        <v>4.34</v>
+        <v>4.5</v>
       </c>
       <c r="E33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="F33" t="n">
-        <v>6758183.1105</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="n">
-        <v>4.329333333333332</v>
+        <v>-39838805.62847421</v>
       </c>
       <c r="H33" t="n">
-        <v>4.374833333333323</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1635,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="C34" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="D34" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="E34" t="n">
-        <v>4.4</v>
+        <v>4.52</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>4.329999999999998</v>
+        <v>-39838705.62847421</v>
       </c>
       <c r="H34" t="n">
-        <v>4.377166666666656</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1670,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.37</v>
+        <v>4.5</v>
       </c>
       <c r="C35" t="n">
-        <v>4.37</v>
+        <v>4.5</v>
       </c>
       <c r="D35" t="n">
-        <v>4.37</v>
+        <v>4.5</v>
       </c>
       <c r="E35" t="n">
-        <v>4.37</v>
+        <v>4.5</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>7607.0804</v>
       </c>
       <c r="G35" t="n">
-        <v>4.333999999999999</v>
+        <v>-39846312.7088742</v>
       </c>
       <c r="H35" t="n">
-        <v>4.37949999999999</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1705,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.36</v>
+        <v>4.5</v>
       </c>
       <c r="C36" t="n">
-        <v>4.36</v>
+        <v>4.5</v>
       </c>
       <c r="D36" t="n">
-        <v>4.36</v>
+        <v>4.5</v>
       </c>
       <c r="E36" t="n">
-        <v>4.36</v>
+        <v>4.5</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>16666.6666</v>
       </c>
       <c r="G36" t="n">
-        <v>4.337333333333332</v>
+        <v>-39846312.7088742</v>
       </c>
       <c r="H36" t="n">
-        <v>4.381666666666656</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1740,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.36</v>
+        <v>4.47</v>
       </c>
       <c r="C37" t="n">
-        <v>4.36</v>
+        <v>4.47</v>
       </c>
       <c r="D37" t="n">
-        <v>4.36</v>
+        <v>4.47</v>
       </c>
       <c r="E37" t="n">
-        <v>4.36</v>
+        <v>4.47</v>
       </c>
       <c r="F37" t="n">
-        <v>11382.2477</v>
+        <v>107623.4899</v>
       </c>
       <c r="G37" t="n">
-        <v>4.345333333333332</v>
+        <v>-39953936.1987742</v>
       </c>
       <c r="H37" t="n">
-        <v>4.382166666666657</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1775,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.26</v>
+        <v>4.46</v>
       </c>
       <c r="C38" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="D38" t="n">
-        <v>4.26</v>
+        <v>4.46</v>
       </c>
       <c r="E38" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="F38" t="n">
-        <v>43985.633</v>
+        <v>283479.674</v>
       </c>
       <c r="G38" t="n">
-        <v>4.338666666666666</v>
+        <v>-40237415.87277421</v>
       </c>
       <c r="H38" t="n">
-        <v>4.38099999999999</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1810,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="C39" t="n">
-        <v>4.2</v>
+        <v>4.44</v>
       </c>
       <c r="D39" t="n">
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
       <c r="E39" t="n">
-        <v>4.2</v>
+        <v>4.44</v>
       </c>
       <c r="F39" t="n">
-        <v>502005.8841</v>
+        <v>105783.2125</v>
       </c>
       <c r="G39" t="n">
-        <v>4.327333333333332</v>
+        <v>-40343199.0852742</v>
       </c>
       <c r="H39" t="n">
-        <v>4.378833333333323</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1845,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.35</v>
+        <v>4.48</v>
       </c>
       <c r="C40" t="n">
-        <v>4.35</v>
+        <v>4.44</v>
       </c>
       <c r="D40" t="n">
-        <v>4.35</v>
+        <v>4.48</v>
       </c>
       <c r="E40" t="n">
-        <v>4.35</v>
+        <v>4.44</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>27388.46744285714</v>
       </c>
       <c r="G40" t="n">
-        <v>4.327999999999999</v>
+        <v>-40343199.0852742</v>
       </c>
       <c r="H40" t="n">
-        <v>4.379333333333324</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1880,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.21</v>
+        <v>4.43</v>
       </c>
       <c r="C41" t="n">
-        <v>4.21</v>
+        <v>4.43</v>
       </c>
       <c r="D41" t="n">
-        <v>4.21</v>
+        <v>4.43</v>
       </c>
       <c r="E41" t="n">
-        <v>4.21</v>
+        <v>4.43</v>
       </c>
       <c r="F41" t="n">
-        <v>724.0752</v>
+        <v>15585.3027</v>
       </c>
       <c r="G41" t="n">
-        <v>4.319333333333331</v>
+        <v>-40358784.3879742</v>
       </c>
       <c r="H41" t="n">
-        <v>4.377666666666657</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1915,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.21</v>
+        <v>4.43</v>
       </c>
       <c r="C42" t="n">
-        <v>4.2</v>
+        <v>4.43</v>
       </c>
       <c r="D42" t="n">
-        <v>4.21</v>
+        <v>4.43</v>
       </c>
       <c r="E42" t="n">
-        <v>4.2</v>
+        <v>4.43</v>
       </c>
       <c r="F42" t="n">
-        <v>8708.265299999999</v>
+        <v>21215.4814</v>
       </c>
       <c r="G42" t="n">
-        <v>4.308666666666665</v>
+        <v>-40358784.3879742</v>
       </c>
       <c r="H42" t="n">
-        <v>4.375333333333324</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1950,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.18</v>
+        <v>4.43</v>
       </c>
       <c r="C43" t="n">
-        <v>4.18</v>
+        <v>4.43</v>
       </c>
       <c r="D43" t="n">
-        <v>4.18</v>
+        <v>4.43</v>
       </c>
       <c r="E43" t="n">
-        <v>4.18</v>
+        <v>4.43</v>
       </c>
       <c r="F43" t="n">
-        <v>444</v>
+        <v>8117.8242</v>
       </c>
       <c r="G43" t="n">
-        <v>4.297999999999998</v>
+        <v>-40358784.3879742</v>
       </c>
       <c r="H43" t="n">
-        <v>4.373833333333324</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1985,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.21</v>
+        <v>4.43</v>
       </c>
       <c r="C44" t="n">
-        <v>4.21</v>
+        <v>4.42</v>
       </c>
       <c r="D44" t="n">
-        <v>4.21</v>
+        <v>4.43</v>
       </c>
       <c r="E44" t="n">
-        <v>4.21</v>
+        <v>4.42</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>15721.3667</v>
       </c>
       <c r="G44" t="n">
-        <v>4.294666666666664</v>
+        <v>-40374505.7546742</v>
       </c>
       <c r="H44" t="n">
-        <v>4.37199999999999</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2020,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.21</v>
+        <v>4.42</v>
       </c>
       <c r="C45" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="D45" t="n">
-        <v>4.21</v>
+        <v>4.42</v>
       </c>
       <c r="E45" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="F45" t="n">
-        <v>434</v>
+        <v>33464.7128</v>
       </c>
       <c r="G45" t="n">
-        <v>4.286666666666664</v>
+        <v>-40407970.46747421</v>
       </c>
       <c r="H45" t="n">
-        <v>4.370166666666657</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2055,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="C46" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="D46" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="E46" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>10353.7845</v>
       </c>
       <c r="G46" t="n">
-        <v>4.27933333333333</v>
+        <v>-40418324.25197421</v>
       </c>
       <c r="H46" t="n">
-        <v>4.368499999999991</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2090,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="C47" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="D47" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="E47" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="F47" t="n">
-        <v>44369.9756</v>
+        <v>17756.4427</v>
       </c>
       <c r="G47" t="n">
-        <v>4.271999999999997</v>
+        <v>-40418324.25197421</v>
       </c>
       <c r="H47" t="n">
-        <v>4.367499999999992</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2125,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="C48" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="D48" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="E48" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>9165.4172</v>
       </c>
       <c r="G48" t="n">
-        <v>4.27133333333333</v>
+        <v>-40427489.66917421</v>
       </c>
       <c r="H48" t="n">
-        <v>4.368166666666657</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2160,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="C49" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="D49" t="n">
-        <v>4.26</v>
+        <v>4.39</v>
       </c>
       <c r="E49" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="F49" t="n">
-        <v>432.915</v>
+        <v>3242.1393</v>
       </c>
       <c r="G49" t="n">
-        <v>4.261999999999997</v>
+        <v>-40430731.80847421</v>
       </c>
       <c r="H49" t="n">
-        <v>4.367499999999991</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2195,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="C50" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="D50" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="E50" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>8411.8055</v>
       </c>
       <c r="G50" t="n">
-        <v>4.259333333333331</v>
+        <v>-40430731.80847421</v>
       </c>
       <c r="H50" t="n">
-        <v>4.367999999999991</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2230,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.25</v>
+        <v>4.39</v>
       </c>
       <c r="C51" t="n">
         <v>4.24</v>
       </c>
       <c r="D51" t="n">
-        <v>4.25</v>
+        <v>4.39</v>
       </c>
       <c r="E51" t="n">
         <v>4.24</v>
       </c>
       <c r="F51" t="n">
-        <v>58497.6353</v>
+        <v>249778.8062</v>
       </c>
       <c r="G51" t="n">
-        <v>4.251333333333331</v>
+        <v>-40680510.61467421</v>
       </c>
       <c r="H51" t="n">
-        <v>4.366833333333323</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2265,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.24</v>
+        <v>4.35</v>
       </c>
       <c r="C52" t="n">
-        <v>4.24</v>
+        <v>4.35</v>
       </c>
       <c r="D52" t="n">
-        <v>4.24</v>
+        <v>4.35</v>
       </c>
       <c r="E52" t="n">
-        <v>4.24</v>
+        <v>4.35</v>
       </c>
       <c r="F52" t="n">
-        <v>55437.9799</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>4.243333333333331</v>
+        <v>-40680500.61467421</v>
       </c>
       <c r="H52" t="n">
-        <v>4.365666666666657</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2300,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.18</v>
+        <v>4.33</v>
       </c>
       <c r="C53" t="n">
-        <v>4.18</v>
+        <v>4.37</v>
       </c>
       <c r="D53" t="n">
-        <v>4.18</v>
+        <v>4.37</v>
       </c>
       <c r="E53" t="n">
-        <v>4.18</v>
+        <v>4.33</v>
       </c>
       <c r="F53" t="n">
-        <v>9556</v>
+        <v>8923048.673800001</v>
       </c>
       <c r="G53" t="n">
-        <v>4.238666666666663</v>
+        <v>-31757451.94087421</v>
       </c>
       <c r="H53" t="n">
-        <v>4.363166666666658</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2335,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.18</v>
+        <v>4.37</v>
       </c>
       <c r="C54" t="n">
-        <v>4.18</v>
+        <v>4.34</v>
       </c>
       <c r="D54" t="n">
-        <v>4.18</v>
+        <v>4.37</v>
       </c>
       <c r="E54" t="n">
-        <v>4.18</v>
+        <v>4.33</v>
       </c>
       <c r="F54" t="n">
-        <v>6699.043</v>
+        <v>45401174.0271</v>
       </c>
       <c r="G54" t="n">
-        <v>4.23733333333333</v>
+        <v>-77158625.96797422</v>
       </c>
       <c r="H54" t="n">
-        <v>4.359666666666658</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2370,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.18</v>
+        <v>4.34</v>
       </c>
       <c r="C55" t="n">
-        <v>4.18</v>
+        <v>4.34</v>
       </c>
       <c r="D55" t="n">
-        <v>4.18</v>
+        <v>4.34</v>
       </c>
       <c r="E55" t="n">
-        <v>4.18</v>
+        <v>4.33</v>
       </c>
       <c r="F55" t="n">
-        <v>1237.4155</v>
+        <v>27847909.1798</v>
       </c>
       <c r="G55" t="n">
-        <v>4.225999999999996</v>
+        <v>-77158625.96797422</v>
       </c>
       <c r="H55" t="n">
-        <v>4.355499999999991</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2405,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.19</v>
+        <v>4.34</v>
       </c>
       <c r="C56" t="n">
-        <v>4.19</v>
+        <v>4.36</v>
       </c>
       <c r="D56" t="n">
-        <v>4.19</v>
+        <v>4.36</v>
       </c>
       <c r="E56" t="n">
-        <v>4.19</v>
+        <v>4.33</v>
       </c>
       <c r="F56" t="n">
-        <v>4087.2315</v>
+        <v>17776675</v>
       </c>
       <c r="G56" t="n">
-        <v>4.224666666666663</v>
+        <v>-59381950.96797422</v>
       </c>
       <c r="H56" t="n">
-        <v>4.351333333333325</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2440,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.19</v>
+        <v>4.34</v>
       </c>
       <c r="C57" t="n">
-        <v>4.19</v>
+        <v>4.34</v>
       </c>
       <c r="D57" t="n">
-        <v>4.19</v>
+        <v>4.34</v>
       </c>
       <c r="E57" t="n">
-        <v>4.19</v>
+        <v>4.34</v>
       </c>
       <c r="F57" t="n">
-        <v>927.6264</v>
+        <v>113941.8208</v>
       </c>
       <c r="G57" t="n">
-        <v>4.223999999999998</v>
+        <v>-59495892.78877421</v>
       </c>
       <c r="H57" t="n">
-        <v>4.346666666666658</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2475,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="C58" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="D58" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="E58" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="F58" t="n">
         <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>4.227333333333331</v>
+        <v>-59495902.78877421</v>
       </c>
       <c r="H58" t="n">
-        <v>4.342166666666658</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2510,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="C59" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="D59" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="E59" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="F59" t="n">
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>4.229333333333331</v>
+        <v>-59495892.78877421</v>
       </c>
       <c r="H59" t="n">
-        <v>4.337833333333324</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>4.26</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.26</v>
+      </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2549,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.21</v>
+        <v>4.33</v>
       </c>
       <c r="C60" t="n">
-        <v>4.21</v>
+        <v>4.33</v>
       </c>
       <c r="D60" t="n">
-        <v>4.21</v>
+        <v>4.33</v>
       </c>
       <c r="E60" t="n">
-        <v>4.21</v>
+        <v>4.33</v>
       </c>
       <c r="F60" t="n">
-        <v>11993.6308</v>
+        <v>7823975</v>
       </c>
       <c r="G60" t="n">
-        <v>4.229333333333331</v>
+        <v>-59495892.78877421</v>
       </c>
       <c r="H60" t="n">
-        <v>4.332666666666658</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2590,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.22</v>
+        <v>4.33</v>
       </c>
       <c r="C61" t="n">
-        <v>4.22</v>
+        <v>4.33</v>
       </c>
       <c r="D61" t="n">
-        <v>4.22</v>
+        <v>4.33</v>
       </c>
       <c r="E61" t="n">
-        <v>4.22</v>
+        <v>4.33</v>
       </c>
       <c r="F61" t="n">
-        <v>11397.5311</v>
+        <v>35634441</v>
       </c>
       <c r="G61" t="n">
-        <v>4.229333333333331</v>
+        <v>-59495892.78877421</v>
       </c>
       <c r="H61" t="n">
-        <v>4.327999999999991</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2631,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.22</v>
+        <v>4.33</v>
       </c>
       <c r="C62" t="n">
-        <v>4.22</v>
+        <v>4.34</v>
       </c>
       <c r="D62" t="n">
-        <v>4.22</v>
+        <v>4.34</v>
       </c>
       <c r="E62" t="n">
-        <v>4.22</v>
+        <v>4.33</v>
       </c>
       <c r="F62" t="n">
-        <v>71090.1309</v>
+        <v>6758183.1105</v>
       </c>
       <c r="G62" t="n">
-        <v>4.229333333333331</v>
+        <v>-52737709.67827421</v>
       </c>
       <c r="H62" t="n">
-        <v>4.322999999999992</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2666,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="C63" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="D63" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="E63" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="F63" t="n">
-        <v>27333.1696</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>4.221999999999998</v>
+        <v>-52737699.67827421</v>
       </c>
       <c r="H63" t="n">
-        <v>4.317999999999993</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2701,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.24</v>
+        <v>4.37</v>
       </c>
       <c r="C64" t="n">
-        <v>4.24</v>
+        <v>4.37</v>
       </c>
       <c r="D64" t="n">
-        <v>4.24</v>
+        <v>4.37</v>
       </c>
       <c r="E64" t="n">
-        <v>4.24</v>
+        <v>4.37</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>4.220666666666665</v>
+        <v>-52737799.67827421</v>
       </c>
       <c r="H64" t="n">
-        <v>4.31366666666666</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2736,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.23</v>
+        <v>4.36</v>
       </c>
       <c r="C65" t="n">
-        <v>4.23</v>
+        <v>4.36</v>
       </c>
       <c r="D65" t="n">
-        <v>4.23</v>
+        <v>4.36</v>
       </c>
       <c r="E65" t="n">
-        <v>4.23</v>
+        <v>4.36</v>
       </c>
       <c r="F65" t="n">
-        <v>11963.6467</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>4.213999999999998</v>
+        <v>-52737899.67827421</v>
       </c>
       <c r="H65" t="n">
-        <v>4.308833333333327</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2771,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23</v>
+        <v>4.36</v>
       </c>
       <c r="C66" t="n">
-        <v>4.23</v>
+        <v>4.36</v>
       </c>
       <c r="D66" t="n">
-        <v>4.23</v>
+        <v>4.36</v>
       </c>
       <c r="E66" t="n">
-        <v>4.23</v>
+        <v>4.36</v>
       </c>
       <c r="F66" t="n">
-        <v>2650</v>
+        <v>11382.2477</v>
       </c>
       <c r="G66" t="n">
-        <v>4.213333333333331</v>
+        <v>-52737899.67827421</v>
       </c>
       <c r="H66" t="n">
-        <v>4.304333333333328</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2806,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="C67" t="n">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="D67" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="E67" t="n">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="F67" t="n">
-        <v>17134.9866</v>
+        <v>43985.633</v>
       </c>
       <c r="G67" t="n">
-        <v>4.213333333333331</v>
+        <v>-52781885.31127422</v>
       </c>
       <c r="H67" t="n">
-        <v>4.299999999999994</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2841,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="C68" t="n">
-        <v>4.24</v>
+        <v>4.2</v>
       </c>
       <c r="D68" t="n">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="E68" t="n">
-        <v>4.24</v>
+        <v>4.2</v>
       </c>
       <c r="F68" t="n">
-        <v>34610.5794</v>
+        <v>502005.8841</v>
       </c>
       <c r="G68" t="n">
-        <v>4.217333333333332</v>
+        <v>-53283891.19537421</v>
       </c>
       <c r="H68" t="n">
-        <v>4.296166666666661</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2882,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.24</v>
+        <v>4.35</v>
       </c>
       <c r="C69" t="n">
-        <v>4.24</v>
+        <v>4.35</v>
       </c>
       <c r="D69" t="n">
-        <v>4.24</v>
+        <v>4.35</v>
       </c>
       <c r="E69" t="n">
-        <v>4.24</v>
+        <v>4.35</v>
       </c>
       <c r="F69" t="n">
-        <v>44080</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>4.221333333333331</v>
+        <v>-53283881.19537421</v>
       </c>
       <c r="H69" t="n">
-        <v>4.292666666666661</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2923,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
       <c r="C70" t="n">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
       <c r="D70" t="n">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
       <c r="E70" t="n">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
       <c r="F70" t="n">
-        <v>17806.3797</v>
+        <v>724.0752</v>
       </c>
       <c r="G70" t="n">
-        <v>4.225333333333332</v>
+        <v>-53284605.27057421</v>
       </c>
       <c r="H70" t="n">
-        <v>4.289333333333328</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2964,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25</v>
+        <v>4.21</v>
       </c>
       <c r="C71" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="D71" t="n">
-        <v>4.25</v>
+        <v>4.21</v>
       </c>
       <c r="E71" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="F71" t="n">
-        <v>207093.4117</v>
+        <v>8708.265299999999</v>
       </c>
       <c r="G71" t="n">
-        <v>4.229333333333331</v>
+        <v>-53293313.53587421</v>
       </c>
       <c r="H71" t="n">
-        <v>4.286166666666661</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3003,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.25</v>
+        <v>4.18</v>
       </c>
       <c r="C72" t="n">
-        <v>4.26</v>
+        <v>4.18</v>
       </c>
       <c r="D72" t="n">
-        <v>4.26</v>
+        <v>4.18</v>
       </c>
       <c r="E72" t="n">
-        <v>4.25</v>
+        <v>4.18</v>
       </c>
       <c r="F72" t="n">
-        <v>167871.7176</v>
+        <v>444</v>
       </c>
       <c r="G72" t="n">
-        <v>4.233999999999998</v>
+        <v>-53293757.53587421</v>
       </c>
       <c r="H72" t="n">
-        <v>4.283333333333328</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3042,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.26</v>
+        <v>4.21</v>
       </c>
       <c r="C73" t="n">
-        <v>4.26</v>
+        <v>4.21</v>
       </c>
       <c r="D73" t="n">
-        <v>4.26</v>
+        <v>4.21</v>
       </c>
       <c r="E73" t="n">
-        <v>4.26</v>
+        <v>4.21</v>
       </c>
       <c r="F73" t="n">
-        <v>29411.5139</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>4.235999999999999</v>
+        <v>-53293747.53587421</v>
       </c>
       <c r="H73" t="n">
-        <v>4.280499999999994</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3081,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.3</v>
+        <v>4.21</v>
       </c>
       <c r="C74" t="n">
-        <v>4.3</v>
+        <v>4.21</v>
       </c>
       <c r="D74" t="n">
-        <v>4.3</v>
+        <v>4.21</v>
       </c>
       <c r="E74" t="n">
-        <v>4.3</v>
+        <v>4.21</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>434</v>
       </c>
       <c r="G74" t="n">
-        <v>4.239999999999998</v>
+        <v>-53293747.53587421</v>
       </c>
       <c r="H74" t="n">
-        <v>4.278333333333327</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3120,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.27</v>
+        <v>4.22</v>
       </c>
       <c r="C75" t="n">
-        <v>4.27</v>
+        <v>4.22</v>
       </c>
       <c r="D75" t="n">
-        <v>4.27</v>
+        <v>4.22</v>
       </c>
       <c r="E75" t="n">
-        <v>4.27</v>
+        <v>4.22</v>
       </c>
       <c r="F75" t="n">
-        <v>280.0936768149883</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>4.243999999999998</v>
+        <v>-53293737.53587421</v>
       </c>
       <c r="H75" t="n">
-        <v>4.275833333333327</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3161,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="C76" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="D76" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="E76" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="F76" t="n">
-        <v>14577.1126</v>
+        <v>44369.9756</v>
       </c>
       <c r="G76" t="n">
-        <v>4.245333333333332</v>
+        <v>-53293737.53587421</v>
       </c>
       <c r="H76" t="n">
-        <v>4.272999999999993</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3200,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="C77" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="D77" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="E77" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="F77" t="n">
-        <v>37669.5522</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>4.246666666666665</v>
+        <v>-53293727.53587421</v>
       </c>
       <c r="H77" t="n">
-        <v>4.270333333333327</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3239,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="C78" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="D78" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="E78" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>432.915</v>
       </c>
       <c r="G78" t="n">
-        <v>4.249999999999998</v>
+        <v>-53294160.45087421</v>
       </c>
       <c r="H78" t="n">
-        <v>4.26816666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3278,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="C79" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="D79" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="E79" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="F79" t="n">
-        <v>14222.9581</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>4.250666666666665</v>
+        <v>-53294150.45087421</v>
       </c>
       <c r="H79" t="n">
-        <v>4.265833333333328</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3317,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="C80" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="D80" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="E80" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>58497.6353</v>
       </c>
       <c r="G80" t="n">
-        <v>4.253333333333331</v>
+        <v>-53352648.08617421</v>
       </c>
       <c r="H80" t="n">
-        <v>4.26516666666666</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3356,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="C81" t="n">
         <v>4.24</v>
       </c>
       <c r="D81" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="E81" t="n">
         <v>4.24</v>
       </c>
       <c r="F81" t="n">
-        <v>16162.1794</v>
+        <v>55437.9799</v>
       </c>
       <c r="G81" t="n">
-        <v>4.253999999999997</v>
+        <v>-53352648.08617421</v>
       </c>
       <c r="H81" t="n">
-        <v>4.263999999999994</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3395,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.24</v>
+        <v>4.18</v>
       </c>
       <c r="C82" t="n">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="D82" t="n">
-        <v>4.24</v>
+        <v>4.18</v>
       </c>
       <c r="E82" t="n">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="F82" t="n">
-        <v>23635.3536</v>
+        <v>9556</v>
       </c>
       <c r="G82" t="n">
-        <v>4.250666666666664</v>
+        <v>-53362204.08617421</v>
       </c>
       <c r="H82" t="n">
-        <v>4.263166666666661</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3434,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.25</v>
+        <v>4.18</v>
       </c>
       <c r="C83" t="n">
-        <v>4.26</v>
+        <v>4.18</v>
       </c>
       <c r="D83" t="n">
-        <v>4.26</v>
+        <v>4.18</v>
       </c>
       <c r="E83" t="n">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="F83" t="n">
-        <v>1059</v>
+        <v>6699.043</v>
       </c>
       <c r="G83" t="n">
-        <v>4.251999999999997</v>
+        <v>-53362204.08617421</v>
       </c>
       <c r="H83" t="n">
-        <v>4.26166666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3473,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.27</v>
+        <v>4.18</v>
       </c>
       <c r="C84" t="n">
-        <v>4.27</v>
+        <v>4.18</v>
       </c>
       <c r="D84" t="n">
-        <v>4.27</v>
+        <v>4.18</v>
       </c>
       <c r="E84" t="n">
-        <v>4.27</v>
+        <v>4.18</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>1237.4155</v>
       </c>
       <c r="G84" t="n">
-        <v>4.253999999999997</v>
+        <v>-53362204.08617421</v>
       </c>
       <c r="H84" t="n">
-        <v>4.259999999999994</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3512,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="C85" t="n">
-        <v>4.26</v>
+        <v>4.19</v>
       </c>
       <c r="D85" t="n">
-        <v>4.26</v>
+        <v>4.19</v>
       </c>
       <c r="E85" t="n">
-        <v>4.25</v>
+        <v>4.19</v>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>4087.2315</v>
       </c>
       <c r="G85" t="n">
-        <v>4.25533333333333</v>
+        <v>-53358116.85467421</v>
       </c>
       <c r="H85" t="n">
-        <v>4.25866666666666</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3551,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.27</v>
+        <v>4.19</v>
       </c>
       <c r="C86" t="n">
-        <v>4.27</v>
+        <v>4.19</v>
       </c>
       <c r="D86" t="n">
-        <v>4.27</v>
+        <v>4.19</v>
       </c>
       <c r="E86" t="n">
-        <v>4.27</v>
+        <v>4.19</v>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>927.6264</v>
       </c>
       <c r="G86" t="n">
-        <v>4.256666666666663</v>
+        <v>-53358116.85467421</v>
       </c>
       <c r="H86" t="n">
-        <v>4.257499999999994</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3590,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.27</v>
+        <v>4.23</v>
       </c>
       <c r="C87" t="n">
-        <v>4.27</v>
+        <v>4.23</v>
       </c>
       <c r="D87" t="n">
-        <v>4.27</v>
+        <v>4.23</v>
       </c>
       <c r="E87" t="n">
-        <v>4.27</v>
+        <v>4.23</v>
       </c>
       <c r="F87" t="n">
-        <v>13142.47072318501</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>4.25733333333333</v>
+        <v>-53358106.85467421</v>
       </c>
       <c r="H87" t="n">
-        <v>4.255999999999994</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3631,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="C88" t="n">
-        <v>4.28</v>
+        <v>4.24</v>
       </c>
       <c r="D88" t="n">
-        <v>4.28</v>
+        <v>4.24</v>
       </c>
       <c r="E88" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="F88" t="n">
-        <v>6804.4691</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>4.258666666666663</v>
+        <v>-53358096.85467421</v>
       </c>
       <c r="H88" t="n">
-        <v>4.254999999999993</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3672,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.28</v>
+        <v>4.21</v>
       </c>
       <c r="C89" t="n">
-        <v>4.31</v>
+        <v>4.21</v>
       </c>
       <c r="D89" t="n">
-        <v>4.31</v>
+        <v>4.21</v>
       </c>
       <c r="E89" t="n">
-        <v>4.28</v>
+        <v>4.21</v>
       </c>
       <c r="F89" t="n">
-        <v>121545.3895032483</v>
+        <v>11993.6308</v>
       </c>
       <c r="G89" t="n">
-        <v>4.25933333333333</v>
+        <v>-53370090.48547421</v>
       </c>
       <c r="H89" t="n">
-        <v>4.255833333333326</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3711,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.31</v>
+        <v>4.22</v>
       </c>
       <c r="C90" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="D90" t="n">
-        <v>4.31</v>
+        <v>4.22</v>
       </c>
       <c r="E90" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="F90" t="n">
-        <v>167.7714</v>
+        <v>11397.5311</v>
       </c>
       <c r="G90" t="n">
-        <v>4.25733333333333</v>
+        <v>-53358692.95437422</v>
       </c>
       <c r="H90" t="n">
-        <v>4.254333333333326</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3750,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="C91" t="n">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="D91" t="n">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="E91" t="n">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="F91" t="n">
-        <v>2589.888</v>
+        <v>71090.1309</v>
       </c>
       <c r="G91" t="n">
-        <v>4.258666666666663</v>
+        <v>-53358692.95437422</v>
       </c>
       <c r="H91" t="n">
-        <v>4.25316666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3789,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="C92" t="n">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="D92" t="n">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="E92" t="n">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="F92" t="n">
-        <v>26212.8075</v>
+        <v>27333.1696</v>
       </c>
       <c r="G92" t="n">
-        <v>4.259999999999996</v>
+        <v>-53358692.95437422</v>
       </c>
       <c r="H92" t="n">
-        <v>4.251999999999993</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3828,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="C93" t="n">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="D93" t="n">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="E93" t="n">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="F93" t="n">
         <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>4.261333333333329</v>
+        <v>-53358682.95437422</v>
       </c>
       <c r="H93" t="n">
-        <v>4.251166666666659</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3867,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.29</v>
+        <v>4.23</v>
       </c>
       <c r="C94" t="n">
-        <v>4.26</v>
+        <v>4.23</v>
       </c>
       <c r="D94" t="n">
-        <v>4.29</v>
+        <v>4.23</v>
       </c>
       <c r="E94" t="n">
-        <v>4.26</v>
+        <v>4.23</v>
       </c>
       <c r="F94" t="n">
-        <v>33.5244</v>
+        <v>11963.6467</v>
       </c>
       <c r="G94" t="n">
-        <v>4.261999999999997</v>
+        <v>-53370646.60107422</v>
       </c>
       <c r="H94" t="n">
-        <v>4.248833333333327</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3906,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.26</v>
+        <v>4.23</v>
       </c>
       <c r="C95" t="n">
-        <v>4.26</v>
+        <v>4.23</v>
       </c>
       <c r="D95" t="n">
-        <v>4.26</v>
+        <v>4.23</v>
       </c>
       <c r="E95" t="n">
-        <v>4.26</v>
+        <v>4.23</v>
       </c>
       <c r="F95" t="n">
-        <v>21000</v>
+        <v>2650</v>
       </c>
       <c r="G95" t="n">
-        <v>4.26133333333333</v>
+        <v>-53370646.60107422</v>
       </c>
       <c r="H95" t="n">
-        <v>4.246999999999994</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3945,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="C96" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="D96" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="E96" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="F96" t="n">
-        <v>35000</v>
+        <v>17134.9866</v>
       </c>
       <c r="G96" t="n">
-        <v>4.262666666666664</v>
+        <v>-53353511.61447422</v>
       </c>
       <c r="H96" t="n">
-        <v>4.245333333333326</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3984,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="C97" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="D97" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="E97" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="F97" t="n">
-        <v>2573.0333</v>
+        <v>34610.5794</v>
       </c>
       <c r="G97" t="n">
-        <v>4.267333333333331</v>
+        <v>-53353511.61447422</v>
       </c>
       <c r="H97" t="n">
-        <v>4.243666666666659</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +4023,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="C98" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="D98" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="E98" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="F98" t="n">
-        <v>33.2916</v>
+        <v>44080</v>
       </c>
       <c r="G98" t="n">
-        <v>4.266666666666664</v>
+        <v>-53353511.61447422</v>
       </c>
       <c r="H98" t="n">
-        <v>4.243666666666659</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +4062,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="C99" t="n">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="D99" t="n">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="E99" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="F99" t="n">
-        <v>24236.0343</v>
+        <v>17806.3797</v>
       </c>
       <c r="G99" t="n">
-        <v>4.267999999999998</v>
+        <v>-53353511.61447422</v>
       </c>
       <c r="H99" t="n">
-        <v>4.24516666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4101,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="C100" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="D100" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="E100" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="F100" t="n">
-        <v>11000</v>
+        <v>207093.4117</v>
       </c>
       <c r="G100" t="n">
-        <v>4.267999999999998</v>
+        <v>-53146418.20277422</v>
       </c>
       <c r="H100" t="n">
-        <v>4.24366666666666</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,7 +4140,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="C101" t="n">
         <v>4.26</v>
@@ -4209,27 +4149,28 @@
         <v>4.26</v>
       </c>
       <c r="E101" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="F101" t="n">
-        <v>61887.6903</v>
+        <v>167871.7176</v>
       </c>
       <c r="G101" t="n">
-        <v>4.267333333333331</v>
+        <v>-52978546.48517422</v>
       </c>
       <c r="H101" t="n">
-        <v>4.244499999999993</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,40 +4179,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="C102" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="D102" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="E102" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="F102" t="n">
-        <v>11020</v>
+        <v>29411.5139</v>
       </c>
       <c r="G102" t="n">
-        <v>4.267999999999999</v>
+        <v>-52978546.48517422</v>
       </c>
       <c r="H102" t="n">
-        <v>4.245833333333326</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="L102" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,42 +4218,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.26</v>
+        <v>4.3</v>
       </c>
       <c r="C103" t="n">
-        <v>4.26</v>
+        <v>4.3</v>
       </c>
       <c r="D103" t="n">
-        <v>4.26</v>
+        <v>4.3</v>
       </c>
       <c r="E103" t="n">
-        <v>4.26</v>
+        <v>4.3</v>
       </c>
       <c r="F103" t="n">
-        <v>16792.901</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>4.266666666666666</v>
+        <v>-52978536.48517422</v>
       </c>
       <c r="H103" t="n">
-        <v>4.24716666666666</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,30 +4269,25 @@
         <v>4.27</v>
       </c>
       <c r="F104" t="n">
-        <v>10547.2163</v>
+        <v>280.0936768149883</v>
       </c>
       <c r="G104" t="n">
-        <v>4.263999999999998</v>
+        <v>-52978816.57885103</v>
       </c>
       <c r="H104" t="n">
-        <v>4.248166666666659</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,36 +4296,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="C105" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="D105" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="E105" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="F105" t="n">
-        <v>15150.148</v>
+        <v>14577.1126</v>
       </c>
       <c r="G105" t="n">
-        <v>4.265333333333333</v>
+        <v>-52993393.69145103</v>
       </c>
       <c r="H105" t="n">
-        <v>4.248999999999993</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,36 +4335,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.28</v>
+        <v>4.24</v>
       </c>
       <c r="C106" t="n">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="D106" t="n">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="E106" t="n">
-        <v>4.28</v>
+        <v>4.24</v>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>37669.5522</v>
       </c>
       <c r="G106" t="n">
-        <v>4.267333333333331</v>
+        <v>-52993393.69145103</v>
       </c>
       <c r="H106" t="n">
-        <v>4.25016666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,24 +4386,25 @@
         <v>4.27</v>
       </c>
       <c r="F107" t="n">
-        <v>23460.5474</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>4.267999999999998</v>
+        <v>-52993383.69145103</v>
       </c>
       <c r="H107" t="n">
-        <v>4.250999999999993</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,36 +4413,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.32</v>
+        <v>4.25</v>
       </c>
       <c r="C108" t="n">
-        <v>4.32</v>
+        <v>4.25</v>
       </c>
       <c r="D108" t="n">
-        <v>4.32</v>
+        <v>4.25</v>
       </c>
       <c r="E108" t="n">
-        <v>4.32</v>
+        <v>4.25</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>14222.9581</v>
       </c>
       <c r="G108" t="n">
-        <v>4.269999999999998</v>
+        <v>-53007606.64955103</v>
       </c>
       <c r="H108" t="n">
-        <v>4.250833333333326</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,36 +4452,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="C109" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="D109" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="E109" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="F109" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>4.273333333333331</v>
+        <v>-53007596.64955103</v>
       </c>
       <c r="H109" t="n">
-        <v>4.25166666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,36 +4491,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.33</v>
+        <v>4.27</v>
       </c>
       <c r="C110" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="D110" t="n">
-        <v>4.33</v>
+        <v>4.27</v>
       </c>
       <c r="E110" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>16162.1794</v>
       </c>
       <c r="G110" t="n">
-        <v>4.277999999999997</v>
+        <v>-53023758.82895102</v>
       </c>
       <c r="H110" t="n">
-        <v>4.251666666666659</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,36 +4530,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="C111" t="n">
-        <v>4.27</v>
+        <v>4.19</v>
       </c>
       <c r="D111" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="E111" t="n">
-        <v>4.27</v>
+        <v>4.19</v>
       </c>
       <c r="F111" t="n">
-        <v>6075.6446</v>
+        <v>23635.3536</v>
       </c>
       <c r="G111" t="n">
-        <v>4.278666666666664</v>
+        <v>-53047394.18255103</v>
       </c>
       <c r="H111" t="n">
-        <v>4.252166666666659</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,36 +4569,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="C112" t="n">
-        <v>4.2</v>
+        <v>4.26</v>
       </c>
       <c r="D112" t="n">
         <v>4.26</v>
       </c>
       <c r="E112" t="n">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="F112" t="n">
-        <v>137132.9381</v>
+        <v>1059</v>
       </c>
       <c r="G112" t="n">
-        <v>4.274666666666663</v>
+        <v>-53046335.18255103</v>
       </c>
       <c r="H112" t="n">
-        <v>4.251499999999992</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4672,36 +4608,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="C113" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="D113" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="E113" t="n">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="F113" t="n">
         <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>4.276666666666663</v>
+        <v>-53046325.18255103</v>
       </c>
       <c r="H113" t="n">
-        <v>4.253166666666658</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,36 +4647,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.29</v>
+        <v>4.25</v>
       </c>
       <c r="C114" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="D114" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="E114" t="n">
-        <v>4.29</v>
+        <v>4.25</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" t="n">
-        <v>4.276666666666663</v>
+        <v>-53046345.18255103</v>
       </c>
       <c r="H114" t="n">
-        <v>4.254999999999992</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,36 +4686,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="C115" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="D115" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="E115" t="n">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="F115" t="n">
-        <v>30305.5143</v>
+        <v>100</v>
       </c>
       <c r="G115" t="n">
-        <v>4.279999999999997</v>
+        <v>-53046245.18255103</v>
       </c>
       <c r="H115" t="n">
-        <v>4.257166666666659</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,42 +4725,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.22</v>
+        <v>4.27</v>
       </c>
       <c r="C116" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="D116" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="E116" t="n">
-        <v>4.22</v>
+        <v>4.27</v>
       </c>
       <c r="F116" t="n">
-        <v>54</v>
+        <v>13142.47072318501</v>
       </c>
       <c r="G116" t="n">
-        <v>4.278666666666663</v>
+        <v>-53046245.18255103</v>
       </c>
       <c r="H116" t="n">
-        <v>4.257999999999992</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,42 +4764,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="C117" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="D117" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="E117" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>6804.4691</v>
       </c>
       <c r="G117" t="n">
-        <v>4.276666666666662</v>
+        <v>-53039440.71345103</v>
       </c>
       <c r="H117" t="n">
-        <v>4.258999999999991</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,42 +4803,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="C118" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="D118" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="E118" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>121545.3895032483</v>
       </c>
       <c r="G118" t="n">
-        <v>4.276666666666662</v>
+        <v>-52917895.32394778</v>
       </c>
       <c r="H118" t="n">
-        <v>4.259499999999992</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4918,42 +4842,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="C119" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="D119" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="E119" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="F119" t="n">
-        <v>16</v>
+        <v>167.7714</v>
       </c>
       <c r="G119" t="n">
-        <v>4.275999999999996</v>
+        <v>-52918063.09534778</v>
       </c>
       <c r="H119" t="n">
-        <v>4.259833333333325</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,42 +4881,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="C120" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="D120" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="E120" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="F120" t="n">
-        <v>253205.6223</v>
+        <v>2589.888</v>
       </c>
       <c r="G120" t="n">
-        <v>4.274666666666662</v>
+        <v>-52915473.20734778</v>
       </c>
       <c r="H120" t="n">
-        <v>4.260333333333326</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5006,42 +4920,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="C121" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="D121" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="E121" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="F121" t="n">
-        <v>30</v>
+        <v>26212.8075</v>
       </c>
       <c r="G121" t="n">
-        <v>4.271999999999995</v>
+        <v>-52915473.20734778</v>
       </c>
       <c r="H121" t="n">
-        <v>4.260833333333326</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,42 +4959,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="C122" t="n">
-        <v>4.28</v>
+        <v>4.29</v>
       </c>
       <c r="D122" t="n">
-        <v>4.28</v>
+        <v>4.29</v>
       </c>
       <c r="E122" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="F122" t="n">
-        <v>23364.4859</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>4.272666666666662</v>
+        <v>-52915463.20734778</v>
       </c>
       <c r="H122" t="n">
-        <v>4.261833333333326</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5094,42 +4998,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="C123" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="D123" t="n">
-        <v>4.27</v>
+        <v>4.29</v>
       </c>
       <c r="E123" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="F123" t="n">
-        <v>46</v>
+        <v>33.5244</v>
       </c>
       <c r="G123" t="n">
-        <v>4.269333333333329</v>
+        <v>-52915496.73174778</v>
       </c>
       <c r="H123" t="n">
-        <v>4.262666666666659</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,42 +5037,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="C124" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="D124" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="E124" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="F124" t="n">
-        <v>30</v>
+        <v>21000</v>
       </c>
       <c r="G124" t="n">
-        <v>4.267999999999996</v>
+        <v>-52915496.73174778</v>
       </c>
       <c r="H124" t="n">
-        <v>4.263499999999993</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5182,40 +5076,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="C125" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="D125" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="E125" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="F125" t="n">
-        <v>19.2129</v>
+        <v>35000</v>
       </c>
       <c r="G125" t="n">
-        <v>4.264666666666662</v>
+        <v>-52915496.73174778</v>
       </c>
       <c r="H125" t="n">
-        <v>4.264333333333325</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,40 +5115,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="C126" t="n">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="D126" t="n">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="E126" t="n">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v>2573.0333</v>
       </c>
       <c r="G126" t="n">
-        <v>4.266666666666663</v>
+        <v>-52915496.73174778</v>
       </c>
       <c r="H126" t="n">
-        <v>4.265499999999992</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5269,37 +5157,34 @@
         <v>4.26</v>
       </c>
       <c r="C127" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="D127" t="n">
         <v>4.26</v>
       </c>
       <c r="E127" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>33.2916</v>
       </c>
       <c r="G127" t="n">
-        <v>4.270666666666663</v>
+        <v>-52915530.02334778</v>
       </c>
       <c r="H127" t="n">
-        <v>4.265833333333325</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5320,28 +5205,25 @@
         <v>4.26</v>
       </c>
       <c r="F128" t="n">
-        <v>17383.4631</v>
+        <v>24236.0343</v>
       </c>
       <c r="G128" t="n">
-        <v>4.27133333333333</v>
+        <v>-52891293.98904778</v>
       </c>
       <c r="H128" t="n">
-        <v>4.26666666666666</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5350,40 +5232,1170 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F129" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-52902293.98904778</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F130" t="n">
+        <v>61887.6903</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-52902293.98904778</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11020</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-52891273.98904778</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F132" t="n">
+        <v>16792.901</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-52908066.89004778</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10547.2163</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-52897519.67374778</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15150.148</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-52912669.82174778</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C135" t="n">
         <v>4.29</v>
       </c>
-      <c r="C129" t="n">
+      <c r="D135" t="n">
         <v>4.29</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E135" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F135" t="n">
+        <v>20</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-52912649.82174778</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F136" t="n">
+        <v>23460.5474</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-52936110.36914778</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
         <v>4.29</v>
       </c>
-      <c r="E129" t="n">
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-52936100.36914778</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="F138" t="n">
+        <v>24</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-52936124.36914778</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-52936114.36914778</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6075.6446</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-52942190.01374777</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>137132.9381</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-53079322.95184778</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-53079312.95184778</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
         <v>4.29</v>
       </c>
-      <c r="F129" t="n">
+      <c r="C143" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F143" t="n">
         <v>10</v>
       </c>
-      <c r="G129" t="n">
-        <v>4.27133333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>4.267499999999993</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="G143" t="n">
+        <v>-53079302.95184778</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>30305.5143</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-53048997.43754777</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F145" t="n">
+        <v>54</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-53049051.43754777</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F146" t="n">
+        <v>20</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-53049031.43754777</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F147" t="n">
+        <v>20</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-53049011.43754777</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F148" t="n">
+        <v>16</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-53049011.43754777</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F149" t="n">
+        <v>253205.6223</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-53302217.05984777</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F150" t="n">
+        <v>30</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-53302187.05984777</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D151" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F151" t="n">
+        <v>23364.4859</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-53278822.57394777</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F152" t="n">
+        <v>46</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-53278868.57394777</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F153" t="n">
+        <v>30</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-53278838.57394777</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D154" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F154" t="n">
+        <v>19.2129</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-53278857.78684777</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-53278847.78684777</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-53278857.78684777</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F157" t="n">
+        <v>17383.4631</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-53261474.32374777</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-53261474.32374777</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest WET.xlsx
+++ b/BackTest/2019-10-27 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="C2" t="n">
-        <v>4.27</v>
+        <v>4.42</v>
       </c>
       <c r="D2" t="n">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="E2" t="n">
-        <v>4.27</v>
+        <v>4.42</v>
       </c>
       <c r="F2" t="n">
-        <v>1412.337</v>
+        <v>15721.3667</v>
       </c>
       <c r="G2" t="n">
-        <v>-21930059.65287422</v>
+        <v>4.426666666666669</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.26</v>
+        <v>4.42</v>
       </c>
       <c r="C3" t="n">
-        <v>4.26</v>
+        <v>4.41</v>
       </c>
       <c r="D3" t="n">
-        <v>4.26</v>
+        <v>4.42</v>
       </c>
       <c r="E3" t="n">
-        <v>4.26</v>
+        <v>4.41</v>
       </c>
       <c r="F3" t="n">
-        <v>157355.848</v>
+        <v>33464.7128</v>
       </c>
       <c r="G3" t="n">
-        <v>-22087415.50087423</v>
+        <v>4.420000000000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="C4" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="E4" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="F4" t="n">
-        <v>240</v>
+        <v>10353.7845</v>
       </c>
       <c r="G4" t="n">
-        <v>-22087655.50087423</v>
+        <v>4.410000000000004</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="E5" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="F5" t="n">
-        <v>87566.1974</v>
+        <v>17756.4427</v>
       </c>
       <c r="G5" t="n">
-        <v>-22087655.50087423</v>
+        <v>4.403333333333337</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.24</v>
+        <v>4.39</v>
       </c>
       <c r="C6" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="D6" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="E6" t="n">
-        <v>4.24</v>
+        <v>4.39</v>
       </c>
       <c r="F6" t="n">
-        <v>9196908.2903</v>
+        <v>9165.4172</v>
       </c>
       <c r="G6" t="n">
-        <v>-12890747.21057422</v>
+        <v>4.396666666666669</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="C7" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="D7" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="E7" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="F7" t="n">
-        <v>36700390.5311</v>
+        <v>3242.1393</v>
       </c>
       <c r="G7" t="n">
-        <v>-49591137.74167422</v>
+        <v>4.366666666666669</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="C8" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="D8" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="E8" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="F8" t="n">
-        <v>26706602.2129</v>
+        <v>8411.8055</v>
       </c>
       <c r="G8" t="n">
-        <v>-22884535.52877422</v>
+        <v>4.336666666666669</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.33</v>
+        <v>4.39</v>
       </c>
       <c r="C9" t="n">
-        <v>4.32</v>
+        <v>4.24</v>
       </c>
       <c r="D9" t="n">
-        <v>4.34</v>
+        <v>4.39</v>
       </c>
       <c r="E9" t="n">
-        <v>4.32</v>
+        <v>4.24</v>
       </c>
       <c r="F9" t="n">
-        <v>16829405.4576</v>
+        <v>249778.8062</v>
       </c>
       <c r="G9" t="n">
-        <v>-39713940.98637422</v>
+        <v>4.286666666666669</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.31</v>
+        <v>4.35</v>
       </c>
       <c r="C10" t="n">
-        <v>4.31</v>
+        <v>4.35</v>
       </c>
       <c r="D10" t="n">
-        <v>4.34</v>
+        <v>4.35</v>
       </c>
       <c r="E10" t="n">
-        <v>4.31</v>
+        <v>4.35</v>
       </c>
       <c r="F10" t="n">
-        <v>8802018</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>-48515958.98637422</v>
+        <v>4.300000000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="C11" t="n">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="D11" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="E11" t="n">
-        <v>4.34</v>
+        <v>4.33</v>
       </c>
       <c r="F11" t="n">
-        <v>7613482.6515</v>
+        <v>8923048.673800001</v>
       </c>
       <c r="G11" t="n">
-        <v>-40902476.33487422</v>
+        <v>4.320000000000004</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.27</v>
+        <v>4.37</v>
       </c>
       <c r="C12" t="n">
-        <v>4.27</v>
+        <v>4.34</v>
       </c>
       <c r="D12" t="n">
-        <v>4.27</v>
+        <v>4.37</v>
       </c>
       <c r="E12" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="F12" t="n">
-        <v>35.5374</v>
+        <v>45401174.0271</v>
       </c>
       <c r="G12" t="n">
-        <v>-40902511.87227422</v>
+        <v>4.353333333333337</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="C13" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="D13" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="E13" t="n">
-        <v>4.32</v>
+        <v>4.33</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>27847909.1798</v>
       </c>
       <c r="G13" t="n">
-        <v>-40902501.87227422</v>
+        <v>4.350000000000004</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,69 +863,65 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.31</v>
+        <v>4.34</v>
       </c>
       <c r="C14" t="n">
-        <v>4.32</v>
+        <v>4.36</v>
       </c>
       <c r="D14" t="n">
-        <v>4.32</v>
+        <v>4.36</v>
       </c>
       <c r="E14" t="n">
-        <v>4.31</v>
+        <v>4.33</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>17776675</v>
       </c>
       <c r="G14" t="n">
-        <v>-40902501.87227422</v>
+        <v>4.346666666666671</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.32</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="C15" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="D15" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="E15" t="n">
-        <v>4.32</v>
+        <v>4.34</v>
       </c>
       <c r="F15" t="n">
-        <v>50.2314</v>
+        <v>113941.8208</v>
       </c>
       <c r="G15" t="n">
-        <v>-40902501.87227422</v>
+        <v>4.346666666666671</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -919,36 +931,33 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="C16" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="D16" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="E16" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="F16" t="n">
-        <v>14972.2225</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>-40917474.09477422</v>
+        <v>4.320000000000004</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,36 +967,33 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29</v>
+        <v>4.33</v>
       </c>
       <c r="C17" t="n">
-        <v>4.29</v>
+        <v>4.33</v>
       </c>
       <c r="D17" t="n">
-        <v>4.29</v>
+        <v>4.33</v>
       </c>
       <c r="E17" t="n">
-        <v>4.29</v>
+        <v>4.33</v>
       </c>
       <c r="F17" t="n">
-        <v>6063.7501</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-40911410.34467421</v>
+        <v>4.310000000000005</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -997,36 +1003,33 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="C18" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="D18" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="E18" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="F18" t="n">
-        <v>7008.4506</v>
+        <v>7823975</v>
       </c>
       <c r="G18" t="n">
-        <v>-40904401.89407422</v>
+        <v>4.306666666666671</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1036,36 +1039,33 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="C19" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="D19" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="E19" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="F19" t="n">
-        <v>160.5628</v>
+        <v>35634441</v>
       </c>
       <c r="G19" t="n">
-        <v>-40904401.89407422</v>
+        <v>4.330000000000005</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,159 +1075,141 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.31</v>
+        <v>4.33</v>
       </c>
       <c r="C20" t="n">
-        <v>4.31</v>
+        <v>4.34</v>
       </c>
       <c r="D20" t="n">
-        <v>4.31</v>
+        <v>4.34</v>
       </c>
       <c r="E20" t="n">
-        <v>4.31</v>
+        <v>4.33</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>6758183.1105</v>
       </c>
       <c r="G20" t="n">
-        <v>-40904391.89407422</v>
+        <v>4.333333333333337</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>4.3</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="C21" t="n">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="D21" t="n">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="E21" t="n">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="F21" t="n">
-        <v>40227.9152</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-40904391.89407422</v>
+        <v>4.356666666666671</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.31</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.32</v>
+        <v>4.37</v>
       </c>
       <c r="C22" t="n">
-        <v>4.33</v>
+        <v>4.37</v>
       </c>
       <c r="D22" t="n">
-        <v>4.33</v>
+        <v>4.37</v>
       </c>
       <c r="E22" t="n">
-        <v>4.32</v>
+        <v>4.37</v>
       </c>
       <c r="F22" t="n">
-        <v>16818.8817</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>-40887573.01237421</v>
+        <v>4.370000000000004</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>4.31</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="C23" t="n">
-        <v>4.39</v>
+        <v>4.36</v>
       </c>
       <c r="D23" t="n">
-        <v>4.39</v>
+        <v>4.36</v>
       </c>
       <c r="E23" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="F23" t="n">
-        <v>98180.14659999999</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>-40789392.86577421</v>
+        <v>4.376666666666671</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1237,36 +1219,33 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.4</v>
+        <v>4.36</v>
       </c>
       <c r="C24" t="n">
-        <v>4.43</v>
+        <v>4.36</v>
       </c>
       <c r="D24" t="n">
-        <v>4.43</v>
+        <v>4.36</v>
       </c>
       <c r="E24" t="n">
-        <v>4.4</v>
+        <v>4.36</v>
       </c>
       <c r="F24" t="n">
-        <v>181550.6178</v>
+        <v>11382.2477</v>
       </c>
       <c r="G24" t="n">
-        <v>-40607842.24797422</v>
+        <v>4.363333333333338</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1276,36 +1255,33 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.44</v>
+        <v>4.26</v>
       </c>
       <c r="C25" t="n">
-        <v>4.44</v>
+        <v>4.25</v>
       </c>
       <c r="D25" t="n">
-        <v>4.44</v>
+        <v>4.26</v>
       </c>
       <c r="E25" t="n">
-        <v>4.44</v>
+        <v>4.25</v>
       </c>
       <c r="F25" t="n">
-        <v>27225.3901</v>
+        <v>43985.633</v>
       </c>
       <c r="G25" t="n">
-        <v>-40580616.85787421</v>
+        <v>4.323333333333337</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1315,36 +1291,33 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="C26" t="n">
-        <v>4.47</v>
+        <v>4.2</v>
       </c>
       <c r="D26" t="n">
-        <v>4.47</v>
+        <v>4.25</v>
       </c>
       <c r="E26" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="F26" t="n">
-        <v>29263.4588</v>
+        <v>502005.8841</v>
       </c>
       <c r="G26" t="n">
-        <v>-40551353.39907421</v>
+        <v>4.270000000000003</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1354,36 +1327,33 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.48</v>
+        <v>4.35</v>
       </c>
       <c r="C27" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="D27" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="E27" t="n">
-        <v>4.48</v>
+        <v>4.35</v>
       </c>
       <c r="F27" t="n">
-        <v>832261.368</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-39719092.03107421</v>
+        <v>4.26666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1393,36 +1363,33 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.52</v>
+        <v>4.21</v>
       </c>
       <c r="C28" t="n">
-        <v>4.5</v>
+        <v>4.21</v>
       </c>
       <c r="D28" t="n">
-        <v>4.52</v>
+        <v>4.21</v>
       </c>
       <c r="E28" t="n">
-        <v>4.5</v>
+        <v>4.21</v>
       </c>
       <c r="F28" t="n">
-        <v>12919.8832</v>
+        <v>724.0752</v>
       </c>
       <c r="G28" t="n">
-        <v>-39719092.03107421</v>
+        <v>4.253333333333337</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1432,36 +1399,33 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.5</v>
+        <v>4.21</v>
       </c>
       <c r="C29" t="n">
-        <v>4.52</v>
+        <v>4.2</v>
       </c>
       <c r="D29" t="n">
-        <v>4.52</v>
+        <v>4.21</v>
       </c>
       <c r="E29" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="F29" t="n">
-        <v>23.9469</v>
+        <v>8708.265299999999</v>
       </c>
       <c r="G29" t="n">
-        <v>-39719068.08417421</v>
+        <v>4.253333333333337</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1471,36 +1435,33 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.5</v>
+        <v>4.18</v>
       </c>
       <c r="C30" t="n">
-        <v>4.5</v>
+        <v>4.18</v>
       </c>
       <c r="D30" t="n">
-        <v>4.5</v>
+        <v>4.18</v>
       </c>
       <c r="E30" t="n">
-        <v>4.5</v>
+        <v>4.18</v>
       </c>
       <c r="F30" t="n">
-        <v>115000</v>
+        <v>444</v>
       </c>
       <c r="G30" t="n">
-        <v>-39834068.08417421</v>
+        <v>4.196666666666671</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1510,36 +1471,33 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.52</v>
+        <v>4.21</v>
       </c>
       <c r="C31" t="n">
-        <v>4.52</v>
+        <v>4.21</v>
       </c>
       <c r="D31" t="n">
-        <v>4.52</v>
+        <v>4.21</v>
       </c>
       <c r="E31" t="n">
-        <v>4.52</v>
+        <v>4.21</v>
       </c>
       <c r="F31" t="n">
-        <v>262.4557</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>-39833805.62847421</v>
+        <v>4.19666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1549,79 +1507,75 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.52</v>
+        <v>4.21</v>
       </c>
       <c r="C32" t="n">
-        <v>4.52</v>
+        <v>4.21</v>
       </c>
       <c r="D32" t="n">
-        <v>4.52</v>
+        <v>4.21</v>
       </c>
       <c r="E32" t="n">
-        <v>4.5</v>
+        <v>4.21</v>
       </c>
       <c r="F32" t="n">
-        <v>5548.783</v>
+        <v>434</v>
       </c>
       <c r="G32" t="n">
-        <v>-39833805.62847421</v>
+        <v>4.200000000000004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.5</v>
+        <v>4.22</v>
       </c>
       <c r="C33" t="n">
-        <v>4.5</v>
+        <v>4.22</v>
       </c>
       <c r="D33" t="n">
-        <v>4.5</v>
+        <v>4.22</v>
       </c>
       <c r="E33" t="n">
-        <v>4.5</v>
+        <v>4.22</v>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>-39838805.62847421</v>
+        <v>4.213333333333337</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1629,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.52</v>
+        <v>4.22</v>
       </c>
       <c r="C34" t="n">
-        <v>4.52</v>
+        <v>4.22</v>
       </c>
       <c r="D34" t="n">
-        <v>4.52</v>
+        <v>4.22</v>
       </c>
       <c r="E34" t="n">
-        <v>4.52</v>
+        <v>4.22</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>44369.9756</v>
       </c>
       <c r="G34" t="n">
-        <v>-39838705.62847421</v>
+        <v>4.216666666666669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1664,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="C35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="D35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="E35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="F35" t="n">
-        <v>7607.0804</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>-39846312.7088742</v>
+        <v>4.25666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1699,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.5</v>
+        <v>4.26</v>
       </c>
       <c r="C36" t="n">
-        <v>4.5</v>
+        <v>4.26</v>
       </c>
       <c r="D36" t="n">
-        <v>4.5</v>
+        <v>4.26</v>
       </c>
       <c r="E36" t="n">
-        <v>4.5</v>
+        <v>4.26</v>
       </c>
       <c r="F36" t="n">
-        <v>16666.6666</v>
+        <v>432.915</v>
       </c>
       <c r="G36" t="n">
-        <v>-39846312.7088742</v>
+        <v>4.270000000000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1734,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.47</v>
+        <v>4.33</v>
       </c>
       <c r="C37" t="n">
-        <v>4.47</v>
+        <v>4.33</v>
       </c>
       <c r="D37" t="n">
-        <v>4.47</v>
+        <v>4.33</v>
       </c>
       <c r="E37" t="n">
-        <v>4.47</v>
+        <v>4.33</v>
       </c>
       <c r="F37" t="n">
-        <v>107623.4899</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-39953936.1987742</v>
+        <v>4.306666666666669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1769,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.46</v>
+        <v>4.25</v>
       </c>
       <c r="C38" t="n">
-        <v>4.45</v>
+        <v>4.24</v>
       </c>
       <c r="D38" t="n">
-        <v>4.46</v>
+        <v>4.25</v>
       </c>
       <c r="E38" t="n">
-        <v>4.45</v>
+        <v>4.24</v>
       </c>
       <c r="F38" t="n">
-        <v>283479.674</v>
+        <v>58497.6353</v>
       </c>
       <c r="G38" t="n">
-        <v>-40237415.87277421</v>
+        <v>4.27666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1804,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.45</v>
+        <v>4.24</v>
       </c>
       <c r="C39" t="n">
-        <v>4.44</v>
+        <v>4.24</v>
       </c>
       <c r="D39" t="n">
-        <v>4.45</v>
+        <v>4.24</v>
       </c>
       <c r="E39" t="n">
-        <v>4.44</v>
+        <v>4.24</v>
       </c>
       <c r="F39" t="n">
-        <v>105783.2125</v>
+        <v>55437.9799</v>
       </c>
       <c r="G39" t="n">
-        <v>-40343199.0852742</v>
+        <v>4.270000000000004</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1839,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.48</v>
+        <v>4.18</v>
       </c>
       <c r="C40" t="n">
-        <v>4.44</v>
+        <v>4.18</v>
       </c>
       <c r="D40" t="n">
-        <v>4.48</v>
+        <v>4.18</v>
       </c>
       <c r="E40" t="n">
-        <v>4.44</v>
+        <v>4.18</v>
       </c>
       <c r="F40" t="n">
-        <v>27388.46744285714</v>
+        <v>9556</v>
       </c>
       <c r="G40" t="n">
-        <v>-40343199.0852742</v>
+        <v>4.220000000000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1874,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.43</v>
+        <v>4.18</v>
       </c>
       <c r="C41" t="n">
-        <v>4.43</v>
+        <v>4.18</v>
       </c>
       <c r="D41" t="n">
-        <v>4.43</v>
+        <v>4.18</v>
       </c>
       <c r="E41" t="n">
-        <v>4.43</v>
+        <v>4.18</v>
       </c>
       <c r="F41" t="n">
-        <v>15585.3027</v>
+        <v>6699.043</v>
       </c>
       <c r="G41" t="n">
-        <v>-40358784.3879742</v>
+        <v>4.200000000000004</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1909,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.43</v>
+        <v>4.18</v>
       </c>
       <c r="C42" t="n">
-        <v>4.43</v>
+        <v>4.18</v>
       </c>
       <c r="D42" t="n">
-        <v>4.43</v>
+        <v>4.18</v>
       </c>
       <c r="E42" t="n">
-        <v>4.43</v>
+        <v>4.18</v>
       </c>
       <c r="F42" t="n">
-        <v>21215.4814</v>
+        <v>1237.4155</v>
       </c>
       <c r="G42" t="n">
-        <v>-40358784.3879742</v>
+        <v>4.180000000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1944,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.43</v>
+        <v>4.19</v>
       </c>
       <c r="C43" t="n">
-        <v>4.43</v>
+        <v>4.19</v>
       </c>
       <c r="D43" t="n">
-        <v>4.43</v>
+        <v>4.19</v>
       </c>
       <c r="E43" t="n">
-        <v>4.43</v>
+        <v>4.19</v>
       </c>
       <c r="F43" t="n">
-        <v>8117.8242</v>
+        <v>4087.2315</v>
       </c>
       <c r="G43" t="n">
-        <v>-40358784.3879742</v>
+        <v>4.183333333333336</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1979,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.43</v>
+        <v>4.19</v>
       </c>
       <c r="C44" t="n">
-        <v>4.42</v>
+        <v>4.19</v>
       </c>
       <c r="D44" t="n">
-        <v>4.43</v>
+        <v>4.19</v>
       </c>
       <c r="E44" t="n">
-        <v>4.42</v>
+        <v>4.19</v>
       </c>
       <c r="F44" t="n">
-        <v>15721.3667</v>
+        <v>927.6264</v>
       </c>
       <c r="G44" t="n">
-        <v>-40374505.7546742</v>
+        <v>4.18666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2014,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.42</v>
+        <v>4.23</v>
       </c>
       <c r="C45" t="n">
-        <v>4.41</v>
+        <v>4.23</v>
       </c>
       <c r="D45" t="n">
-        <v>4.42</v>
+        <v>4.23</v>
       </c>
       <c r="E45" t="n">
-        <v>4.41</v>
+        <v>4.23</v>
       </c>
       <c r="F45" t="n">
-        <v>33464.7128</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>-40407970.46747421</v>
+        <v>4.203333333333337</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2049,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.4</v>
+        <v>4.24</v>
       </c>
       <c r="C46" t="n">
-        <v>4.4</v>
+        <v>4.24</v>
       </c>
       <c r="D46" t="n">
-        <v>4.4</v>
+        <v>4.24</v>
       </c>
       <c r="E46" t="n">
-        <v>4.4</v>
+        <v>4.24</v>
       </c>
       <c r="F46" t="n">
-        <v>10353.7845</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-40418324.25197421</v>
+        <v>4.220000000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2084,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.4</v>
+        <v>4.21</v>
       </c>
       <c r="C47" t="n">
-        <v>4.4</v>
+        <v>4.21</v>
       </c>
       <c r="D47" t="n">
-        <v>4.4</v>
+        <v>4.21</v>
       </c>
       <c r="E47" t="n">
-        <v>4.4</v>
+        <v>4.21</v>
       </c>
       <c r="F47" t="n">
-        <v>17756.4427</v>
+        <v>11993.6308</v>
       </c>
       <c r="G47" t="n">
-        <v>-40418324.25197421</v>
+        <v>4.226666666666669</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2119,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39</v>
+        <v>4.22</v>
       </c>
       <c r="C48" t="n">
-        <v>4.39</v>
+        <v>4.22</v>
       </c>
       <c r="D48" t="n">
-        <v>4.39</v>
+        <v>4.22</v>
       </c>
       <c r="E48" t="n">
-        <v>4.39</v>
+        <v>4.22</v>
       </c>
       <c r="F48" t="n">
-        <v>9165.4172</v>
+        <v>11397.5311</v>
       </c>
       <c r="G48" t="n">
-        <v>-40427489.66917421</v>
+        <v>4.223333333333335</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2154,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.31</v>
+        <v>4.22</v>
       </c>
       <c r="C49" t="n">
-        <v>4.31</v>
+        <v>4.22</v>
       </c>
       <c r="D49" t="n">
-        <v>4.39</v>
+        <v>4.22</v>
       </c>
       <c r="E49" t="n">
-        <v>4.31</v>
+        <v>4.22</v>
       </c>
       <c r="F49" t="n">
-        <v>3242.1393</v>
+        <v>71090.1309</v>
       </c>
       <c r="G49" t="n">
-        <v>-40430731.80847421</v>
+        <v>4.216666666666668</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2189,63 +2159,69 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.31</v>
+        <v>4.22</v>
       </c>
       <c r="C50" t="n">
-        <v>4.31</v>
+        <v>4.22</v>
       </c>
       <c r="D50" t="n">
-        <v>4.31</v>
+        <v>4.22</v>
       </c>
       <c r="E50" t="n">
-        <v>4.31</v>
+        <v>4.22</v>
       </c>
       <c r="F50" t="n">
-        <v>8411.8055</v>
+        <v>27333.1696</v>
       </c>
       <c r="G50" t="n">
-        <v>-40430731.80847421</v>
+        <v>4.220000000000002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.22</v>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.39</v>
+        <v>4.24</v>
       </c>
       <c r="C51" t="n">
         <v>4.24</v>
       </c>
       <c r="D51" t="n">
-        <v>4.39</v>
+        <v>4.24</v>
       </c>
       <c r="E51" t="n">
         <v>4.24</v>
       </c>
       <c r="F51" t="n">
-        <v>249778.8062</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>-40680510.61467421</v>
+        <v>4.226666666666669</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2254,68 +2230,84 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.35</v>
+        <v>4.23</v>
       </c>
       <c r="C52" t="n">
-        <v>4.35</v>
+        <v>4.23</v>
       </c>
       <c r="D52" t="n">
-        <v>4.35</v>
+        <v>4.23</v>
       </c>
       <c r="E52" t="n">
-        <v>4.35</v>
+        <v>4.23</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>11963.6467</v>
       </c>
       <c r="G52" t="n">
-        <v>-40680500.61467421</v>
+        <v>4.230000000000003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.33</v>
+        <v>4.23</v>
       </c>
       <c r="C53" t="n">
-        <v>4.37</v>
+        <v>4.23</v>
       </c>
       <c r="D53" t="n">
-        <v>4.37</v>
+        <v>4.23</v>
       </c>
       <c r="E53" t="n">
-        <v>4.33</v>
+        <v>4.23</v>
       </c>
       <c r="F53" t="n">
-        <v>8923048.673800001</v>
+        <v>2650</v>
       </c>
       <c r="G53" t="n">
-        <v>-31757451.94087421</v>
+        <v>4.233333333333337</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2329,28 +2321,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.37</v>
+        <v>4.24</v>
       </c>
       <c r="C54" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="D54" t="n">
-        <v>4.37</v>
+        <v>4.24</v>
       </c>
       <c r="E54" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="F54" t="n">
-        <v>45401174.0271</v>
+        <v>17134.9866</v>
       </c>
       <c r="G54" t="n">
-        <v>-77158625.96797422</v>
+        <v>4.233333333333337</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2364,168 +2357,197 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="C55" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="D55" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="E55" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="F55" t="n">
-        <v>27847909.1798</v>
+        <v>34610.5794</v>
       </c>
       <c r="G55" t="n">
-        <v>-77158625.96797422</v>
+        <v>4.236666666666671</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4.24</v>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="C56" t="n">
-        <v>4.36</v>
+        <v>4.24</v>
       </c>
       <c r="D56" t="n">
-        <v>4.36</v>
+        <v>4.24</v>
       </c>
       <c r="E56" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="F56" t="n">
-        <v>17776675</v>
+        <v>44080</v>
       </c>
       <c r="G56" t="n">
-        <v>-59381950.96797422</v>
+        <v>4.240000000000003</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="C57" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="D57" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="E57" t="n">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="F57" t="n">
-        <v>113941.8208</v>
+        <v>17806.3797</v>
       </c>
       <c r="G57" t="n">
-        <v>-59495892.78877421</v>
+        <v>4.240000000000003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="C58" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="D58" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="E58" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>207093.4117</v>
       </c>
       <c r="G58" t="n">
-        <v>-59495902.78877421</v>
+        <v>4.243333333333335</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4.24</v>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="C59" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="D59" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="E59" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>167871.7176</v>
       </c>
       <c r="G59" t="n">
-        <v>-59495892.78877421</v>
+        <v>4.250000000000002</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2534,47 +2556,54 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.26</v>
+        <v>4.25</v>
       </c>
       <c r="K59" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="L59" t="inlineStr"/>
+        <v>4.24</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="C60" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="D60" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="E60" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="F60" t="n">
-        <v>7823975</v>
+        <v>29411.5139</v>
       </c>
       <c r="G60" t="n">
-        <v>-59495892.78877421</v>
+        <v>4.256666666666669</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.26</v>
+      </c>
       <c r="K60" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2584,28 +2613,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="C61" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="D61" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="E61" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="F61" t="n">
-        <v>35634441</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-59495892.78877421</v>
+        <v>4.273333333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2614,39 +2644,34 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.33</v>
+        <v>4.27</v>
       </c>
       <c r="C62" t="n">
-        <v>4.34</v>
+        <v>4.27</v>
       </c>
       <c r="D62" t="n">
-        <v>4.34</v>
+        <v>4.27</v>
       </c>
       <c r="E62" t="n">
-        <v>4.33</v>
+        <v>4.27</v>
       </c>
       <c r="F62" t="n">
-        <v>6758183.1105</v>
+        <v>280.0936768149883</v>
       </c>
       <c r="G62" t="n">
-        <v>-52737709.67827421</v>
+        <v>4.276666666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2660,28 +2685,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.4</v>
+        <v>4.24</v>
       </c>
       <c r="C63" t="n">
-        <v>4.4</v>
+        <v>4.24</v>
       </c>
       <c r="D63" t="n">
-        <v>4.4</v>
+        <v>4.24</v>
       </c>
       <c r="E63" t="n">
-        <v>4.4</v>
+        <v>4.24</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>14577.1126</v>
       </c>
       <c r="G63" t="n">
-        <v>-52737699.67827421</v>
+        <v>4.270000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2695,168 +2721,197 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.37</v>
+        <v>4.24</v>
       </c>
       <c r="C64" t="n">
-        <v>4.37</v>
+        <v>4.24</v>
       </c>
       <c r="D64" t="n">
-        <v>4.37</v>
+        <v>4.24</v>
       </c>
       <c r="E64" t="n">
-        <v>4.37</v>
+        <v>4.24</v>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>37669.5522</v>
       </c>
       <c r="G64" t="n">
-        <v>-52737799.67827421</v>
+        <v>4.250000000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4.24</v>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.36</v>
+        <v>4.27</v>
       </c>
       <c r="C65" t="n">
-        <v>4.36</v>
+        <v>4.27</v>
       </c>
       <c r="D65" t="n">
-        <v>4.36</v>
+        <v>4.27</v>
       </c>
       <c r="E65" t="n">
-        <v>4.36</v>
+        <v>4.27</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>-52737899.67827421</v>
+        <v>4.250000000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.36</v>
+        <v>4.25</v>
       </c>
       <c r="C66" t="n">
-        <v>4.36</v>
+        <v>4.25</v>
       </c>
       <c r="D66" t="n">
-        <v>4.36</v>
+        <v>4.25</v>
       </c>
       <c r="E66" t="n">
-        <v>4.36</v>
+        <v>4.25</v>
       </c>
       <c r="F66" t="n">
-        <v>11382.2477</v>
+        <v>14222.9581</v>
       </c>
       <c r="G66" t="n">
-        <v>-52737899.67827421</v>
+        <v>4.253333333333335</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="C67" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="D67" t="n">
-        <v>4.26</v>
+        <v>4.27</v>
       </c>
       <c r="E67" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="F67" t="n">
-        <v>43985.633</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>-52781885.31127422</v>
+        <v>4.263333333333334</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="C68" t="n">
-        <v>4.2</v>
+        <v>4.24</v>
       </c>
       <c r="D68" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="E68" t="n">
-        <v>4.2</v>
+        <v>4.24</v>
       </c>
       <c r="F68" t="n">
-        <v>502005.8841</v>
+        <v>16162.1794</v>
       </c>
       <c r="G68" t="n">
-        <v>-53283891.19537421</v>
+        <v>4.253333333333334</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -2865,9 +2920,11 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+        <v>4.27</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2876,28 +2933,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.35</v>
+        <v>4.24</v>
       </c>
       <c r="C69" t="n">
-        <v>4.35</v>
+        <v>4.19</v>
       </c>
       <c r="D69" t="n">
-        <v>4.35</v>
+        <v>4.24</v>
       </c>
       <c r="E69" t="n">
-        <v>4.35</v>
+        <v>4.19</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>23635.3536</v>
       </c>
       <c r="G69" t="n">
-        <v>-53283881.19537421</v>
+        <v>4.233333333333334</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -2906,9 +2964,11 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+        <v>4.24</v>
+      </c>
+      <c r="K69" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2917,39 +2977,40 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="C70" t="n">
-        <v>4.21</v>
+        <v>4.26</v>
       </c>
       <c r="D70" t="n">
-        <v>4.21</v>
+        <v>4.26</v>
       </c>
       <c r="E70" t="n">
         <v>4.21</v>
       </c>
       <c r="F70" t="n">
-        <v>724.0752</v>
+        <v>1059</v>
       </c>
       <c r="G70" t="n">
-        <v>-53284605.27057421</v>
+        <v>4.23</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2958,28 +3019,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="C71" t="n">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="D71" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="E71" t="n">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="F71" t="n">
-        <v>8708.265299999999</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>-53293313.53587421</v>
+        <v>4.24</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2988,7 +3050,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2997,28 +3061,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.18</v>
+        <v>4.25</v>
       </c>
       <c r="C72" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="D72" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="E72" t="n">
-        <v>4.18</v>
+        <v>4.25</v>
       </c>
       <c r="F72" t="n">
-        <v>444</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>-53293757.53587421</v>
+        <v>4.263333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3027,7 +3092,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3036,28 +3103,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="C73" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="D73" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="E73" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>-53293747.53587421</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3066,7 +3134,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3075,28 +3145,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="C74" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="D74" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="E74" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="F74" t="n">
-        <v>434</v>
+        <v>13142.47072318501</v>
       </c>
       <c r="G74" t="n">
-        <v>-53293747.53587421</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3105,7 +3176,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,39 +3187,40 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.22</v>
+        <v>4.27</v>
       </c>
       <c r="C75" t="n">
-        <v>4.22</v>
+        <v>4.28</v>
       </c>
       <c r="D75" t="n">
-        <v>4.22</v>
+        <v>4.28</v>
       </c>
       <c r="E75" t="n">
-        <v>4.22</v>
+        <v>4.27</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>6804.4691</v>
       </c>
       <c r="G75" t="n">
-        <v>-53293737.53587421</v>
+        <v>4.273333333333334</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,28 +3229,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.22</v>
+        <v>4.28</v>
       </c>
       <c r="C76" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="D76" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="E76" t="n">
-        <v>4.22</v>
+        <v>4.28</v>
       </c>
       <c r="F76" t="n">
-        <v>44369.9756</v>
+        <v>121545.3895032483</v>
       </c>
       <c r="G76" t="n">
-        <v>-53293737.53587421</v>
+        <v>4.286666666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3185,7 +3260,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3194,28 +3271,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="C77" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="D77" t="n">
-        <v>4.33</v>
+        <v>4.31</v>
       </c>
       <c r="E77" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>167.7714</v>
       </c>
       <c r="G77" t="n">
-        <v>-53293727.53587421</v>
+        <v>4.276666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3224,7 +3302,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3233,6 +3313,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3251,10 +3332,10 @@
         <v>4.26</v>
       </c>
       <c r="F78" t="n">
-        <v>432.915</v>
+        <v>2589.888</v>
       </c>
       <c r="G78" t="n">
-        <v>-53294160.45087421</v>
+        <v>4.27</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3263,7 +3344,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,28 +3355,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="C79" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="D79" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="E79" t="n">
-        <v>4.33</v>
+        <v>4.26</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>26212.8075</v>
       </c>
       <c r="G79" t="n">
-        <v>-53294150.45087421</v>
+        <v>4.253333333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3302,7 +3386,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3311,28 +3397,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="C80" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="D80" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="E80" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="F80" t="n">
-        <v>58497.6353</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>-53352648.08617421</v>
+        <v>4.27</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3341,7 +3428,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3350,28 +3439,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="C81" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="D81" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="E81" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="F81" t="n">
-        <v>55437.9799</v>
+        <v>33.5244</v>
       </c>
       <c r="G81" t="n">
-        <v>-53352648.08617421</v>
+        <v>4.27</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3380,7 +3470,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3389,28 +3481,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="C82" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="D82" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="E82" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="F82" t="n">
-        <v>9556</v>
+        <v>21000</v>
       </c>
       <c r="G82" t="n">
-        <v>-53362204.08617421</v>
+        <v>4.27</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3419,7 +3512,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3428,28 +3523,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="C83" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="D83" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="E83" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="F83" t="n">
-        <v>6699.043</v>
+        <v>35000</v>
       </c>
       <c r="G83" t="n">
-        <v>-53362204.08617421</v>
+        <v>4.260000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3458,7 +3554,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3467,28 +3565,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="C84" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="D84" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="E84" t="n">
-        <v>4.18</v>
+        <v>4.26</v>
       </c>
       <c r="F84" t="n">
-        <v>1237.4155</v>
+        <v>2573.0333</v>
       </c>
       <c r="G84" t="n">
-        <v>-53362204.08617421</v>
+        <v>4.26</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3497,7 +3596,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3506,28 +3607,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.19</v>
+        <v>4.26</v>
       </c>
       <c r="C85" t="n">
-        <v>4.19</v>
+        <v>4.25</v>
       </c>
       <c r="D85" t="n">
-        <v>4.19</v>
+        <v>4.26</v>
       </c>
       <c r="E85" t="n">
-        <v>4.19</v>
+        <v>4.25</v>
       </c>
       <c r="F85" t="n">
-        <v>4087.2315</v>
+        <v>33.2916</v>
       </c>
       <c r="G85" t="n">
-        <v>-53358116.85467421</v>
+        <v>4.256666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3536,7 +3638,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3545,28 +3649,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.19</v>
+        <v>4.26</v>
       </c>
       <c r="C86" t="n">
-        <v>4.19</v>
+        <v>4.29</v>
       </c>
       <c r="D86" t="n">
-        <v>4.19</v>
+        <v>4.29</v>
       </c>
       <c r="E86" t="n">
-        <v>4.19</v>
+        <v>4.26</v>
       </c>
       <c r="F86" t="n">
-        <v>927.6264</v>
+        <v>24236.0343</v>
       </c>
       <c r="G86" t="n">
-        <v>-53358116.85467421</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3575,7 +3680,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3584,39 +3691,40 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="C87" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="D87" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="E87" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>11000</v>
       </c>
       <c r="G87" t="n">
-        <v>-53358106.85467421</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3625,39 +3733,40 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="C88" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="D88" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="E88" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>61887.6903</v>
       </c>
       <c r="G88" t="n">
-        <v>-53358096.85467421</v>
+        <v>4.27</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3666,28 +3775,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.21</v>
+        <v>4.28</v>
       </c>
       <c r="C89" t="n">
-        <v>4.21</v>
+        <v>4.28</v>
       </c>
       <c r="D89" t="n">
-        <v>4.21</v>
+        <v>4.28</v>
       </c>
       <c r="E89" t="n">
-        <v>4.21</v>
+        <v>4.28</v>
       </c>
       <c r="F89" t="n">
-        <v>11993.6308</v>
+        <v>11020</v>
       </c>
       <c r="G89" t="n">
-        <v>-53370090.48547421</v>
+        <v>4.266666666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3696,7 +3806,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3705,28 +3817,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="C90" t="n">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="D90" t="n">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="E90" t="n">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="F90" t="n">
-        <v>11397.5311</v>
+        <v>16792.901</v>
       </c>
       <c r="G90" t="n">
-        <v>-53358692.95437422</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3735,7 +3848,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3744,28 +3859,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.22</v>
+        <v>4.27</v>
       </c>
       <c r="C91" t="n">
-        <v>4.22</v>
+        <v>4.27</v>
       </c>
       <c r="D91" t="n">
-        <v>4.22</v>
+        <v>4.27</v>
       </c>
       <c r="E91" t="n">
-        <v>4.22</v>
+        <v>4.27</v>
       </c>
       <c r="F91" t="n">
-        <v>71090.1309</v>
+        <v>10547.2163</v>
       </c>
       <c r="G91" t="n">
-        <v>-53358692.95437422</v>
+        <v>4.27</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3774,7 +3890,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3783,28 +3901,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="C92" t="n">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="D92" t="n">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="E92" t="n">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="F92" t="n">
-        <v>27333.1696</v>
+        <v>15150.148</v>
       </c>
       <c r="G92" t="n">
-        <v>-53358692.95437422</v>
+        <v>4.263333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3813,7 +3932,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3822,28 +3943,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.24</v>
+        <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="D93" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="E93" t="n">
-        <v>4.24</v>
+        <v>4.28</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G93" t="n">
-        <v>-53358682.95437422</v>
+        <v>4.273333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3852,7 +3974,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3861,28 +3985,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.23</v>
+        <v>4.27</v>
       </c>
       <c r="C94" t="n">
-        <v>4.23</v>
+        <v>4.27</v>
       </c>
       <c r="D94" t="n">
-        <v>4.23</v>
+        <v>4.27</v>
       </c>
       <c r="E94" t="n">
-        <v>4.23</v>
+        <v>4.27</v>
       </c>
       <c r="F94" t="n">
-        <v>11963.6467</v>
+        <v>23460.5474</v>
       </c>
       <c r="G94" t="n">
-        <v>-53370646.60107422</v>
+        <v>4.273333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3891,7 +4016,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3900,28 +4027,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.23</v>
+        <v>4.32</v>
       </c>
       <c r="C95" t="n">
-        <v>4.23</v>
+        <v>4.32</v>
       </c>
       <c r="D95" t="n">
-        <v>4.23</v>
+        <v>4.32</v>
       </c>
       <c r="E95" t="n">
-        <v>4.23</v>
+        <v>4.32</v>
       </c>
       <c r="F95" t="n">
-        <v>2650</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-53370646.60107422</v>
+        <v>4.293333333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3930,7 +4058,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3939,28 +4069,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="C96" t="n">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="D96" t="n">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="E96" t="n">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="F96" t="n">
-        <v>17134.9866</v>
+        <v>24</v>
       </c>
       <c r="G96" t="n">
-        <v>-53353511.61447422</v>
+        <v>4.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3969,7 +4100,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3978,28 +4111,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="C97" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="D97" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="E97" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="F97" t="n">
-        <v>34610.5794</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>-53353511.61447422</v>
+        <v>4.319999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4008,7 +4142,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4017,28 +4153,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="C98" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="D98" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="E98" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="F98" t="n">
-        <v>44080</v>
+        <v>6075.6446</v>
       </c>
       <c r="G98" t="n">
-        <v>-53353511.61447422</v>
+        <v>4.303333333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4047,7 +4184,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4056,28 +4195,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="C99" t="n">
-        <v>4.24</v>
+        <v>4.2</v>
       </c>
       <c r="D99" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="E99" t="n">
-        <v>4.24</v>
+        <v>4.2</v>
       </c>
       <c r="F99" t="n">
-        <v>17806.3797</v>
+        <v>137132.9381</v>
       </c>
       <c r="G99" t="n">
-        <v>-53353511.61447422</v>
+        <v>4.266666666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4086,7 +4226,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4095,28 +4237,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="C100" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="D100" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="E100" t="n">
-        <v>4.25</v>
+        <v>4.28</v>
       </c>
       <c r="F100" t="n">
-        <v>207093.4117</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>-53146418.20277422</v>
+        <v>4.249999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4125,7 +4268,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,28 +4279,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="C101" t="n">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
       <c r="D101" t="n">
-        <v>4.26</v>
+        <v>4.29</v>
       </c>
       <c r="E101" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="F101" t="n">
-        <v>167871.7176</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-52978546.48517422</v>
+        <v>4.256666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4164,7 +4310,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4173,28 +4321,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.26</v>
+        <v>4.3</v>
       </c>
       <c r="C102" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="D102" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="E102" t="n">
-        <v>4.26</v>
+        <v>4.3</v>
       </c>
       <c r="F102" t="n">
-        <v>29411.5139</v>
+        <v>30305.5143</v>
       </c>
       <c r="G102" t="n">
-        <v>-52978546.48517422</v>
+        <v>4.293333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4203,7 +4352,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4212,28 +4363,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.3</v>
+        <v>4.22</v>
       </c>
       <c r="C103" t="n">
-        <v>4.3</v>
+        <v>4.24</v>
       </c>
       <c r="D103" t="n">
-        <v>4.3</v>
+        <v>4.24</v>
       </c>
       <c r="E103" t="n">
-        <v>4.3</v>
+        <v>4.22</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G103" t="n">
-        <v>-52978536.48517422</v>
+        <v>4.279999999999998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4242,7 +4394,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,28 +4405,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="C104" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="D104" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="E104" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="F104" t="n">
-        <v>280.0936768149883</v>
+        <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>-52978816.57885103</v>
+        <v>4.266666666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4281,7 +4436,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,28 +4447,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="C105" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="D105" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="E105" t="n">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="F105" t="n">
-        <v>14577.1126</v>
+        <v>20</v>
       </c>
       <c r="G105" t="n">
-        <v>-52993393.69145103</v>
+        <v>4.249999999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4320,7 +4478,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4329,28 +4489,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="C106" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="D106" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="E106" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="F106" t="n">
-        <v>37669.5522</v>
+        <v>16</v>
       </c>
       <c r="G106" t="n">
-        <v>-52993393.69145103</v>
+        <v>4.256666666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4359,7 +4520,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4368,28 +4531,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.27</v>
+        <v>4.23</v>
       </c>
       <c r="C107" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="D107" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="E107" t="n">
-        <v>4.27</v>
+        <v>4.23</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>253205.6223</v>
       </c>
       <c r="G107" t="n">
-        <v>-52993383.69145103</v>
+        <v>4.253333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4398,7 +4562,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,6 +4573,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4422,13 +4589,13 @@
         <v>4.25</v>
       </c>
       <c r="E108" t="n">
-        <v>4.25</v>
+        <v>4.23</v>
       </c>
       <c r="F108" t="n">
-        <v>14222.9581</v>
+        <v>30</v>
       </c>
       <c r="G108" t="n">
-        <v>-53007606.64955103</v>
+        <v>4.249999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4437,7 +4604,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,28 +4615,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="C109" t="n">
-        <v>4.27</v>
+        <v>4.28</v>
       </c>
       <c r="D109" t="n">
-        <v>4.27</v>
+        <v>4.28</v>
       </c>
       <c r="E109" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>23364.4859</v>
       </c>
       <c r="G109" t="n">
-        <v>-53007596.64955103</v>
+        <v>4.256666666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4476,7 +4646,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4485,28 +4657,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="C110" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="D110" t="n">
         <v>4.27</v>
       </c>
       <c r="E110" t="n">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="F110" t="n">
-        <v>16162.1794</v>
+        <v>46</v>
       </c>
       <c r="G110" t="n">
-        <v>-53023758.82895102</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4515,7 +4688,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4524,28 +4699,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="C111" t="n">
-        <v>4.19</v>
+        <v>4.29</v>
       </c>
       <c r="D111" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="E111" t="n">
-        <v>4.19</v>
+        <v>4.27</v>
       </c>
       <c r="F111" t="n">
-        <v>23635.3536</v>
+        <v>30</v>
       </c>
       <c r="G111" t="n">
-        <v>-53047394.18255103</v>
+        <v>4.28</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4554,7 +4730,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4563,28 +4741,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.25</v>
+        <v>4.27</v>
       </c>
       <c r="C112" t="n">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="D112" t="n">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="E112" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="F112" t="n">
-        <v>1059</v>
+        <v>19.2129</v>
       </c>
       <c r="G112" t="n">
-        <v>-53046335.18255103</v>
+        <v>4.28</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4593,7 +4772,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4602,28 +4783,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
       <c r="C113" t="n">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
       <c r="D113" t="n">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
       <c r="E113" t="n">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
       <c r="F113" t="n">
         <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>-53046325.18255103</v>
+        <v>4.29</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4632,7 +4814,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4641,13 +4825,14 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="C114" t="n">
         <v>4.26</v>
@@ -4656,13 +4841,13 @@
         <v>4.26</v>
       </c>
       <c r="E114" t="n">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>-53046345.18255103</v>
+        <v>4.280000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4671,7 +4856,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4680,28 +4867,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="C115" t="n">
-        <v>4.27</v>
+        <v>4.29</v>
       </c>
       <c r="D115" t="n">
-        <v>4.27</v>
+        <v>4.29</v>
       </c>
       <c r="E115" t="n">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="F115" t="n">
-        <v>100</v>
+        <v>17383.4631</v>
       </c>
       <c r="G115" t="n">
-        <v>-53046245.18255103</v>
+        <v>4.283333333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4710,7 +4898,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,37 +4909,42 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.27</v>
+        <v>4.29</v>
       </c>
       <c r="C116" t="n">
-        <v>4.27</v>
+        <v>4.29</v>
       </c>
       <c r="D116" t="n">
-        <v>4.27</v>
+        <v>4.29</v>
       </c>
       <c r="E116" t="n">
-        <v>4.27</v>
+        <v>4.29</v>
       </c>
       <c r="F116" t="n">
-        <v>13142.47072318501</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>-53046245.18255103</v>
+        <v>4.28</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="K116" t="n">
+        <v>4.25</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4758,1646 +4953,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="E117" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="F117" t="n">
-        <v>6804.4691</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-53039440.71345103</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C118" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="E118" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F118" t="n">
-        <v>121545.3895032483</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-52917895.32394778</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C119" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="D119" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="E119" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F119" t="n">
-        <v>167.7714</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-52918063.09534778</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C120" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D120" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E120" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2589.888</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-52915473.20734778</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C121" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E121" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F121" t="n">
-        <v>26212.8075</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-52915473.20734778</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="D122" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="E122" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="F122" t="n">
-        <v>10</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-52915463.20734778</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D123" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F123" t="n">
-        <v>33.5244</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-52915496.73174778</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F124" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-52915496.73174778</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F125" t="n">
-        <v>35000</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-52915496.73174778</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D126" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E126" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2573.0333</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-52915496.73174778</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C127" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D127" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F127" t="n">
-        <v>33.2916</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-52915530.02334778</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="D128" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="E128" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F128" t="n">
-        <v>24236.0343</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-52891293.98904778</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E129" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F129" t="n">
-        <v>11000</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-52902293.98904778</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D130" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E130" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F130" t="n">
-        <v>61887.6903</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-52902293.98904778</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D131" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="E131" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F131" t="n">
-        <v>11020</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-52891273.98904778</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C132" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D132" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F132" t="n">
-        <v>16792.901</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-52908066.89004778</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10547.2163</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-52897519.67374778</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C134" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D134" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E134" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F134" t="n">
-        <v>15150.148</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-52912669.82174778</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C135" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="D135" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="E135" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F135" t="n">
-        <v>20</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-52912649.82174778</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C136" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="D136" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="E136" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="F136" t="n">
-        <v>23460.5474</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-52936110.36914778</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C137" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D137" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="E137" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F137" t="n">
-        <v>10</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-52936100.36914778</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C138" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="D138" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="E138" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="F138" t="n">
-        <v>24</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-52936124.36914778</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C139" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="D139" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E139" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F139" t="n">
-        <v>10</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-52936114.36914778</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="D140" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="E140" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="F140" t="n">
-        <v>6075.6446</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-52942190.01374777</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C141" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="D141" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E141" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F141" t="n">
-        <v>137132.9381</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-53079322.95184778</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C142" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D142" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="E142" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F142" t="n">
-        <v>10</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-53079312.95184778</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C143" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="D143" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="E143" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="F143" t="n">
-        <v>10</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-53079302.95184778</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C144" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="D144" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="E144" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F144" t="n">
-        <v>30305.5143</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-53048997.43754777</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C145" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="D145" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="E145" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="F145" t="n">
-        <v>54</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-53049051.43754777</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C146" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D146" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E146" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F146" t="n">
-        <v>20</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-53049031.43754777</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C147" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D147" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E147" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F147" t="n">
-        <v>20</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-53049011.43754777</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C148" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D148" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E148" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F148" t="n">
-        <v>16</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-53049011.43754777</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C149" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="D149" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="E149" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="F149" t="n">
-        <v>253205.6223</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-53302217.05984777</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C150" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D150" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E150" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="F150" t="n">
-        <v>30</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-53302187.05984777</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C151" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D151" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="E151" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F151" t="n">
-        <v>23364.4859</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-53278822.57394777</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C152" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="D152" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="E152" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F152" t="n">
-        <v>46</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-53278868.57394777</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C153" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="D153" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="E153" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="F153" t="n">
-        <v>30</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-53278838.57394777</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C154" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D154" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="E154" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="F154" t="n">
-        <v>19.2129</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-53278857.78684777</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C155" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D155" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E155" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F155" t="n">
-        <v>10</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-53278847.78684777</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C156" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D156" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E156" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F156" t="n">
-        <v>10</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-53278857.78684777</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C157" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="D157" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="E157" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F157" t="n">
-        <v>17383.4631</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-53261474.32374777</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C158" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="D158" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="E158" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="F158" t="n">
-        <v>10</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-53261474.32374777</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest WET.xlsx
+++ b/BackTest/2019-10-27 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.43</v>
+        <v>4.23</v>
       </c>
       <c r="C2" t="n">
-        <v>4.42</v>
+        <v>4.23</v>
       </c>
       <c r="D2" t="n">
-        <v>4.43</v>
+        <v>4.23</v>
       </c>
       <c r="E2" t="n">
-        <v>4.42</v>
+        <v>4.23</v>
       </c>
       <c r="F2" t="n">
-        <v>15721.3667</v>
+        <v>9767237.569700001</v>
       </c>
       <c r="G2" t="n">
-        <v>4.426666666666669</v>
+        <v>-20839085.38417422</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.42</v>
+        <v>4.23</v>
       </c>
       <c r="C3" t="n">
-        <v>4.41</v>
+        <v>4.23</v>
       </c>
       <c r="D3" t="n">
-        <v>4.42</v>
+        <v>4.23</v>
       </c>
       <c r="E3" t="n">
-        <v>4.41</v>
+        <v>4.23</v>
       </c>
       <c r="F3" t="n">
-        <v>33464.7128</v>
+        <v>9391574.586200001</v>
       </c>
       <c r="G3" t="n">
-        <v>4.420000000000003</v>
+        <v>-20839085.38417422</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.4</v>
+        <v>4.23</v>
       </c>
       <c r="C4" t="n">
-        <v>4.4</v>
+        <v>4.23</v>
       </c>
       <c r="D4" t="n">
-        <v>4.4</v>
+        <v>4.23</v>
       </c>
       <c r="E4" t="n">
-        <v>4.4</v>
+        <v>4.23</v>
       </c>
       <c r="F4" t="n">
-        <v>10353.7845</v>
+        <v>9015911.6028</v>
       </c>
       <c r="G4" t="n">
-        <v>4.410000000000004</v>
+        <v>-20839085.38417422</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.4</v>
+        <v>4.23</v>
       </c>
       <c r="C5" t="n">
-        <v>4.4</v>
+        <v>4.23</v>
       </c>
       <c r="D5" t="n">
-        <v>4.4</v>
+        <v>4.23</v>
       </c>
       <c r="E5" t="n">
-        <v>4.4</v>
+        <v>4.23</v>
       </c>
       <c r="F5" t="n">
-        <v>17756.4427</v>
+        <v>9767237.569700001</v>
       </c>
       <c r="G5" t="n">
-        <v>4.403333333333337</v>
+        <v>-20839085.38417422</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.39</v>
+        <v>4.23</v>
       </c>
       <c r="C6" t="n">
-        <v>4.39</v>
+        <v>4.23</v>
       </c>
       <c r="D6" t="n">
-        <v>4.39</v>
+        <v>4.23</v>
       </c>
       <c r="E6" t="n">
-        <v>4.39</v>
+        <v>4.23</v>
       </c>
       <c r="F6" t="n">
-        <v>9165.4172</v>
+        <v>9767237.569700001</v>
       </c>
       <c r="G6" t="n">
-        <v>4.396666666666669</v>
+        <v>-20839085.38417422</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.31</v>
+        <v>4.23</v>
       </c>
       <c r="C7" t="n">
-        <v>4.31</v>
+        <v>4.23</v>
       </c>
       <c r="D7" t="n">
-        <v>4.39</v>
+        <v>4.23</v>
       </c>
       <c r="E7" t="n">
-        <v>4.31</v>
+        <v>4.23</v>
       </c>
       <c r="F7" t="n">
-        <v>3242.1393</v>
+        <v>9015911.6028</v>
       </c>
       <c r="G7" t="n">
-        <v>4.366666666666669</v>
+        <v>-20839085.38417422</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.31</v>
+        <v>4.24</v>
       </c>
       <c r="C8" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="D8" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="E8" t="n">
-        <v>4.31</v>
+        <v>4.24</v>
       </c>
       <c r="F8" t="n">
-        <v>8411.8055</v>
+        <v>434338.8248</v>
       </c>
       <c r="G8" t="n">
-        <v>4.336666666666669</v>
+        <v>-20404746.55937422</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.39</v>
+        <v>4.27</v>
       </c>
       <c r="C9" t="n">
-        <v>4.24</v>
+        <v>4.37</v>
       </c>
       <c r="D9" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="E9" t="n">
-        <v>4.24</v>
+        <v>4.27</v>
       </c>
       <c r="F9" t="n">
-        <v>249778.8062</v>
+        <v>246500</v>
       </c>
       <c r="G9" t="n">
-        <v>4.286666666666669</v>
+        <v>-20158246.55937422</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="C10" t="n">
-        <v>4.35</v>
+        <v>4.43</v>
       </c>
       <c r="D10" t="n">
-        <v>4.35</v>
+        <v>4.43</v>
       </c>
       <c r="E10" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>28500</v>
       </c>
       <c r="G10" t="n">
-        <v>4.300000000000003</v>
+        <v>-20129746.55937422</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.33</v>
+        <v>4.43</v>
       </c>
       <c r="C11" t="n">
-        <v>4.37</v>
+        <v>4.43</v>
       </c>
       <c r="D11" t="n">
-        <v>4.37</v>
+        <v>4.43</v>
       </c>
       <c r="E11" t="n">
-        <v>4.33</v>
+        <v>4.29</v>
       </c>
       <c r="F11" t="n">
-        <v>8923048.673800001</v>
+        <v>14025</v>
       </c>
       <c r="G11" t="n">
-        <v>4.320000000000004</v>
+        <v>-20129746.55937422</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E12" t="n">
         <v>4.37</v>
       </c>
-      <c r="C12" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.33</v>
-      </c>
       <c r="F12" t="n">
-        <v>45401174.0271</v>
+        <v>40077</v>
       </c>
       <c r="G12" t="n">
-        <v>4.353333333333337</v>
+        <v>-20169823.55937422</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E13" t="n">
         <v>4.34</v>
       </c>
-      <c r="C13" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.33</v>
-      </c>
       <c r="F13" t="n">
-        <v>27847909.1798</v>
+        <v>235485.298</v>
       </c>
       <c r="G13" t="n">
-        <v>4.350000000000004</v>
+        <v>-20405308.85737422</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E14" t="n">
         <v>4.34</v>
       </c>
-      <c r="C14" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.33</v>
-      </c>
       <c r="F14" t="n">
-        <v>17776675</v>
+        <v>14632.9085</v>
       </c>
       <c r="G14" t="n">
-        <v>4.346666666666671</v>
+        <v>-20419941.76587422</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>4.34</v>
       </c>
       <c r="C15" t="n">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="D15" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="E15" t="n">
         <v>4.34</v>
       </c>
       <c r="F15" t="n">
-        <v>113941.8208</v>
+        <v>8871</v>
       </c>
       <c r="G15" t="n">
-        <v>4.346666666666671</v>
+        <v>-20428812.76587422</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.26</v>
+        <v>4.36</v>
       </c>
       <c r="C16" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="D16" t="n">
-        <v>4.26</v>
+        <v>4.36</v>
       </c>
       <c r="E16" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>111968.3227</v>
       </c>
       <c r="G16" t="n">
-        <v>4.320000000000004</v>
+        <v>-20540781.08857422</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="C17" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="D17" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="E17" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G17" t="n">
-        <v>4.310000000000005</v>
+        <v>-20540726.08857422</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.33</v>
+        <v>4.34</v>
       </c>
       <c r="C18" t="n">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
       <c r="D18" t="n">
-        <v>4.33</v>
+        <v>4.34</v>
       </c>
       <c r="E18" t="n">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
       <c r="F18" t="n">
-        <v>7823975</v>
+        <v>99751.7175</v>
       </c>
       <c r="G18" t="n">
-        <v>4.306666666666671</v>
+        <v>-20640477.80607422</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.33</v>
+        <v>4.36</v>
       </c>
       <c r="C19" t="n">
-        <v>4.33</v>
+        <v>4.36</v>
       </c>
       <c r="D19" t="n">
-        <v>4.33</v>
+        <v>4.36</v>
       </c>
       <c r="E19" t="n">
-        <v>4.33</v>
+        <v>4.36</v>
       </c>
       <c r="F19" t="n">
-        <v>35634441</v>
+        <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>4.330000000000005</v>
+        <v>-20640455.80607422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="C20" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="D20" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="E20" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="F20" t="n">
-        <v>6758183.1105</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>4.333333333333337</v>
+        <v>-20640433.80607422</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="C21" t="n">
-        <v>4.4</v>
+        <v>4.32</v>
       </c>
       <c r="D21" t="n">
         <v>4.4</v>
       </c>
       <c r="E21" t="n">
-        <v>4.4</v>
+        <v>4.32</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>9645473.4573</v>
       </c>
       <c r="G21" t="n">
-        <v>4.356666666666671</v>
+        <v>-30285907.26337422</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.37</v>
+        <v>4.32</v>
       </c>
       <c r="C22" t="n">
-        <v>4.37</v>
+        <v>4.32</v>
       </c>
       <c r="D22" t="n">
-        <v>4.37</v>
+        <v>4.32</v>
       </c>
       <c r="E22" t="n">
-        <v>4.37</v>
+        <v>4.32</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G22" t="n">
-        <v>4.370000000000004</v>
+        <v>-30285907.26337422</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="C23" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="D23" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="E23" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>4.376666666666671</v>
+        <v>-30285897.26337422</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="C24" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="D24" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="E24" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="F24" t="n">
-        <v>11382.2477</v>
+        <v>9519680.857100001</v>
       </c>
       <c r="G24" t="n">
-        <v>4.363333333333338</v>
+        <v>-39805578.12047423</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.26</v>
+        <v>4.35</v>
       </c>
       <c r="C25" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="D25" t="n">
-        <v>4.26</v>
+        <v>4.35</v>
       </c>
       <c r="E25" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="F25" t="n">
-        <v>43985.633</v>
+        <v>8767196.800000001</v>
       </c>
       <c r="G25" t="n">
-        <v>4.323333333333337</v>
+        <v>-31038381.32047423</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.25</v>
+        <v>4.36</v>
       </c>
       <c r="C26" t="n">
-        <v>4.2</v>
+        <v>4.36</v>
       </c>
       <c r="D26" t="n">
-        <v>4.25</v>
+        <v>4.36</v>
       </c>
       <c r="E26" t="n">
-        <v>4.2</v>
+        <v>4.36</v>
       </c>
       <c r="F26" t="n">
-        <v>502005.8841</v>
+        <v>9476012.5963</v>
       </c>
       <c r="G26" t="n">
-        <v>4.270000000000003</v>
+        <v>-21562368.72417422</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="C27" t="n">
         <v>4.35</v>
       </c>
       <c r="D27" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="E27" t="n">
         <v>4.35</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>9498276.533299999</v>
       </c>
       <c r="G27" t="n">
-        <v>4.26666666666667</v>
+        <v>-31060645.25747422</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="C28" t="n">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="D28" t="n">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="E28" t="n">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="F28" t="n">
-        <v>724.0752</v>
+        <v>508.725</v>
       </c>
       <c r="G28" t="n">
-        <v>4.253333333333337</v>
+        <v>-31061153.98247422</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.21</v>
+        <v>4.35</v>
       </c>
       <c r="C29" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="D29" t="n">
-        <v>4.21</v>
+        <v>4.35</v>
       </c>
       <c r="E29" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="F29" t="n">
-        <v>8708.265299999999</v>
+        <v>9132496.6666</v>
       </c>
       <c r="G29" t="n">
-        <v>4.253333333333337</v>
+        <v>-21928657.31587422</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.18</v>
+        <v>4.41</v>
       </c>
       <c r="C30" t="n">
-        <v>4.18</v>
+        <v>4.41</v>
       </c>
       <c r="D30" t="n">
-        <v>4.18</v>
+        <v>4.41</v>
       </c>
       <c r="E30" t="n">
-        <v>4.18</v>
+        <v>4.41</v>
       </c>
       <c r="F30" t="n">
-        <v>444</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>4.196666666666671</v>
+        <v>-21928647.31587422</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="C31" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="D31" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="E31" t="n">
-        <v>4.21</v>
+        <v>4.27</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>1412.337</v>
       </c>
       <c r="G31" t="n">
-        <v>4.19666666666667</v>
+        <v>-21930059.65287422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.21</v>
+        <v>4.26</v>
       </c>
       <c r="C32" t="n">
-        <v>4.21</v>
+        <v>4.26</v>
       </c>
       <c r="D32" t="n">
-        <v>4.21</v>
+        <v>4.26</v>
       </c>
       <c r="E32" t="n">
-        <v>4.21</v>
+        <v>4.26</v>
       </c>
       <c r="F32" t="n">
-        <v>434</v>
+        <v>157355.848</v>
       </c>
       <c r="G32" t="n">
-        <v>4.200000000000004</v>
+        <v>-22087415.50087423</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="C33" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="D33" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="E33" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="G33" t="n">
-        <v>4.213333333333337</v>
+        <v>-22087655.50087423</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="C34" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="D34" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="E34" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="F34" t="n">
-        <v>44369.9756</v>
+        <v>87566.1974</v>
       </c>
       <c r="G34" t="n">
-        <v>4.216666666666669</v>
+        <v>-22087655.50087423</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="C35" t="n">
         <v>4.33</v>
@@ -1635,13 +1635,13 @@
         <v>4.33</v>
       </c>
       <c r="E35" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>9196908.2903</v>
       </c>
       <c r="G35" t="n">
-        <v>4.25666666666667</v>
+        <v>-12890747.21057422</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.26</v>
+        <v>4.32</v>
       </c>
       <c r="C36" t="n">
-        <v>4.26</v>
+        <v>4.32</v>
       </c>
       <c r="D36" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="E36" t="n">
-        <v>4.26</v>
+        <v>4.32</v>
       </c>
       <c r="F36" t="n">
-        <v>432.915</v>
+        <v>36700390.5311</v>
       </c>
       <c r="G36" t="n">
-        <v>4.270000000000003</v>
+        <v>-49591137.74167422</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
       <c r="C37" t="n">
         <v>4.33</v>
@@ -1707,13 +1707,13 @@
         <v>4.33</v>
       </c>
       <c r="E37" t="n">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>26706602.2129</v>
       </c>
       <c r="G37" t="n">
-        <v>4.306666666666669</v>
+        <v>-22884535.52877422</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="C38" t="n">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="D38" t="n">
-        <v>4.25</v>
+        <v>4.34</v>
       </c>
       <c r="E38" t="n">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="F38" t="n">
-        <v>58497.6353</v>
+        <v>16829405.4576</v>
       </c>
       <c r="G38" t="n">
-        <v>4.27666666666667</v>
+        <v>-39713940.98637422</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="C39" t="n">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="D39" t="n">
-        <v>4.24</v>
+        <v>4.34</v>
       </c>
       <c r="E39" t="n">
-        <v>4.24</v>
+        <v>4.31</v>
       </c>
       <c r="F39" t="n">
-        <v>55437.9799</v>
+        <v>8802018</v>
       </c>
       <c r="G39" t="n">
-        <v>4.270000000000004</v>
+        <v>-48515958.98637422</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.18</v>
+        <v>4.34</v>
       </c>
       <c r="C40" t="n">
-        <v>4.18</v>
+        <v>4.34</v>
       </c>
       <c r="D40" t="n">
-        <v>4.18</v>
+        <v>4.35</v>
       </c>
       <c r="E40" t="n">
-        <v>4.18</v>
+        <v>4.34</v>
       </c>
       <c r="F40" t="n">
-        <v>9556</v>
+        <v>7613482.6515</v>
       </c>
       <c r="G40" t="n">
-        <v>4.220000000000003</v>
+        <v>-40902476.33487422</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.18</v>
+        <v>4.27</v>
       </c>
       <c r="C41" t="n">
-        <v>4.18</v>
+        <v>4.27</v>
       </c>
       <c r="D41" t="n">
-        <v>4.18</v>
+        <v>4.27</v>
       </c>
       <c r="E41" t="n">
-        <v>4.18</v>
+        <v>4.27</v>
       </c>
       <c r="F41" t="n">
-        <v>6699.043</v>
+        <v>35.5374</v>
       </c>
       <c r="G41" t="n">
-        <v>4.200000000000004</v>
+        <v>-40902511.87227422</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.18</v>
+        <v>4.32</v>
       </c>
       <c r="C42" t="n">
-        <v>4.18</v>
+        <v>4.32</v>
       </c>
       <c r="D42" t="n">
-        <v>4.18</v>
+        <v>4.32</v>
       </c>
       <c r="E42" t="n">
-        <v>4.18</v>
+        <v>4.32</v>
       </c>
       <c r="F42" t="n">
-        <v>1237.4155</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>4.180000000000002</v>
+        <v>-40902501.87227422</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.19</v>
+        <v>4.31</v>
       </c>
       <c r="C43" t="n">
-        <v>4.19</v>
+        <v>4.32</v>
       </c>
       <c r="D43" t="n">
-        <v>4.19</v>
+        <v>4.32</v>
       </c>
       <c r="E43" t="n">
-        <v>4.19</v>
+        <v>4.31</v>
       </c>
       <c r="F43" t="n">
-        <v>4087.2315</v>
+        <v>30</v>
       </c>
       <c r="G43" t="n">
-        <v>4.183333333333336</v>
+        <v>-40902501.87227422</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.19</v>
+        <v>4.32</v>
       </c>
       <c r="C44" t="n">
-        <v>4.19</v>
+        <v>4.32</v>
       </c>
       <c r="D44" t="n">
-        <v>4.19</v>
+        <v>4.32</v>
       </c>
       <c r="E44" t="n">
-        <v>4.19</v>
+        <v>4.32</v>
       </c>
       <c r="F44" t="n">
-        <v>927.6264</v>
+        <v>50.2314</v>
       </c>
       <c r="G44" t="n">
-        <v>4.18666666666667</v>
+        <v>-40902501.87227422</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.23</v>
+        <v>4.28</v>
       </c>
       <c r="C45" t="n">
-        <v>4.23</v>
+        <v>4.28</v>
       </c>
       <c r="D45" t="n">
-        <v>4.23</v>
+        <v>4.28</v>
       </c>
       <c r="E45" t="n">
-        <v>4.23</v>
+        <v>4.28</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>14972.2225</v>
       </c>
       <c r="G45" t="n">
-        <v>4.203333333333337</v>
+        <v>-40917474.09477422</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="C46" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="D46" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="E46" t="n">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>6063.7501</v>
       </c>
       <c r="G46" t="n">
-        <v>4.220000000000002</v>
+        <v>-40911410.34467421</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.21</v>
+        <v>4.3</v>
       </c>
       <c r="C47" t="n">
-        <v>4.21</v>
+        <v>4.3</v>
       </c>
       <c r="D47" t="n">
-        <v>4.21</v>
+        <v>4.3</v>
       </c>
       <c r="E47" t="n">
-        <v>4.21</v>
+        <v>4.3</v>
       </c>
       <c r="F47" t="n">
-        <v>11993.6308</v>
+        <v>7008.4506</v>
       </c>
       <c r="G47" t="n">
-        <v>4.226666666666669</v>
+        <v>-40904401.89407422</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.22</v>
+        <v>4.3</v>
       </c>
       <c r="C48" t="n">
-        <v>4.22</v>
+        <v>4.3</v>
       </c>
       <c r="D48" t="n">
-        <v>4.22</v>
+        <v>4.3</v>
       </c>
       <c r="E48" t="n">
-        <v>4.22</v>
+        <v>4.3</v>
       </c>
       <c r="F48" t="n">
-        <v>11397.5311</v>
+        <v>160.5628</v>
       </c>
       <c r="G48" t="n">
-        <v>4.223333333333335</v>
+        <v>-40904401.89407422</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="C49" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="D49" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="E49" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="F49" t="n">
-        <v>71090.1309</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>4.216666666666668</v>
+        <v>-40904391.89407422</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,35 +2166,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="C50" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="D50" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="E50" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="F50" t="n">
-        <v>27333.1696</v>
+        <v>40227.9152</v>
       </c>
       <c r="G50" t="n">
-        <v>4.220000000000002</v>
+        <v>-40904391.89407422</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
@@ -2206,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="C51" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="D51" t="n">
-        <v>4.24</v>
+        <v>4.33</v>
       </c>
       <c r="E51" t="n">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>16818.8817</v>
       </c>
       <c r="G51" t="n">
-        <v>4.226666666666669</v>
+        <v>-40887573.01237421</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2230,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2248,40 +2238,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.23</v>
+        <v>4.34</v>
       </c>
       <c r="C52" t="n">
-        <v>4.23</v>
+        <v>4.39</v>
       </c>
       <c r="D52" t="n">
-        <v>4.23</v>
+        <v>4.39</v>
       </c>
       <c r="E52" t="n">
-        <v>4.23</v>
+        <v>4.34</v>
       </c>
       <c r="F52" t="n">
-        <v>11963.6467</v>
+        <v>98180.14659999999</v>
       </c>
       <c r="G52" t="n">
-        <v>4.230000000000003</v>
+        <v>-40789392.86577421</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2292,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="C53" t="n">
-        <v>4.23</v>
+        <v>4.43</v>
       </c>
       <c r="D53" t="n">
-        <v>4.23</v>
+        <v>4.43</v>
       </c>
       <c r="E53" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="F53" t="n">
-        <v>2650</v>
+        <v>181550.6178</v>
       </c>
       <c r="G53" t="n">
-        <v>4.233333333333337</v>
+        <v>-40607842.24797422</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2328,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.24</v>
+        <v>4.44</v>
       </c>
       <c r="C54" t="n">
-        <v>4.24</v>
+        <v>4.44</v>
       </c>
       <c r="D54" t="n">
-        <v>4.24</v>
+        <v>4.44</v>
       </c>
       <c r="E54" t="n">
-        <v>4.24</v>
+        <v>4.44</v>
       </c>
       <c r="F54" t="n">
-        <v>17134.9866</v>
+        <v>27225.3901</v>
       </c>
       <c r="G54" t="n">
-        <v>4.233333333333337</v>
+        <v>-40580616.85787421</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2364,35 +2346,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.24</v>
+        <v>4.45</v>
       </c>
       <c r="C55" t="n">
-        <v>4.24</v>
+        <v>4.47</v>
       </c>
       <c r="D55" t="n">
-        <v>4.24</v>
+        <v>4.47</v>
       </c>
       <c r="E55" t="n">
-        <v>4.24</v>
+        <v>4.45</v>
       </c>
       <c r="F55" t="n">
-        <v>34610.5794</v>
+        <v>29263.4588</v>
       </c>
       <c r="G55" t="n">
-        <v>4.236666666666671</v>
+        <v>-40551353.39907421</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4.24</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2404,40 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.24</v>
+        <v>4.48</v>
       </c>
       <c r="C56" t="n">
-        <v>4.24</v>
+        <v>4.5</v>
       </c>
       <c r="D56" t="n">
-        <v>4.24</v>
+        <v>4.5</v>
       </c>
       <c r="E56" t="n">
-        <v>4.24</v>
+        <v>4.48</v>
       </c>
       <c r="F56" t="n">
-        <v>44080</v>
+        <v>832261.368</v>
       </c>
       <c r="G56" t="n">
-        <v>4.240000000000003</v>
+        <v>-39719092.03107421</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2448,40 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.24</v>
+        <v>4.52</v>
       </c>
       <c r="C57" t="n">
-        <v>4.24</v>
+        <v>4.5</v>
       </c>
       <c r="D57" t="n">
-        <v>4.24</v>
+        <v>4.52</v>
       </c>
       <c r="E57" t="n">
-        <v>4.24</v>
+        <v>4.5</v>
       </c>
       <c r="F57" t="n">
-        <v>17806.3797</v>
+        <v>12919.8832</v>
       </c>
       <c r="G57" t="n">
-        <v>4.240000000000003</v>
+        <v>-39719092.03107421</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2492,35 +2454,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="C58" t="n">
-        <v>4.25</v>
+        <v>4.52</v>
       </c>
       <c r="D58" t="n">
-        <v>4.25</v>
+        <v>4.52</v>
       </c>
       <c r="E58" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="F58" t="n">
-        <v>207093.4117</v>
+        <v>23.9469</v>
       </c>
       <c r="G58" t="n">
-        <v>4.243333333333335</v>
+        <v>-39719068.08417421</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4.24</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2532,40 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="C59" t="n">
-        <v>4.26</v>
+        <v>4.5</v>
       </c>
       <c r="D59" t="n">
-        <v>4.26</v>
+        <v>4.5</v>
       </c>
       <c r="E59" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="F59" t="n">
-        <v>167871.7176</v>
+        <v>115000</v>
       </c>
       <c r="G59" t="n">
-        <v>4.250000000000002</v>
+        <v>-39834068.08417421</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2576,40 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.26</v>
+        <v>4.52</v>
       </c>
       <c r="C60" t="n">
-        <v>4.26</v>
+        <v>4.52</v>
       </c>
       <c r="D60" t="n">
-        <v>4.26</v>
+        <v>4.52</v>
       </c>
       <c r="E60" t="n">
-        <v>4.26</v>
+        <v>4.52</v>
       </c>
       <c r="F60" t="n">
-        <v>29411.5139</v>
+        <v>262.4557</v>
       </c>
       <c r="G60" t="n">
-        <v>4.256666666666669</v>
+        <v>-39833805.62847421</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2620,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.3</v>
+        <v>4.52</v>
       </c>
       <c r="C61" t="n">
-        <v>4.3</v>
+        <v>4.52</v>
       </c>
       <c r="D61" t="n">
-        <v>4.3</v>
+        <v>4.52</v>
       </c>
       <c r="E61" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>5548.783</v>
       </c>
       <c r="G61" t="n">
-        <v>4.273333333333334</v>
+        <v>-39833805.62847421</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2656,28 +2598,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="C62" t="n">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="D62" t="n">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="E62" t="n">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="F62" t="n">
-        <v>280.0936768149883</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="n">
-        <v>4.276666666666668</v>
+        <v>-39838805.62847421</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2692,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.24</v>
+        <v>4.52</v>
       </c>
       <c r="C63" t="n">
-        <v>4.24</v>
+        <v>4.52</v>
       </c>
       <c r="D63" t="n">
-        <v>4.24</v>
+        <v>4.52</v>
       </c>
       <c r="E63" t="n">
-        <v>4.24</v>
+        <v>4.52</v>
       </c>
       <c r="F63" t="n">
-        <v>14577.1126</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>4.270000000000001</v>
+        <v>-39838705.62847421</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2728,35 +2670,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.24</v>
+        <v>4.5</v>
       </c>
       <c r="C64" t="n">
-        <v>4.24</v>
+        <v>4.5</v>
       </c>
       <c r="D64" t="n">
-        <v>4.24</v>
+        <v>4.5</v>
       </c>
       <c r="E64" t="n">
-        <v>4.24</v>
+        <v>4.5</v>
       </c>
       <c r="F64" t="n">
-        <v>37669.5522</v>
+        <v>7607.0804</v>
       </c>
       <c r="G64" t="n">
-        <v>4.250000000000001</v>
+        <v>-39846312.7088742</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K64" t="n">
-        <v>4.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
@@ -2768,40 +2706,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="C65" t="n">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="D65" t="n">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="E65" t="n">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>16666.6666</v>
       </c>
       <c r="G65" t="n">
-        <v>4.250000000000001</v>
+        <v>-39846312.7088742</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K65" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2812,40 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.25</v>
+        <v>4.47</v>
       </c>
       <c r="C66" t="n">
-        <v>4.25</v>
+        <v>4.47</v>
       </c>
       <c r="D66" t="n">
-        <v>4.25</v>
+        <v>4.47</v>
       </c>
       <c r="E66" t="n">
-        <v>4.25</v>
+        <v>4.47</v>
       </c>
       <c r="F66" t="n">
-        <v>14222.9581</v>
+        <v>107623.4899</v>
       </c>
       <c r="G66" t="n">
-        <v>4.253333333333335</v>
+        <v>-39953936.1987742</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2856,35 +2778,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.27</v>
+        <v>4.46</v>
       </c>
       <c r="C67" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="D67" t="n">
-        <v>4.27</v>
+        <v>4.46</v>
       </c>
       <c r="E67" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>283479.674</v>
       </c>
       <c r="G67" t="n">
-        <v>4.263333333333334</v>
+        <v>-40237415.87277421</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K67" t="n">
-        <v>4.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
@@ -2896,40 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="C68" t="n">
-        <v>4.24</v>
+        <v>4.44</v>
       </c>
       <c r="D68" t="n">
-        <v>4.27</v>
+        <v>4.45</v>
       </c>
       <c r="E68" t="n">
-        <v>4.24</v>
+        <v>4.44</v>
       </c>
       <c r="F68" t="n">
-        <v>16162.1794</v>
+        <v>105783.2125</v>
       </c>
       <c r="G68" t="n">
-        <v>4.253333333333334</v>
+        <v>-40343199.0852742</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K68" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2940,40 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.24</v>
+        <v>4.48</v>
       </c>
       <c r="C69" t="n">
-        <v>4.19</v>
+        <v>4.44</v>
       </c>
       <c r="D69" t="n">
-        <v>4.24</v>
+        <v>4.48</v>
       </c>
       <c r="E69" t="n">
-        <v>4.19</v>
+        <v>4.44</v>
       </c>
       <c r="F69" t="n">
-        <v>23635.3536</v>
+        <v>27388.46744285714</v>
       </c>
       <c r="G69" t="n">
-        <v>4.233333333333334</v>
+        <v>-40343199.0852742</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2984,38 +2886,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25</v>
+        <v>4.43</v>
       </c>
       <c r="C70" t="n">
-        <v>4.26</v>
+        <v>4.43</v>
       </c>
       <c r="D70" t="n">
-        <v>4.26</v>
+        <v>4.43</v>
       </c>
       <c r="E70" t="n">
-        <v>4.21</v>
+        <v>4.43</v>
       </c>
       <c r="F70" t="n">
-        <v>1059</v>
+        <v>15585.3027</v>
       </c>
       <c r="G70" t="n">
-        <v>4.23</v>
+        <v>-40358784.3879742</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3026,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="C71" t="n">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="D71" t="n">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="E71" t="n">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>21215.4814</v>
       </c>
       <c r="G71" t="n">
-        <v>4.24</v>
+        <v>-40358784.3879742</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3050,14 +2946,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3068,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.25</v>
+        <v>4.43</v>
       </c>
       <c r="C72" t="n">
-        <v>4.26</v>
+        <v>4.43</v>
       </c>
       <c r="D72" t="n">
-        <v>4.26</v>
+        <v>4.43</v>
       </c>
       <c r="E72" t="n">
-        <v>4.25</v>
+        <v>4.43</v>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>8117.8242</v>
       </c>
       <c r="G72" t="n">
-        <v>4.263333333333333</v>
+        <v>-40358784.3879742</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3092,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3110,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="C73" t="n">
-        <v>4.27</v>
+        <v>4.42</v>
       </c>
       <c r="D73" t="n">
-        <v>4.27</v>
+        <v>4.43</v>
       </c>
       <c r="E73" t="n">
-        <v>4.27</v>
+        <v>4.42</v>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>15721.3667</v>
       </c>
       <c r="G73" t="n">
-        <v>4.266666666666667</v>
+        <v>-40374505.7546742</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3134,14 +3018,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3152,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.27</v>
+        <v>4.42</v>
       </c>
       <c r="C74" t="n">
-        <v>4.27</v>
+        <v>4.41</v>
       </c>
       <c r="D74" t="n">
-        <v>4.27</v>
+        <v>4.42</v>
       </c>
       <c r="E74" t="n">
-        <v>4.27</v>
+        <v>4.41</v>
       </c>
       <c r="F74" t="n">
-        <v>13142.47072318501</v>
+        <v>33464.7128</v>
       </c>
       <c r="G74" t="n">
-        <v>4.266666666666667</v>
+        <v>-40407970.46747421</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3176,14 +3054,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3194,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.27</v>
+        <v>4.4</v>
       </c>
       <c r="C75" t="n">
-        <v>4.28</v>
+        <v>4.4</v>
       </c>
       <c r="D75" t="n">
-        <v>4.28</v>
+        <v>4.4</v>
       </c>
       <c r="E75" t="n">
-        <v>4.27</v>
+        <v>4.4</v>
       </c>
       <c r="F75" t="n">
-        <v>6804.4691</v>
+        <v>10353.7845</v>
       </c>
       <c r="G75" t="n">
-        <v>4.273333333333334</v>
+        <v>-40418324.25197421</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3218,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3236,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.28</v>
+        <v>4.4</v>
       </c>
       <c r="C76" t="n">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="D76" t="n">
-        <v>4.31</v>
+        <v>4.4</v>
       </c>
       <c r="E76" t="n">
-        <v>4.28</v>
+        <v>4.4</v>
       </c>
       <c r="F76" t="n">
-        <v>121545.3895032483</v>
+        <v>17756.4427</v>
       </c>
       <c r="G76" t="n">
-        <v>4.286666666666668</v>
+        <v>-40418324.25197421</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3260,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3278,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="C77" t="n">
-        <v>4.24</v>
+        <v>4.39</v>
       </c>
       <c r="D77" t="n">
-        <v>4.31</v>
+        <v>4.39</v>
       </c>
       <c r="E77" t="n">
-        <v>4.24</v>
+        <v>4.39</v>
       </c>
       <c r="F77" t="n">
-        <v>167.7714</v>
+        <v>9165.4172</v>
       </c>
       <c r="G77" t="n">
-        <v>4.276666666666667</v>
+        <v>-40427489.66917421</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3302,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3320,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="C78" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="D78" t="n">
-        <v>4.26</v>
+        <v>4.39</v>
       </c>
       <c r="E78" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="F78" t="n">
-        <v>2589.888</v>
+        <v>3242.1393</v>
       </c>
       <c r="G78" t="n">
-        <v>4.27</v>
+        <v>-40430731.80847421</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3344,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3362,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="C79" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="D79" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="E79" t="n">
-        <v>4.26</v>
+        <v>4.31</v>
       </c>
       <c r="F79" t="n">
-        <v>26212.8075</v>
+        <v>8411.8055</v>
       </c>
       <c r="G79" t="n">
-        <v>4.253333333333334</v>
+        <v>-40430731.80847421</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3386,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3404,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.29</v>
+        <v>4.39</v>
       </c>
       <c r="C80" t="n">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="D80" t="n">
-        <v>4.29</v>
+        <v>4.39</v>
       </c>
       <c r="E80" t="n">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>249778.8062</v>
       </c>
       <c r="G80" t="n">
-        <v>4.27</v>
+        <v>-40680510.61467421</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3428,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3446,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.29</v>
+        <v>4.35</v>
       </c>
       <c r="C81" t="n">
-        <v>4.26</v>
+        <v>4.35</v>
       </c>
       <c r="D81" t="n">
-        <v>4.29</v>
+        <v>4.35</v>
       </c>
       <c r="E81" t="n">
-        <v>4.26</v>
+        <v>4.35</v>
       </c>
       <c r="F81" t="n">
-        <v>33.5244</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>4.27</v>
+        <v>-40680500.61467421</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3470,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3488,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="C82" t="n">
-        <v>4.26</v>
+        <v>4.37</v>
       </c>
       <c r="D82" t="n">
-        <v>4.26</v>
+        <v>4.37</v>
       </c>
       <c r="E82" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="F82" t="n">
-        <v>21000</v>
+        <v>8923048.673800001</v>
       </c>
       <c r="G82" t="n">
-        <v>4.27</v>
+        <v>-31757451.94087421</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3512,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3530,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.26</v>
+        <v>4.37</v>
       </c>
       <c r="C83" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="D83" t="n">
-        <v>4.26</v>
+        <v>4.37</v>
       </c>
       <c r="E83" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="F83" t="n">
-        <v>35000</v>
+        <v>45401174.0271</v>
       </c>
       <c r="G83" t="n">
-        <v>4.260000000000001</v>
+        <v>-77158625.96797422</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3554,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3572,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="C84" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="D84" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="E84" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="F84" t="n">
-        <v>2573.0333</v>
+        <v>27847909.1798</v>
       </c>
       <c r="G84" t="n">
-        <v>4.26</v>
+        <v>-77158625.96797422</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3596,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3614,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="C85" t="n">
-        <v>4.25</v>
+        <v>4.36</v>
       </c>
       <c r="D85" t="n">
-        <v>4.26</v>
+        <v>4.36</v>
       </c>
       <c r="E85" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="F85" t="n">
-        <v>33.2916</v>
+        <v>17776675</v>
       </c>
       <c r="G85" t="n">
-        <v>4.256666666666667</v>
+        <v>-59381950.96797422</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3638,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3656,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="C86" t="n">
-        <v>4.29</v>
+        <v>4.34</v>
       </c>
       <c r="D86" t="n">
-        <v>4.29</v>
+        <v>4.34</v>
       </c>
       <c r="E86" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="F86" t="n">
-        <v>24236.0343</v>
+        <v>113941.8208</v>
       </c>
       <c r="G86" t="n">
-        <v>4.266666666666667</v>
+        <v>-59495892.78877421</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3680,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3710,10 +3510,10 @@
         <v>4.26</v>
       </c>
       <c r="F87" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>4.266666666666667</v>
+        <v>-59495902.78877421</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3722,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3740,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="C88" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="D88" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="E88" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="F88" t="n">
-        <v>61887.6903</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>4.27</v>
+        <v>-59495892.78877421</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3764,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3782,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.28</v>
+        <v>4.33</v>
       </c>
       <c r="C89" t="n">
-        <v>4.28</v>
+        <v>4.33</v>
       </c>
       <c r="D89" t="n">
-        <v>4.28</v>
+        <v>4.33</v>
       </c>
       <c r="E89" t="n">
-        <v>4.28</v>
+        <v>4.33</v>
       </c>
       <c r="F89" t="n">
-        <v>11020</v>
+        <v>7823975</v>
       </c>
       <c r="G89" t="n">
-        <v>4.266666666666668</v>
+        <v>-59495892.78877421</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3806,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3824,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="C90" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="D90" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="E90" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="F90" t="n">
-        <v>16792.901</v>
+        <v>35634441</v>
       </c>
       <c r="G90" t="n">
-        <v>4.266666666666667</v>
+        <v>-59495892.78877421</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3848,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3866,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="C91" t="n">
-        <v>4.27</v>
+        <v>4.34</v>
       </c>
       <c r="D91" t="n">
-        <v>4.27</v>
+        <v>4.34</v>
       </c>
       <c r="E91" t="n">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="F91" t="n">
-        <v>10547.2163</v>
+        <v>6758183.1105</v>
       </c>
       <c r="G91" t="n">
-        <v>4.27</v>
+        <v>-52737709.67827421</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3890,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3908,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.26</v>
+        <v>4.4</v>
       </c>
       <c r="C92" t="n">
-        <v>4.26</v>
+        <v>4.4</v>
       </c>
       <c r="D92" t="n">
-        <v>4.26</v>
+        <v>4.4</v>
       </c>
       <c r="E92" t="n">
-        <v>4.26</v>
+        <v>4.4</v>
       </c>
       <c r="F92" t="n">
-        <v>15150.148</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>4.263333333333333</v>
+        <v>-52737699.67827421</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3932,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3950,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="C93" t="n">
-        <v>4.29</v>
+        <v>4.37</v>
       </c>
       <c r="D93" t="n">
-        <v>4.29</v>
+        <v>4.37</v>
       </c>
       <c r="E93" t="n">
-        <v>4.28</v>
+        <v>4.37</v>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>4.273333333333333</v>
+        <v>-52737799.67827421</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3974,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3992,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.27</v>
+        <v>4.36</v>
       </c>
       <c r="C94" t="n">
-        <v>4.27</v>
+        <v>4.36</v>
       </c>
       <c r="D94" t="n">
-        <v>4.27</v>
+        <v>4.36</v>
       </c>
       <c r="E94" t="n">
-        <v>4.27</v>
+        <v>4.36</v>
       </c>
       <c r="F94" t="n">
-        <v>23460.5474</v>
+        <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>4.273333333333333</v>
+        <v>-52737899.67827421</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4016,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4034,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.32</v>
+        <v>4.36</v>
       </c>
       <c r="C95" t="n">
-        <v>4.32</v>
+        <v>4.36</v>
       </c>
       <c r="D95" t="n">
-        <v>4.32</v>
+        <v>4.36</v>
       </c>
       <c r="E95" t="n">
-        <v>4.32</v>
+        <v>4.36</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>11382.2477</v>
       </c>
       <c r="G95" t="n">
-        <v>4.293333333333332</v>
+        <v>-52737899.67827421</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4058,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4076,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.31</v>
+        <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>4.31</v>
+        <v>4.25</v>
       </c>
       <c r="D96" t="n">
-        <v>4.31</v>
+        <v>4.26</v>
       </c>
       <c r="E96" t="n">
-        <v>4.31</v>
+        <v>4.25</v>
       </c>
       <c r="F96" t="n">
-        <v>24</v>
+        <v>43985.633</v>
       </c>
       <c r="G96" t="n">
-        <v>4.3</v>
+        <v>-52781885.31127422</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4100,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4118,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="C97" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="D97" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="E97" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>502005.8841</v>
       </c>
       <c r="G97" t="n">
-        <v>4.319999999999999</v>
+        <v>-53283891.19537421</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4142,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4160,38 +3894,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.27</v>
+        <v>4.35</v>
       </c>
       <c r="C98" t="n">
-        <v>4.27</v>
+        <v>4.35</v>
       </c>
       <c r="D98" t="n">
-        <v>4.27</v>
+        <v>4.35</v>
       </c>
       <c r="E98" t="n">
-        <v>4.27</v>
+        <v>4.35</v>
       </c>
       <c r="F98" t="n">
-        <v>6075.6446</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>4.303333333333332</v>
+        <v>-53283881.19537421</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>4.2</v>
+      </c>
       <c r="K98" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>4.2</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4202,36 +3934,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.26</v>
+        <v>4.21</v>
       </c>
       <c r="C99" t="n">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="D99" t="n">
-        <v>4.26</v>
+        <v>4.21</v>
       </c>
       <c r="E99" t="n">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="F99" t="n">
-        <v>137132.9381</v>
+        <v>724.0752</v>
       </c>
       <c r="G99" t="n">
-        <v>4.266666666666666</v>
+        <v>-53284605.27057421</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>4.35</v>
+      </c>
       <c r="K99" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -4244,36 +3978,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.28</v>
+        <v>4.21</v>
       </c>
       <c r="C100" t="n">
-        <v>4.28</v>
+        <v>4.2</v>
       </c>
       <c r="D100" t="n">
-        <v>4.28</v>
+        <v>4.21</v>
       </c>
       <c r="E100" t="n">
-        <v>4.28</v>
+        <v>4.2</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>8708.265299999999</v>
       </c>
       <c r="G100" t="n">
-        <v>4.249999999999999</v>
+        <v>-53293313.53587421</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>4.21</v>
+      </c>
       <c r="K100" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4286,32 +4022,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.29</v>
+        <v>4.18</v>
       </c>
       <c r="C101" t="n">
-        <v>4.29</v>
+        <v>4.18</v>
       </c>
       <c r="D101" t="n">
-        <v>4.29</v>
+        <v>4.18</v>
       </c>
       <c r="E101" t="n">
-        <v>4.29</v>
+        <v>4.18</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>444</v>
       </c>
       <c r="G101" t="n">
-        <v>4.256666666666667</v>
+        <v>-53293757.53587421</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>4.2</v>
+      </c>
       <c r="K101" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4328,32 +4066,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.3</v>
+        <v>4.21</v>
       </c>
       <c r="C102" t="n">
-        <v>4.31</v>
+        <v>4.21</v>
       </c>
       <c r="D102" t="n">
-        <v>4.31</v>
+        <v>4.21</v>
       </c>
       <c r="E102" t="n">
-        <v>4.3</v>
+        <v>4.21</v>
       </c>
       <c r="F102" t="n">
-        <v>30305.5143</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>4.293333333333333</v>
+        <v>-53293747.53587421</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>4.18</v>
+      </c>
       <c r="K102" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4370,32 +4110,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="C103" t="n">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
       <c r="D103" t="n">
-        <v>4.24</v>
+        <v>4.21</v>
       </c>
       <c r="E103" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="F103" t="n">
-        <v>54</v>
+        <v>434</v>
       </c>
       <c r="G103" t="n">
-        <v>4.279999999999998</v>
+        <v>-53293747.53587421</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>4.21</v>
+      </c>
       <c r="K103" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4412,32 +4154,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="C104" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="D104" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="E104" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>4.266666666666666</v>
+        <v>-53293737.53587421</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>4.21</v>
+      </c>
       <c r="K104" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4454,32 +4198,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="C105" t="n">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="D105" t="n">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="E105" t="n">
-        <v>4.25</v>
+        <v>4.22</v>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>44369.9756</v>
       </c>
       <c r="G105" t="n">
-        <v>4.249999999999999</v>
+        <v>-53293737.53587421</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>4.22</v>
+      </c>
       <c r="K105" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4496,32 +4242,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="C106" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="D106" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="E106" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="F106" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>4.256666666666666</v>
+        <v>-53293727.53587421</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>4.22</v>
+      </c>
       <c r="K106" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4538,22 +4286,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="C107" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="D107" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="E107" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="F107" t="n">
-        <v>253205.6223</v>
+        <v>432.915</v>
       </c>
       <c r="G107" t="n">
-        <v>4.253333333333333</v>
+        <v>-53294160.45087421</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4563,7 +4311,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4580,22 +4328,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="C108" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="D108" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="E108" t="n">
-        <v>4.23</v>
+        <v>4.33</v>
       </c>
       <c r="F108" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>4.249999999999999</v>
+        <v>-53294150.45087421</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4605,7 +4353,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4622,22 +4370,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C109" t="n">
         <v>4.24</v>
       </c>
-      <c r="C109" t="n">
-        <v>4.28</v>
-      </c>
       <c r="D109" t="n">
-        <v>4.28</v>
+        <v>4.25</v>
       </c>
       <c r="E109" t="n">
         <v>4.24</v>
       </c>
       <c r="F109" t="n">
-        <v>23364.4859</v>
+        <v>58497.6353</v>
       </c>
       <c r="G109" t="n">
-        <v>4.256666666666666</v>
+        <v>-53352648.08617421</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4647,7 +4395,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4664,22 +4412,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="C110" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="D110" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="E110" t="n">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="F110" t="n">
-        <v>46</v>
+        <v>55437.9799</v>
       </c>
       <c r="G110" t="n">
-        <v>4.266666666666667</v>
+        <v>-53352648.08617421</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4689,7 +4437,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4706,22 +4454,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.27</v>
+        <v>4.18</v>
       </c>
       <c r="C111" t="n">
-        <v>4.29</v>
+        <v>4.18</v>
       </c>
       <c r="D111" t="n">
-        <v>4.29</v>
+        <v>4.18</v>
       </c>
       <c r="E111" t="n">
-        <v>4.27</v>
+        <v>4.18</v>
       </c>
       <c r="F111" t="n">
-        <v>30</v>
+        <v>9556</v>
       </c>
       <c r="G111" t="n">
-        <v>4.28</v>
+        <v>-53362204.08617421</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4731,7 +4479,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4748,22 +4496,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.27</v>
+        <v>4.18</v>
       </c>
       <c r="C112" t="n">
-        <v>4.28</v>
+        <v>4.18</v>
       </c>
       <c r="D112" t="n">
-        <v>4.28</v>
+        <v>4.18</v>
       </c>
       <c r="E112" t="n">
-        <v>4.27</v>
+        <v>4.18</v>
       </c>
       <c r="F112" t="n">
-        <v>19.2129</v>
+        <v>6699.043</v>
       </c>
       <c r="G112" t="n">
-        <v>4.28</v>
+        <v>-53362204.08617421</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4773,7 +4521,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4790,22 +4538,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.3</v>
+        <v>4.18</v>
       </c>
       <c r="C113" t="n">
-        <v>4.3</v>
+        <v>4.18</v>
       </c>
       <c r="D113" t="n">
-        <v>4.3</v>
+        <v>4.18</v>
       </c>
       <c r="E113" t="n">
-        <v>4.3</v>
+        <v>4.18</v>
       </c>
       <c r="F113" t="n">
-        <v>10</v>
+        <v>1237.4155</v>
       </c>
       <c r="G113" t="n">
-        <v>4.29</v>
+        <v>-53362204.08617421</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4815,7 +4563,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4832,22 +4580,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.26</v>
+        <v>4.19</v>
       </c>
       <c r="C114" t="n">
-        <v>4.26</v>
+        <v>4.19</v>
       </c>
       <c r="D114" t="n">
-        <v>4.26</v>
+        <v>4.19</v>
       </c>
       <c r="E114" t="n">
-        <v>4.26</v>
+        <v>4.19</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>4087.2315</v>
       </c>
       <c r="G114" t="n">
-        <v>4.280000000000001</v>
+        <v>-53358116.85467421</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4857,7 +4605,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4874,22 +4622,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.26</v>
+        <v>4.19</v>
       </c>
       <c r="C115" t="n">
-        <v>4.29</v>
+        <v>4.19</v>
       </c>
       <c r="D115" t="n">
-        <v>4.29</v>
+        <v>4.19</v>
       </c>
       <c r="E115" t="n">
-        <v>4.26</v>
+        <v>4.19</v>
       </c>
       <c r="F115" t="n">
-        <v>17383.4631</v>
+        <v>927.6264</v>
       </c>
       <c r="G115" t="n">
-        <v>4.283333333333334</v>
+        <v>-53358116.85467421</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4899,7 +4647,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4916,44 +4664,3048 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.29</v>
+        <v>4.23</v>
       </c>
       <c r="C116" t="n">
-        <v>4.29</v>
+        <v>4.23</v>
       </c>
       <c r="D116" t="n">
-        <v>4.29</v>
+        <v>4.23</v>
       </c>
       <c r="E116" t="n">
-        <v>4.29</v>
+        <v>4.23</v>
       </c>
       <c r="F116" t="n">
         <v>10</v>
       </c>
       <c r="G116" t="n">
+        <v>-53358106.85467421</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F117" t="n">
+        <v>10</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-53358096.85467421</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="F118" t="n">
+        <v>11993.6308</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-53370090.48547421</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F119" t="n">
+        <v>11397.5311</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-53358692.95437422</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F120" t="n">
+        <v>71090.1309</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-53358692.95437422</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F121" t="n">
+        <v>27333.1696</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-53358692.95437422</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-53358682.95437422</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F123" t="n">
+        <v>11963.6467</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-53370646.60107422</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2650</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-53370646.60107422</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F125" t="n">
+        <v>17134.9866</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-53353511.61447422</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F126" t="n">
+        <v>34610.5794</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-53353511.61447422</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F127" t="n">
+        <v>44080</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-53353511.61447422</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F128" t="n">
+        <v>17806.3797</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-53353511.61447422</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F129" t="n">
+        <v>207093.4117</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-53146418.20277422</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F130" t="n">
+        <v>167871.7176</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-52978546.48517422</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F131" t="n">
+        <v>29411.5139</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-52978546.48517422</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-52978536.48517422</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F133" t="n">
+        <v>280.0936768149883</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-52978816.57885103</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14577.1126</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-52993393.69145103</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F135" t="n">
+        <v>37669.5522</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-52993393.69145103</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-52993383.69145103</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F137" t="n">
+        <v>14222.9581</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-53007606.64955103</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-53007596.64955103</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16162.1794</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-53023758.82895102</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F140" t="n">
+        <v>23635.3536</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-53047394.18255103</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1059</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-53046335.18255103</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F142" t="n">
+        <v>10</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-53046325.18255103</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-53046345.18255103</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-53046245.18255103</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F145" t="n">
+        <v>13142.47072318501</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-53046245.18255103</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C146" t="n">
         <v>4.28</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
+      <c r="D146" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6804.4691</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-53039440.71345103</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F147" t="n">
+        <v>121545.3895032483</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-52917895.32394778</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F148" t="n">
+        <v>167.7714</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-52918063.09534778</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2589.888</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-52915473.20734778</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F150" t="n">
+        <v>26212.8075</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-52915473.20734778</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
         <v>4.29</v>
       </c>
-      <c r="K116" t="n">
+      <c r="C151" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D151" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F151" t="n">
+        <v>10</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-52915463.20734778</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F152" t="n">
+        <v>33.5244</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-52915496.73174778</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F153" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-52915496.73174778</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K153" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D154" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F154" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-52915496.73174778</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K154" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2573.0333</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-52915496.73174778</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K155" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C156" t="n">
         <v>4.25</v>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F156" t="n">
+        <v>33.2916</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-52915530.02334778</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F157" t="n">
+        <v>24236.0343</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-52891293.98904778</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F158" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-52902293.98904778</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F159" t="n">
+        <v>61887.6903</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-52902293.98904778</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F160" t="n">
+        <v>11020</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-52891273.98904778</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16792.901</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-52908066.89004778</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D162" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10547.2163</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-52897519.67374778</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F163" t="n">
+        <v>15150.148</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-52912669.82174778</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K163" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F164" t="n">
+        <v>20</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-52912649.82174778</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K164" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F165" t="n">
+        <v>23460.5474</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-52936110.36914778</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="K165" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D166" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F166" t="n">
+        <v>10</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-52936100.36914778</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K166" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="D167" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="F167" t="n">
+        <v>24</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-52936124.36914778</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K167" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="D168" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-52936114.36914778</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F169" t="n">
+        <v>6075.6446</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-52942190.01374777</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>137132.9381</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-53079322.95184778</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D171" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F171" t="n">
+        <v>10</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-53079312.95184778</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K171" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-53079302.95184778</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="K172" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>30305.5143</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-53048997.43754777</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F174" t="n">
+        <v>54</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-53049051.43754777</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-53049031.43754777</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K175" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F176" t="n">
+        <v>20</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-53049011.43754777</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F177" t="n">
+        <v>16</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-53049011.43754777</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F178" t="n">
+        <v>253205.6223</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-53302217.05984777</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F179" t="n">
+        <v>30</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-53302187.05984777</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K179" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F180" t="n">
+        <v>23364.4859</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-53278822.57394777</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F181" t="n">
+        <v>46</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-53278868.57394777</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F182" t="n">
+        <v>30</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-53278838.57394777</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19.2129</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-53278857.78684777</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>10</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-53278847.78684777</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F185" t="n">
+        <v>10</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-53278857.78684777</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F186" t="n">
+        <v>17383.4631</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-53261474.32374777</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D187" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F187" t="n">
+        <v>10</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-53261474.32374777</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest WET.xlsx
+++ b/BackTest/2019-10-27 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,14 +649,10 @@
         <v>-20404746.55937422</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -689,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -728,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2332,7 @@
         <v>-39834068.08417421</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2414,7 +2398,7 @@
         <v>-39833805.62847421</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2447,7 +2431,7 @@
         <v>-39838805.62847421</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2480,7 +2464,7 @@
         <v>-39838705.62847421</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2513,7 +2497,7 @@
         <v>-39846312.7088742</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2546,7 +2530,7 @@
         <v>-39846312.7088742</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2579,7 +2563,7 @@
         <v>-39953936.1987742</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2612,7 +2596,7 @@
         <v>-40237415.87277421</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2645,7 +2629,7 @@
         <v>-40343199.0852742</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2678,7 +2662,7 @@
         <v>-40343199.0852742</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2711,7 +2695,7 @@
         <v>-40358784.3879742</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2744,7 +2728,7 @@
         <v>-40358784.3879742</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2777,7 +2761,7 @@
         <v>-40358784.3879742</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2810,7 +2794,7 @@
         <v>-40374505.7546742</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2843,7 +2827,7 @@
         <v>-40407970.46747421</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2876,7 +2860,7 @@
         <v>-40418324.25197421</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2909,7 +2893,7 @@
         <v>-40418324.25197421</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2975,7 +2959,7 @@
         <v>-40430731.80847421</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3173,7 +3157,7 @@
         <v>-77158625.96797422</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3206,7 +3190,7 @@
         <v>-59381950.96797422</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3239,7 +3223,7 @@
         <v>-59495892.78877421</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3272,7 +3256,7 @@
         <v>-59495902.78877421</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3305,7 +3289,7 @@
         <v>-59495892.78877421</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3437,7 +3421,7 @@
         <v>-52737699.67827421</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3503,7 +3487,7 @@
         <v>-52737899.67827421</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -5054,10 +5038,14 @@
         <v>-53046335.18255103</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4.19</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5087,11 +5075,19 @@
         <v>-53046325.18255103</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J142" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5120,11 +5116,19 @@
         <v>-53046345.18255103</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J143" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5153,10 +5157,14 @@
         <v>-53046245.18255103</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J144" t="n">
+        <v>4.26</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5186,11 +5194,19 @@
         <v>-53046245.18255103</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J145" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5222,8 +5238,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5351,7 +5373,7 @@
         <v>-52915473.20734778</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>4.26</v>
@@ -5427,9 +5449,11 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>4.29</v>
+      </c>
       <c r="J152" t="n">
         <v>4.26</v>
       </c>
@@ -5466,9 +5490,11 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>4.26</v>
+      </c>
       <c r="J153" t="n">
         <v>4.26</v>
       </c>
@@ -5505,9 +5531,11 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4.26</v>
+      </c>
       <c r="J154" t="n">
         <v>4.26</v>
       </c>
@@ -5544,9 +5572,11 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4.26</v>
+      </c>
       <c r="J155" t="n">
         <v>4.26</v>
       </c>
@@ -5583,9 +5613,11 @@
         <v>-52915530.02334778</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4.26</v>
+      </c>
       <c r="J156" t="n">
         <v>4.26</v>
       </c>
@@ -5622,7 +5654,7 @@
         <v>-52891293.98904778</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>4.25</v>
@@ -5663,7 +5695,7 @@
         <v>-52902293.98904778</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>4.29</v>
@@ -5704,7 +5736,7 @@
         <v>-52902293.98904778</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>4.26</v>
@@ -5745,7 +5777,7 @@
         <v>-52891273.98904778</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>4.26</v>
@@ -5786,7 +5818,7 @@
         <v>-52908066.89004778</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>4.28</v>
@@ -5827,7 +5859,7 @@
         <v>-52897519.67374778</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>4.26</v>
@@ -5868,7 +5900,7 @@
         <v>-52912669.82174778</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>4.27</v>
@@ -5909,7 +5941,7 @@
         <v>-52912649.82174778</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>4.26</v>
@@ -5950,7 +5982,7 @@
         <v>-52936110.36914778</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>4.29</v>
@@ -5991,7 +6023,7 @@
         <v>-52936100.36914778</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>4.27</v>
@@ -6032,9 +6064,11 @@
         <v>-52936124.36914778</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>4.32</v>
+      </c>
       <c r="J167" t="n">
         <v>4.26</v>
       </c>
@@ -6071,9 +6105,11 @@
         <v>-52936114.36914778</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>4.31</v>
+      </c>
       <c r="J168" t="n">
         <v>4.26</v>
       </c>
@@ -6110,11 +6146,9 @@
         <v>-52942190.01374777</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>4.26</v>
       </c>
@@ -6151,11 +6185,9 @@
         <v>-53079322.95184778</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>4.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>4.26</v>
       </c>
@@ -6192,7 +6224,7 @@
         <v>-53079312.95184778</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>4.2</v>
@@ -6233,7 +6265,7 @@
         <v>-53079302.95184778</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>4.28</v>
@@ -6274,7 +6306,7 @@
         <v>-53048997.43754777</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>4.29</v>
@@ -6315,7 +6347,7 @@
         <v>-53049051.43754777</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>4.31</v>
@@ -6356,7 +6388,7 @@
         <v>-53049031.43754777</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>4.24</v>
@@ -6397,7 +6429,7 @@
         <v>-53049011.43754777</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>4.25</v>
@@ -6438,7 +6470,7 @@
         <v>-53049011.43754777</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>4.26</v>
@@ -6479,7 +6511,7 @@
         <v>-53302217.05984777</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>4.26</v>
@@ -6520,7 +6552,7 @@
         <v>-53302187.05984777</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>4.24</v>
@@ -6561,7 +6593,7 @@
         <v>-53278822.57394777</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>4.25</v>
@@ -6602,7 +6634,7 @@
         <v>-53278868.57394777</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>4.28</v>
@@ -6643,7 +6675,7 @@
         <v>-53278838.57394777</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>4.27</v>
@@ -6684,7 +6716,7 @@
         <v>-53278857.78684777</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>4.29</v>
@@ -6725,7 +6757,7 @@
         <v>-53278847.78684777</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>4.28</v>
@@ -6766,11 +6798,9 @@
         <v>-53278857.78684777</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>4.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>4.26</v>
       </c>
@@ -6807,11 +6837,9 @@
         <v>-53261474.32374777</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>4.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>4.26</v>
       </c>
@@ -6848,11 +6876,9 @@
         <v>-53261474.32374777</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>4.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>4.26</v>
       </c>
@@ -6867,6 +6893,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest WET.xlsx
+++ b/BackTest/2019-10-27 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2134,7 +2134,7 @@
         <v>-40607842.24797422</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-40580616.85787421</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-40551353.39907421</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-39719092.03107421</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-39834068.08417421</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-39833805.62847421</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-39838805.62847421</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-39838705.62847421</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-39846312.7088742</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-39846312.7088742</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-39953936.1987742</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-40237415.87277421</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-40343199.0852742</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-40343199.0852742</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-40358784.3879742</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-40358784.3879742</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-40358784.3879742</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-40374505.7546742</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-40407970.46747421</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-40418324.25197421</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-40418324.25197421</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-40430731.80847421</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3883,10 +3883,14 @@
         <v>-53293727.53587421</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4.22</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -3919,8 +3923,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4114,10 +4130,14 @@
         <v>-53362204.08617421</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4.18</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4147,11 +4167,19 @@
         <v>-53358116.85467421</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4208,19 @@
         <v>-53358116.85467421</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="J115" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,10 +4249,14 @@
         <v>-53358106.85467421</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4.19</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4249,8 +4289,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4328,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5038,14 +5090,10 @@
         <v>-53046335.18255103</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="J141" t="n">
-        <v>4.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5075,19 +5123,11 @@
         <v>-53046325.18255103</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J142" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5116,19 +5156,11 @@
         <v>-53046345.18255103</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J143" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5157,14 +5189,10 @@
         <v>-53046245.18255103</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J144" t="n">
-        <v>4.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5194,19 +5222,11 @@
         <v>-53046245.18255103</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J145" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5238,14 +5258,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5373,14 +5387,10 @@
         <v>-52915473.20734778</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J150" t="n">
-        <v>4.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5413,14 +5423,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5449,19 +5453,11 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J152" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5490,19 +5486,11 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J153" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5531,19 +5519,11 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J154" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5572,19 +5552,11 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5613,19 +5585,11 @@
         <v>-52915530.02334778</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5654,19 +5618,11 @@
         <v>-52891293.98904778</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5695,19 +5651,11 @@
         <v>-52902293.98904778</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J158" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5736,19 +5684,11 @@
         <v>-52902293.98904778</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5777,19 +5717,11 @@
         <v>-52891273.98904778</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5818,19 +5750,11 @@
         <v>-52908066.89004778</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J161" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5859,19 +5783,11 @@
         <v>-52897519.67374778</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J162" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5900,19 +5816,11 @@
         <v>-52912669.82174778</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J163" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5941,19 +5849,11 @@
         <v>-52912649.82174778</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J164" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5982,19 +5882,11 @@
         <v>-52936110.36914778</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J165" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6023,19 +5915,11 @@
         <v>-52936100.36914778</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J166" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6064,19 +5948,11 @@
         <v>-52936124.36914778</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J167" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6105,19 +5981,11 @@
         <v>-52936114.36914778</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="J168" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6149,14 +6017,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6188,14 +6050,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6224,19 +6080,11 @@
         <v>-53079312.95184778</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J171" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6265,19 +6113,11 @@
         <v>-53079302.95184778</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6306,19 +6146,11 @@
         <v>-53048997.43754777</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J173" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6347,19 +6179,11 @@
         <v>-53049051.43754777</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="J174" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6388,19 +6212,11 @@
         <v>-53049031.43754777</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J175" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6429,19 +6245,11 @@
         <v>-53049011.43754777</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J176" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6470,19 +6278,11 @@
         <v>-53049011.43754777</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J177" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6511,19 +6311,11 @@
         <v>-53302217.05984777</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J178" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6552,19 +6344,11 @@
         <v>-53302187.05984777</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J179" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6593,19 +6377,11 @@
         <v>-53278822.57394777</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J180" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6634,19 +6410,11 @@
         <v>-53278868.57394777</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J181" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6675,19 +6443,11 @@
         <v>-53278838.57394777</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J182" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6716,19 +6476,11 @@
         <v>-53278857.78684777</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J183" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6757,19 +6509,11 @@
         <v>-53278847.78684777</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J184" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6801,14 +6545,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6840,14 +6578,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6879,20 +6611,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest WET.xlsx
+++ b/BackTest/2019-10-27 BackTest WET.xlsx
@@ -2134,7 +2134,7 @@
         <v>-40607842.24797422</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-40580616.85787421</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-40551353.39907421</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-39719092.03107421</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-39833805.62847421</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-39838805.62847421</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-39838705.62847421</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-39846312.7088742</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-39846312.7088742</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-39953936.1987742</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-40237415.87277421</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-40343199.0852742</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-40358784.3879742</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-40358784.3879742</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-40374505.7546742</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-40407970.46747421</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-40418324.25197421</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-77158625.96797422</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-59381950.96797422</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3883,14 +3883,10 @@
         <v>-53293727.53587421</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="J106" t="n">
-        <v>4.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -3923,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3962,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4130,14 +4114,10 @@
         <v>-53362204.08617421</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="J113" t="n">
-        <v>4.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4167,19 +4147,11 @@
         <v>-53358116.85467421</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="J114" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4208,19 +4180,11 @@
         <v>-53358116.85467421</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="J115" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4249,14 +4213,10 @@
         <v>-53358106.85467421</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="J116" t="n">
-        <v>4.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4289,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4328,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5222,10 +5170,14 @@
         <v>-53046245.18255103</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J145" t="n">
+        <v>4.27</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
@@ -5258,8 +5210,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5291,8 +5249,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5324,8 +5288,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5357,8 +5327,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5390,8 +5366,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5402,19 @@
         <v>-52915463.20734778</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J151" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5456,8 +5446,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5486,11 +5482,19 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J153" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5519,11 +5523,19 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J154" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5552,11 +5564,19 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5585,11 +5605,19 @@
         <v>-52915530.02334778</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J156" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5646,19 @@
         <v>-52891293.98904778</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J157" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5651,11 +5687,19 @@
         <v>-52902293.98904778</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="J158" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5684,11 +5728,19 @@
         <v>-52902293.98904778</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J159" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5720,8 +5772,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5750,11 +5808,19 @@
         <v>-52908066.89004778</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="J161" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5783,11 +5849,19 @@
         <v>-52897519.67374778</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J162" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5816,11 +5890,19 @@
         <v>-52912669.82174778</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J163" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5849,11 +5931,19 @@
         <v>-52912649.82174778</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J164" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5882,11 +5972,19 @@
         <v>-52936110.36914778</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="J165" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5915,11 +6013,19 @@
         <v>-52936100.36914778</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J166" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5948,11 +6054,19 @@
         <v>-52936124.36914778</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="J167" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5984,8 +6098,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6014,11 +6134,19 @@
         <v>-52942190.01374777</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J169" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6047,11 +6175,19 @@
         <v>-53079322.95184778</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="J170" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6080,11 +6216,19 @@
         <v>-53079312.95184778</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6113,11 +6257,19 @@
         <v>-53079302.95184778</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="J172" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6149,8 +6301,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6182,8 +6340,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6212,11 +6376,19 @@
         <v>-53049031.43754777</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="J175" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6248,8 +6420,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6278,11 +6456,19 @@
         <v>-53049011.43754777</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="J177" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6314,8 +6500,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +6536,19 @@
         <v>-53302187.05984777</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="J179" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6377,11 +6577,19 @@
         <v>-53278822.57394777</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J180" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6413,8 +6621,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6446,8 +6660,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6479,8 +6699,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +6738,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6545,8 +6777,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6578,8 +6816,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6611,8 +6855,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-27 BackTest WET.xlsx
+++ b/BackTest/2019-10-27 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>9767237.569700001</v>
       </c>
       <c r="G2" t="n">
-        <v>-20839085.38417422</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>9391574.586200001</v>
       </c>
       <c r="G3" t="n">
-        <v>-20839085.38417422</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>9015911.6028</v>
       </c>
       <c r="G4" t="n">
-        <v>-20839085.38417422</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>9767237.569700001</v>
       </c>
       <c r="G5" t="n">
-        <v>-20839085.38417422</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>9767237.569700001</v>
       </c>
       <c r="G6" t="n">
-        <v>-20839085.38417422</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>9015911.6028</v>
       </c>
       <c r="G7" t="n">
-        <v>-20839085.38417422</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>434338.8248</v>
       </c>
       <c r="G8" t="n">
-        <v>-20404746.55937422</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>246500</v>
       </c>
       <c r="G9" t="n">
-        <v>-20158246.55937422</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>28500</v>
       </c>
       <c r="G10" t="n">
-        <v>-20129746.55937422</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>14025</v>
       </c>
       <c r="G11" t="n">
-        <v>-20129746.55937422</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>40077</v>
       </c>
       <c r="G12" t="n">
-        <v>-20169823.55937422</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>235485.298</v>
       </c>
       <c r="G13" t="n">
-        <v>-20405308.85737422</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>14632.9085</v>
       </c>
       <c r="G14" t="n">
-        <v>-20419941.76587422</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>8871</v>
       </c>
       <c r="G15" t="n">
-        <v>-20428812.76587422</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>111968.3227</v>
       </c>
       <c r="G16" t="n">
-        <v>-20540781.08857422</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>55</v>
       </c>
       <c r="G17" t="n">
-        <v>-20540726.08857422</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>99751.7175</v>
       </c>
       <c r="G18" t="n">
-        <v>-20640477.80607422</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>-20640455.80607422</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>-20640433.80607422</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>9645473.4573</v>
       </c>
       <c r="G21" t="n">
-        <v>-30285907.26337422</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>148</v>
       </c>
       <c r="G22" t="n">
-        <v>-30285907.26337422</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>-30285897.26337422</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>9519680.857100001</v>
       </c>
       <c r="G24" t="n">
-        <v>-39805578.12047423</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>8767196.800000001</v>
       </c>
       <c r="G25" t="n">
-        <v>-31038381.32047423</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>9476012.5963</v>
       </c>
       <c r="G26" t="n">
-        <v>-21562368.72417422</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>9498276.533299999</v>
       </c>
       <c r="G27" t="n">
-        <v>-31060645.25747422</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>508.725</v>
       </c>
       <c r="G28" t="n">
-        <v>-31061153.98247422</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>9132496.6666</v>
       </c>
       <c r="G29" t="n">
-        <v>-21928657.31587422</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-21928647.31587422</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1412.337</v>
       </c>
       <c r="G31" t="n">
-        <v>-21930059.65287422</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>157355.848</v>
       </c>
       <c r="G32" t="n">
-        <v>-22087415.50087423</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>240</v>
       </c>
       <c r="G33" t="n">
-        <v>-22087655.50087423</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>87566.1974</v>
       </c>
       <c r="G34" t="n">
-        <v>-22087655.50087423</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>9196908.2903</v>
       </c>
       <c r="G35" t="n">
-        <v>-12890747.21057422</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>36700390.5311</v>
       </c>
       <c r="G36" t="n">
-        <v>-49591137.74167422</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>26706602.2129</v>
       </c>
       <c r="G37" t="n">
-        <v>-22884535.52877422</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>16829405.4576</v>
       </c>
       <c r="G38" t="n">
-        <v>-39713940.98637422</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>8802018</v>
       </c>
       <c r="G39" t="n">
-        <v>-48515958.98637422</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>7613482.6515</v>
       </c>
       <c r="G40" t="n">
-        <v>-40902476.33487422</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>35.5374</v>
       </c>
       <c r="G41" t="n">
-        <v>-40902511.87227422</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>-40902501.87227422</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>30</v>
       </c>
       <c r="G43" t="n">
-        <v>-40902501.87227422</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>50.2314</v>
       </c>
       <c r="G44" t="n">
-        <v>-40902501.87227422</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>14972.2225</v>
       </c>
       <c r="G45" t="n">
-        <v>-40917474.09477422</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>6063.7501</v>
       </c>
       <c r="G46" t="n">
-        <v>-40911410.34467421</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>7008.4506</v>
       </c>
       <c r="G47" t="n">
-        <v>-40904401.89407422</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>160.5628</v>
       </c>
       <c r="G48" t="n">
-        <v>-40904401.89407422</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>-40904391.89407422</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>40227.9152</v>
       </c>
       <c r="G50" t="n">
-        <v>-40904391.89407422</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>16818.8817</v>
       </c>
       <c r="G51" t="n">
-        <v>-40887573.01237421</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>98180.14659999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-40789392.86577421</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>181550.6178</v>
       </c>
       <c r="G53" t="n">
-        <v>-40607842.24797422</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>27225.3901</v>
       </c>
       <c r="G54" t="n">
-        <v>-40580616.85787421</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>29263.4588</v>
       </c>
       <c r="G55" t="n">
-        <v>-40551353.39907421</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>832261.368</v>
       </c>
       <c r="G56" t="n">
-        <v>-39719092.03107421</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>12919.8832</v>
       </c>
       <c r="G57" t="n">
-        <v>-39719092.03107421</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>23.9469</v>
       </c>
       <c r="G58" t="n">
-        <v>-39719068.08417421</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>115000</v>
       </c>
       <c r="G59" t="n">
-        <v>-39834068.08417421</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>262.4557</v>
       </c>
       <c r="G60" t="n">
-        <v>-39833805.62847421</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>5548.783</v>
       </c>
       <c r="G61" t="n">
-        <v>-39833805.62847421</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>5000</v>
       </c>
       <c r="G62" t="n">
-        <v>-39838805.62847421</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>-39838705.62847421</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>7607.0804</v>
       </c>
       <c r="G64" t="n">
-        <v>-39846312.7088742</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>16666.6666</v>
       </c>
       <c r="G65" t="n">
-        <v>-39846312.7088742</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>107623.4899</v>
       </c>
       <c r="G66" t="n">
-        <v>-39953936.1987742</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>283479.674</v>
       </c>
       <c r="G67" t="n">
-        <v>-40237415.87277421</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>105783.2125</v>
       </c>
       <c r="G68" t="n">
-        <v>-40343199.0852742</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>27388.46744285714</v>
       </c>
       <c r="G69" t="n">
-        <v>-40343199.0852742</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>15585.3027</v>
       </c>
       <c r="G70" t="n">
-        <v>-40358784.3879742</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>21215.4814</v>
       </c>
       <c r="G71" t="n">
-        <v>-40358784.3879742</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>8117.8242</v>
       </c>
       <c r="G72" t="n">
-        <v>-40358784.3879742</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>15721.3667</v>
       </c>
       <c r="G73" t="n">
-        <v>-40374505.7546742</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>33464.7128</v>
       </c>
       <c r="G74" t="n">
-        <v>-40407970.46747421</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>10353.7845</v>
       </c>
       <c r="G75" t="n">
-        <v>-40418324.25197421</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>17756.4427</v>
       </c>
       <c r="G76" t="n">
-        <v>-40418324.25197421</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>9165.4172</v>
       </c>
       <c r="G77" t="n">
-        <v>-40427489.66917421</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>3242.1393</v>
       </c>
       <c r="G78" t="n">
-        <v>-40430731.80847421</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>8411.8055</v>
       </c>
       <c r="G79" t="n">
-        <v>-40430731.80847421</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>249778.8062</v>
       </c>
       <c r="G80" t="n">
-        <v>-40680510.61467421</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-40680500.61467421</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>8923048.673800001</v>
       </c>
       <c r="G82" t="n">
-        <v>-31757451.94087421</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>45401174.0271</v>
       </c>
       <c r="G83" t="n">
-        <v>-77158625.96797422</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>27847909.1798</v>
       </c>
       <c r="G84" t="n">
-        <v>-77158625.96797422</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>17776675</v>
       </c>
       <c r="G85" t="n">
-        <v>-59381950.96797422</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>113941.8208</v>
       </c>
       <c r="G86" t="n">
-        <v>-59495892.78877421</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>-59495902.78877421</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>-59495892.78877421</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>7823975</v>
       </c>
       <c r="G89" t="n">
-        <v>-59495892.78877421</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>35634441</v>
       </c>
       <c r="G90" t="n">
-        <v>-59495892.78877421</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>6758183.1105</v>
       </c>
       <c r="G91" t="n">
-        <v>-52737709.67827421</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-52737699.67827421</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>-52737799.67827421</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>-52737899.67827421</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>11382.2477</v>
       </c>
       <c r="G95" t="n">
-        <v>-52737899.67827421</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>43985.633</v>
       </c>
       <c r="G96" t="n">
-        <v>-52781885.31127422</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>502005.8841</v>
       </c>
       <c r="G97" t="n">
-        <v>-53283891.19537421</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-53283881.19537421</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>724.0752</v>
       </c>
       <c r="G99" t="n">
-        <v>-53284605.27057421</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>8708.265299999999</v>
       </c>
       <c r="G100" t="n">
-        <v>-53293313.53587421</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>444</v>
       </c>
       <c r="G101" t="n">
-        <v>-53293757.53587421</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>-53293747.53587421</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>434</v>
       </c>
       <c r="G103" t="n">
-        <v>-53293747.53587421</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-53293737.53587421</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>44369.9756</v>
       </c>
       <c r="G105" t="n">
-        <v>-53293737.53587421</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-53293727.53587421</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>432.915</v>
       </c>
       <c r="G107" t="n">
-        <v>-53294160.45087421</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-53294150.45087421</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>58497.6353</v>
       </c>
       <c r="G109" t="n">
-        <v>-53352648.08617421</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>55437.9799</v>
       </c>
       <c r="G110" t="n">
-        <v>-53352648.08617421</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>9556</v>
       </c>
       <c r="G111" t="n">
-        <v>-53362204.08617421</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>6699.043</v>
       </c>
       <c r="G112" t="n">
-        <v>-53362204.08617421</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>1237.4155</v>
       </c>
       <c r="G113" t="n">
-        <v>-53362204.08617421</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>4087.2315</v>
       </c>
       <c r="G114" t="n">
-        <v>-53358116.85467421</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>927.6264</v>
       </c>
       <c r="G115" t="n">
-        <v>-53358116.85467421</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>-53358106.85467421</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>-53358096.85467421</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>11993.6308</v>
       </c>
       <c r="G118" t="n">
-        <v>-53370090.48547421</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>11397.5311</v>
       </c>
       <c r="G119" t="n">
-        <v>-53358692.95437422</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,19 @@
         <v>71090.1309</v>
       </c>
       <c r="G120" t="n">
-        <v>-53358692.95437422</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>4.22</v>
+      </c>
+      <c r="I120" t="n">
+        <v>4.22</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4017,23 @@
         <v>27333.1696</v>
       </c>
       <c r="G121" t="n">
-        <v>-53358692.95437422</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>4.22</v>
+      </c>
+      <c r="I121" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4055,21 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-53358682.95437422</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4091,19 @@
         <v>11963.6467</v>
       </c>
       <c r="G123" t="n">
-        <v>-53370646.60107422</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>4.24</v>
+      </c>
+      <c r="I123" t="n">
+        <v>4.24</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4125,21 @@
         <v>2650</v>
       </c>
       <c r="G124" t="n">
-        <v>-53370646.60107422</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4161,21 @@
         <v>17134.9866</v>
       </c>
       <c r="G125" t="n">
-        <v>-53353511.61447422</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4197,15 @@
         <v>34610.5794</v>
       </c>
       <c r="G126" t="n">
-        <v>-53353511.61447422</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4227,15 @@
         <v>44080</v>
       </c>
       <c r="G127" t="n">
-        <v>-53353511.61447422</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4257,15 @@
         <v>17806.3797</v>
       </c>
       <c r="G128" t="n">
-        <v>-53353511.61447422</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4287,15 @@
         <v>207093.4117</v>
       </c>
       <c r="G129" t="n">
-        <v>-53146418.20277422</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4317,15 @@
         <v>167871.7176</v>
       </c>
       <c r="G130" t="n">
-        <v>-52978546.48517422</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4347,15 @@
         <v>29411.5139</v>
       </c>
       <c r="G131" t="n">
-        <v>-52978546.48517422</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4377,15 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>-52978536.48517422</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4407,15 @@
         <v>280.0936768149883</v>
       </c>
       <c r="G133" t="n">
-        <v>-52978816.57885103</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4437,15 @@
         <v>14577.1126</v>
       </c>
       <c r="G134" t="n">
-        <v>-52993393.69145103</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4467,15 @@
         <v>37669.5522</v>
       </c>
       <c r="G135" t="n">
-        <v>-52993393.69145103</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4497,15 @@
         <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>-52993383.69145103</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4527,15 @@
         <v>14222.9581</v>
       </c>
       <c r="G137" t="n">
-        <v>-53007606.64955103</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4557,15 @@
         <v>10</v>
       </c>
       <c r="G138" t="n">
-        <v>-53007596.64955103</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4587,15 @@
         <v>16162.1794</v>
       </c>
       <c r="G139" t="n">
-        <v>-53023758.82895102</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4617,15 @@
         <v>23635.3536</v>
       </c>
       <c r="G140" t="n">
-        <v>-53047394.18255103</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4647,15 @@
         <v>1059</v>
       </c>
       <c r="G141" t="n">
-        <v>-53046335.18255103</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4677,15 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>-53046325.18255103</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4707,15 @@
         <v>20</v>
       </c>
       <c r="G143" t="n">
-        <v>-53046345.18255103</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4737,15 @@
         <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>-53046245.18255103</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,22 +4767,15 @@
         <v>13142.47072318501</v>
       </c>
       <c r="G145" t="n">
-        <v>-53046245.18255103</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J145" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5204,24 +4797,15 @@
         <v>6804.4691</v>
       </c>
       <c r="G146" t="n">
-        <v>-53039440.71345103</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5243,24 +4827,15 @@
         <v>121545.3895032483</v>
       </c>
       <c r="G147" t="n">
-        <v>-52917895.32394778</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5282,24 +4857,15 @@
         <v>167.7714</v>
       </c>
       <c r="G148" t="n">
-        <v>-52918063.09534778</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5321,24 +4887,15 @@
         <v>2589.888</v>
       </c>
       <c r="G149" t="n">
-        <v>-52915473.20734778</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5360,24 +4917,15 @@
         <v>26212.8075</v>
       </c>
       <c r="G150" t="n">
-        <v>-52915473.20734778</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5399,26 +4947,15 @@
         <v>10</v>
       </c>
       <c r="G151" t="n">
-        <v>-52915463.20734778</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J151" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5440,24 +4977,15 @@
         <v>33.5244</v>
       </c>
       <c r="G152" t="n">
-        <v>-52915496.73174778</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5479,26 +5007,15 @@
         <v>21000</v>
       </c>
       <c r="G153" t="n">
-        <v>-52915496.73174778</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J153" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5520,26 +5037,15 @@
         <v>35000</v>
       </c>
       <c r="G154" t="n">
-        <v>-52915496.73174778</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J154" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5561,26 +5067,15 @@
         <v>2573.0333</v>
       </c>
       <c r="G155" t="n">
-        <v>-52915496.73174778</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5602,26 +5097,15 @@
         <v>33.2916</v>
       </c>
       <c r="G156" t="n">
-        <v>-52915530.02334778</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5643,26 +5127,15 @@
         <v>24236.0343</v>
       </c>
       <c r="G157" t="n">
-        <v>-52891293.98904778</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5684,26 +5157,15 @@
         <v>11000</v>
       </c>
       <c r="G158" t="n">
-        <v>-52902293.98904778</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J158" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5725,26 +5187,15 @@
         <v>61887.6903</v>
       </c>
       <c r="G159" t="n">
-        <v>-52902293.98904778</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5766,24 +5217,15 @@
         <v>11020</v>
       </c>
       <c r="G160" t="n">
-        <v>-52891273.98904778</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5805,26 +5247,15 @@
         <v>16792.901</v>
       </c>
       <c r="G161" t="n">
-        <v>-52908066.89004778</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J161" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5846,26 +5277,15 @@
         <v>10547.2163</v>
       </c>
       <c r="G162" t="n">
-        <v>-52897519.67374778</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J162" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5887,26 +5307,15 @@
         <v>15150.148</v>
       </c>
       <c r="G163" t="n">
-        <v>-52912669.82174778</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J163" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5928,26 +5337,15 @@
         <v>20</v>
       </c>
       <c r="G164" t="n">
-        <v>-52912649.82174778</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J164" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5969,26 +5367,15 @@
         <v>23460.5474</v>
       </c>
       <c r="G165" t="n">
-        <v>-52936110.36914778</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J165" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6010,26 +5397,15 @@
         <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>-52936100.36914778</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J166" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6051,26 +5427,15 @@
         <v>24</v>
       </c>
       <c r="G167" t="n">
-        <v>-52936124.36914778</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J167" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6092,24 +5457,15 @@
         <v>10</v>
       </c>
       <c r="G168" t="n">
-        <v>-52936114.36914778</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6131,26 +5487,15 @@
         <v>6075.6446</v>
       </c>
       <c r="G169" t="n">
-        <v>-52942190.01374777</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J169" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6172,26 +5517,15 @@
         <v>137132.9381</v>
       </c>
       <c r="G170" t="n">
-        <v>-53079322.95184778</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J170" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6213,26 +5547,15 @@
         <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>-53079312.95184778</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J171" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6254,26 +5577,15 @@
         <v>10</v>
       </c>
       <c r="G172" t="n">
-        <v>-53079302.95184778</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6295,24 +5607,15 @@
         <v>30305.5143</v>
       </c>
       <c r="G173" t="n">
-        <v>-53048997.43754777</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6334,24 +5637,15 @@
         <v>54</v>
       </c>
       <c r="G174" t="n">
-        <v>-53049051.43754777</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6373,26 +5667,15 @@
         <v>20</v>
       </c>
       <c r="G175" t="n">
-        <v>-53049031.43754777</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J175" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6414,24 +5697,15 @@
         <v>20</v>
       </c>
       <c r="G176" t="n">
-        <v>-53049011.43754777</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6453,26 +5727,15 @@
         <v>16</v>
       </c>
       <c r="G177" t="n">
-        <v>-53049011.43754777</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J177" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6494,24 +5757,15 @@
         <v>253205.6223</v>
       </c>
       <c r="G178" t="n">
-        <v>-53302217.05984777</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6533,26 +5787,15 @@
         <v>30</v>
       </c>
       <c r="G179" t="n">
-        <v>-53302187.05984777</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="J179" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6574,26 +5817,15 @@
         <v>23364.4859</v>
       </c>
       <c r="G180" t="n">
-        <v>-53278822.57394777</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J180" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6615,24 +5847,15 @@
         <v>46</v>
       </c>
       <c r="G181" t="n">
-        <v>-53278868.57394777</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6654,24 +5877,15 @@
         <v>30</v>
       </c>
       <c r="G182" t="n">
-        <v>-53278838.57394777</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6693,24 +5907,15 @@
         <v>19.2129</v>
       </c>
       <c r="G183" t="n">
-        <v>-53278857.78684777</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6732,24 +5937,15 @@
         <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>-53278847.78684777</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6771,24 +5967,15 @@
         <v>10</v>
       </c>
       <c r="G185" t="n">
-        <v>-53278857.78684777</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6810,24 +5997,15 @@
         <v>17383.4631</v>
       </c>
       <c r="G186" t="n">
-        <v>-53261474.32374777</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6849,24 +6027,15 @@
         <v>10</v>
       </c>
       <c r="G187" t="n">
-        <v>-53261474.32374777</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
